--- a/hasil uji/jumlahITER.xlsx
+++ b/hasil uji/jumlahITER.xlsx
@@ -466,60 +466,60 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[1 0 0 1 1 1 0 0 0 1 1 0 1 0 1 1 0 0 1 1 0 0 0 0 1 1 0 0 0 0 1 0 1 0 1 0 0
- 0 1 0 0 0 1 1 1 1 1 1 0 1 0 0 1 0 0 1 0 0 1 1 1 1 1 1 0 0 1 0 1 1 1 1 0 1
- 0 0 1 0 1 1 0 1 0 1 1 1 1 0 0 1 0 0 1 1 0 1 1 0 0 0 0 0 0 1 0 1 1 0 1 0 1
- 0 1 0 0 1 1 1 1 0 1 1 1 1 0 1 1 1 0 0 0 1 1 1 1 0 0 0 0 1 0 1 1 0 0 0 1 0
- 0 1 1 1 1 1 1 1 1 1 1 0 0 1 0 1 1 0 0 0 0 1 1 1 0 1 1 1 0 1 1 1 1 1 1 1 1
- 0 0 0 0 0 1 0 0 1 0 1 1 0 0 1 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 1 1 0
- 1 1 0 0 0 1 0 0 1 0 1 0 0 0 1 1 1 1 0 0 0 1 0 1 1 1 0 0 0 0 0 1 1 0 1 0 1
- 1 1 0 0 0 1 0 1 1 1 1 0 0 0 0 1 0 1 0 0 1 1 1 0 1 0 0 1 0 1 1 0 0 0 1 1 1
- 1 1 1 0 1 0 0 0 0 0 1 1 0 1 1 0 0 0 1 0 1 0 0 1 0 1 1 1 1 1 0 1 1 0 0 0 1
- 1 1 1 0 1 0 1 1 0 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 1 1 0 0 0 1 1 0 0 0 0
- 0 1 1 1 0 1 1 0 1 1 0 0 0 1 1 1 1 0 1 0 0 1 1 0 0 1 0 1 0 0 0 1 1 1 0 1 0
- 1 0 0 0 1 1 0 0 1 0 1 0 0 1 0 0 0 1 0 1 0 1 1 1 1 1 1 1 0 0 1 0 0 1 1 1 0
- 1 1 0 1 0 0 0 0 0 0 0 0 0 1 1 1 1 0 1 1 0 1 0 1 0 0 0 0 0 1 1 0 0 1 0 1 0
- 0 0 1 1 1 1 0 0 0 1 1 0 0 0 1 0 0 0 1 1 0 0 1 0 0 1 0 1 1 0 0 0 1 1 1 1 1
- 0 0 1 1 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 1 1 1 1 1 0 0 0 1 1 1 1 1 0 0 1 0 0
- 0 0 1 1 0 0 1 1 1 1 0 1 1 0 0 1 0 1 0 0 1 1 1 1 1 1 0 0 1 0 0 0 1 0 1 1 1
- 0 0 1 1 1 1 1 0 1 1 0 0 1 1 1 0 1 0 0 1 0 0 0 0 1 0 0 1 1 0 1 1 1 1 0 0 1
- 0 0 0 1 0 1 0 1 1 0 0 1 1 1 0 1 0 1 1 0 0 1 0 1 1 1 0 0 1 1 0 0 0 1 1 0 0
- 1 0 0 0 0 1 0 1 1 1 0 0 1 0 1 0 1 0 1 1 1 0 0 1 0 0 0 0 1 0 0 0 0 1 1 1 1
- 1 0 1 1 1 0 0 1 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 1 0 0 1 1 1 1 1 1 0 1 1
- 1 0 0 1 1 0 0 0 0 1 0 0 1]</t>
+          <t>[1 0 1 0 0 0 1 1 0 1 1 1 0 1 0 0 1 1 1 1 0 1 1 0 1 1 1 0 1 1 1 0 1 1 0 0 1
+ 0 1 1 1 1 1 0 1 1 0 1 1 1 0 0 1 0 1 1 0 0 1 1 0 1 1 0 0 0 0 1 0 0 0 1 0 1
+ 0 1 0 0 0 1 0 0 1 0 0 1 1 0 1 0 0 1 0 1 0 1 0 0 1 1 0 1 1 0 1 1 0 1 0 1 0
+ 0 0 1 1 0 0 0 1 1 1 1 0 1 1 1 1 0 0 0 1 1 1 0 1 0 1 1 1 0 0 0 1 0 0 0 1 0
+ 0 0 0 0 1 1 1 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 1 1 1 0 1 0
+ 1 0 0 0 0 0 1 1 1 1 0 0 0 1 0 1 1 0 0 1 1 1 1 1 1 1 1 0 1 0 1 1 0 1 1 0 1
+ 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 1 1 1 0 1 1 1 1 1 0 0 1 0
+ 1 1 0 1 1 0 0 1 0 0 0 1 0 0 1 1 0 1 1 1 0 0 1 0 1 1 1 1 0 0 1 1 1 1 1 1 1
+ 1 0 1 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 1 0 0 0 0 1
+ 1 0 1 1 1 1 1 1 0 0 1 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 1 1 1 0 1 0 1 0
+ 1 0 1 0 1 1 1 0 1 1 0 1 1 1 1 0 1 0 1 1 1 0 0 1 0 1 1 0 1 0 0 1 0 1 0 1 1
+ 0 1 0 1 1 0 1 1 1 0 0 1 1 1 1 1 0 1 1 0 1 0 0 0 1 1 0 1 0 1 1 0 0 1 0 1 1
+ 1 1 1 1 1 1 0 1 1 1 1 0 1 1 1 1 1 0 1 0 0 1 0 1 1 1 1 1 0 0 0 1 0 1 1 1 1
+ 1 1 1 0 0 1 0 1 0 1 1 1 1 0 0 1 1 0 0 0 1 1 0 1 1 1 1 0 1 0 0 0 0 1 0 0 1
+ 0 1 0 0 0 1 0 1 1 1 0 1 0 1 1 1 0 1 0 1 1 0 1 0 0 1 1 1 1 0 0 0 1 1 0 0 0
+ 1 1 1 1 0 1 0 0 1 1 0 0 1 1 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 1
+ 1 0 1 0 1 0 0 1 0 0 0 1 0 1 0 1 1 0 0 0 1 1 0 1 0 0 1 1 0 1 0 0 0 1 0 1 0
+ 1 0 1 0 1 0 1 1 1 0 1 1 0 0 1 1 0 1 1 1 1 0 0 1 1 1 1 0 0 0 1 1 1 1 0 0 1
+ 1 0 0 0 1 1 1 0 1 0 1 1 0 1 1 0 1 1 0 1 0 0 0 0 1 0 0 1 0 1 0 1 1 1 1 0 1
+ 0 1 0 1 1 1 0 1 0 1 1 0 1 1 0 1 0 1 0 0 0 1 1 0 1 1 1 1 0 0 0 1 0 0 0 0 0
+ 1 0 1 0 1 0 1 1 0 0 1 1 1]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[  0   3   4   5   9  10  12  14  15  18  19  24  25  30  32  34  38  42
-  43  44  45  46  47  49  52  55  58  59  60  61  62  63  66  68  69  70
-  71  73  76  78  79  81  83  84  85  86  89  92  93  95  96 103 105 106
- 108 110 112 115 116 117 118 120 121 122 123 125 126 127 131 132 133 134
- 139 141 142 146 149 150 151 152 153 154 155 156 157 158 161 163 164 169
- 170 171 173 174 175 177 178 179 180 181 182 183 184 190 193 195 196 199
- 200 201 205 208 217 218 219 220 222 223 227 230 232 236 237 238 239 243
- 245 246 247 253 254 256 258 259 260 264 266 267 268 269 274 276 279 280
- 281 283 286 288 289 293 294 295 296 297 298 300 306 307 309 310 314 316
- 319 321 322 323 324 325 327 328 332 333 334 335 337 339 340 342 345 346
- 347 348 350 351 353 354 355 356 359 360 364 365 371 372 373 375 376 378
- 379 383 384 385 386 388 391 392 395 397 401 402 403 405 407 411 412 415
- 417 420 424 426 428 429 430 431 432 433 434 437 440 441 442 444 445 447
- 457 458 459 460 462 463 465 467 473 474 477 479 483 484 485 486 490 491
- 495 499 500 503 506 508 509 513 514 515 516 517 520 521 523 526 529 535
- 537 538 539 540 541 545 546 547 548 549 552 557 558 561 562 563 564 566
- 567 570 572 575 576 577 578 579 580 583 587 589 590 591 594 595 596 597
- 598 600 601 604 605 606 608 611 616 619 620 622 623 624 625 628 632 634
- 636 637 640 641 642 644 646 647 650 652 653 654 657 658 662 663 666 671
- 673 674 675 678 680 682 684 685 686 689 694 699 700 701 702 703 705 706
- 707 710 717 719 720 722 728 731 732 733 734 735 736 738 739 740 743 744
- 749 752]</t>
+          <t>[  0   2   6   7   9  10  11  13  16  17  18  19  21  22  24  25  26  28
+  29  30  32  33  36  38  39  40  41  42  44  45  47  48  49  52  54  55
+  58  59  61  62  67  71  73  75  79  82  85  86  88  91  93  95  98  99
+ 101 102 104 105 107 109 113 114 118 119 120 121 123 124 125 126 130 131
+ 132 134 136 137 138 142 146 152 153 154 157 158 165 170 176 179 180 181
+ 183 185 191 192 193 194 198 200 201 204 205 206 207 208 209 210 211 213
+ 215 216 218 219 221 223 224 227 230 238 241 242 244 246 247 248 250 251
+ 252 253 254 257 259 260 262 263 266 270 273 274 276 277 278 281 283 284
+ 285 286 289 290 291 292 293 294 295 296 298 301 303 306 311 317 319 323
+ 324 327 332 333 335 336 337 338 339 340 343 344 348 350 354 360 362 363
+ 364 366 368 370 372 374 375 376 378 379 381 382 383 384 386 388 389 390
+ 393 395 396 398 401 403 405 406 408 410 411 413 414 415 418 419 420 421
+ 422 424 425 427 431 432 434 436 437 440 442 443 444 445 446 447 448 449
+ 451 452 453 454 456 457 458 459 460 462 465 467 468 469 470 471 475 477
+ 478 479 480 481 482 483 486 488 490 491 492 493 496 497 501 502 504 505
+ 506 507 509 514 517 519 523 525 526 527 529 531 532 533 535 537 538 540
+ 543 544 545 546 550 551 555 556 557 558 560 563 564 567 568 570 571 575
+ 579 584 586 587 591 592 594 596 599 603 605 607 608 612 613 615 618 619
+ 621 625 627 629 631 633 635 636 637 639 640 643 644 646 647 648 649 652
+ 653 654 655 659 660 661 662 665 666 670 671 672 674 676 677 679 680 682
+ 683 685 690 693 695 697 698 699 700 702 704 706 707 708 710 712 713 715
+ 716 718 720 724 725 727 728 729 730 734 740 742 744 746 747 750 751 752]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E2" t="n">
-        <v>9.0955810546875</v>
+        <v>13.07705760002136</v>
       </c>
     </row>
     <row r="3">
@@ -528,59 +528,64 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[1 0 0 0 1 1 1 1 0 1 0 0 1 0 1 1 1 1 0 1 1 0 1 1 0 0 0 0 1 0 0 0 1 0 0 1 0
- 0 1 0 0 0 1 1 0 1 1 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 0 1
- 0 1 0 1 0 0 0 1 1 1 1 1 0 0 1 0 1 0 0 0 1 0 1 0 0 1 1 1 1 1 1 0 0 0 0 0 0
- 1 1 1 0 0 0 0 0 1 0 1 0 1 0 1 1 0 1 0 0 0 0 0 0 0 1 1 0 1 0 1 1 0 0 1 0 1
- 1 0 1 0 1 0 0 0 0 0 1 0 0 0 1 1 1 0 1 1 1 1 0 0 1 1 0 0 1 1 1 1 1 0 0 0 0
- 0 1 0 0 1 0 1 1 1 0 0 0 0 1 0 0 1 1 0 1 0 1 0 0 1 0 1 1 0 0 0 0 1 1 0 0 0
- 0 1 0 1 1 0 1 0 1 1 0 0 0 1 1 1 1 1 0 0 1 1 0 0 0 1 1 0 1 1 1 1 1 0 1 0 1
- 0 1 1 1 1 1 1 1 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 1 1 1 1 1 0 0 0 1 0 0 1 1 1
- 1 1 1 0 0 0 1 1 1 1 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1
- 0 0 1 0 1 1 0 0 1 1 1 0 0 0 0 0 0 1 1 0 0 1 1 0 0 1 1 1 1 0 0 0 0 1 0 0 1
- 0 1 0 0 1 1 0 1 0 1 1 1 1 0 1 0 0 0 0 1 0 1 1 1 0 1 0 1 0 0 1 1 1 0 0 1 0
- 0 1 0 0 1 0 1 0 0 0 0 1 1 0 1 1 0 1 0 1 0 0 0 1 0 1 0 0 1 0 0 0 1 1 1 0 1
- 1 0 0 1 0 0 1 1 1 1 0 1 1 0 0 0 1 1 1 1 0 1 0 1 0 1 0 0 1 0 0 0 0 1 0 1 0
- 1 0 1 0 1 0 1 1 0 1 1 1 1 0 1 0 0 0 0 0 0 1 1 0 1 0 1 0 1 0 1 1 0 0 1 0 1
- 0 1 1 0 1 0 0 1 0 1 1 1 1 1 0 0 0 0 1 1 0 0 1 0 1 1 1 0 0 1 1 1 0 0 1 0 1
- 1 1 0 0 1 1 1 0 1 1 0 1 1 1 0 0 1 1 0 0 0 0 0 1 1 1 1 1 1 1 1 1 1 0 0 1 0
- 1 1 1 1 1 1 1 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 1 1 0 1 0 0 0 0 0 1 0
- 1 0 1 0 0 1 0 0 0 1 1 1 0 1 0 0 0 1 1 0 1 1 0 1 1 1 1 0 0 1 1 1 1 0 1 0 0
- 1 1 0 1 0 1 1 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 1 1 0 0 0 0 1 1 1 1 0 1 1 0
- 1 1 0 0 0 1 0 1 1 1 1 1 0 1 1 0 1 0 1 1 1 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1
- 1 0 0 0 1 1 0 0 0 0 1 0 0]</t>
+          <t>[1 1 0 0 0 1 1 0 0 1 0 1 0 1 0 1 1 0 0 1 1 1 0 0 0 1 1 1 1 0 0 1 0 0 1 1 1
+ 1 0 1 1 1 1 1 1 0 1 1 0 1 1 0 1 1 1 1 1 0 0 1 0 1 1 0 0 0 0 1 0 0 1 1 1 0
+ 0 1 1 0 0 1 0 0 1 1 0 1 0 1 1 1 1 0 0 1 1 1 0 0 0 0 1 1 0 1 0 1 1 0 0 0 1
+ 0 1 0 1 1 0 1 0 1 0 0 1 1 0 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 0 0 1 0 0 0 1 0
+ 0 0 0 1 0 1 0 1 1 1 0 1 0 1 1 1 1 1 0 0 1 0 0 1 1 0 1 1 0 1 1 0 1 1 0 1 1
+ 0 1 1 0 0 1 1 0 0 1 1 0 1 0 1 0 0 1 1 1 1 1 0 1 1 1 1 1 1 1 0 0 0 1 1 1 1
+ 0 1 1 1 1 1 1 1 0 0 0 0 0 1 1 0 1 0 0 1 0 1 0 0 0 0 1 0 1 1 1 1 1 0 1 0 1
+ 1 1 1 1 0 0 0 1 1 1 1 1 0 1 0 1 0 1 1 1 0 1 0 0 1 1 0 1 0 0 1 1 1 1 0 0 1
+ 0 1 0 1 1 1 0 1 1 0 1 1 1 0 0 0 1 0 1 1 1 0 1 1 0 1 1 1 0 0 1 1 0 1 1 0 1
+ 1 0 1 1 1 1 1 0 1 0 1 0 1 1 0 1 1 0 1 0 1 1 1 1 0 0 1 1 1 0 1 0 1 1 1 1 1
+ 1 1 0 1 0 1 1 0 1 1 1 0 1 1 1 0 1 1 0 1 1 0 1 1 0 0 1 1 0 0 1 1 1 0 0 1 1
+ 1 1 1 1 1 1 1 0 0 0 0 0 1 1 0 1 0 1 1 1 0 0 1 1 1 1 1 0 0 1 0 1 1 1 1 1 1
+ 0 0 0 1 1 0 0 0 1 1 0 0 0 1 0 1 0 0 1 1 1 1 1 0 1 0 0 1 0 1 1 1 1 1 0 0 1
+ 0 1 1 1 1 1 1 1 1 1 0 1 1 0 1 0 1 1 0 1 0 1 1 0 1 0 1 1 0 0 1 1 1 0 1 0 1
+ 0 1 0 0 0 1 1 1 0 0 1 0 1 1 1 0 1 1 0 0 1 0 0 1 1 1 1 0 0 1 0 1 1 1 1 0 0
+ 0 0 1 0 1 0 0 1 1 0 1 1 1 0 0 0 1 0 0 0 1 0 0 0 1 1 1 1 1 1 1 1 0 1 0 1 0
+ 1 1 1 1 0 0 1 0 1 1 1 1 1 0 1 1 0 1 1 1 1 1 1 0 1 0 0 0 1 0 1 1 0 1 0 0 1
+ 0 1 1 0 1 1 1 0 1 0 1 0 1 0 0 0 0 1 1 1 1 1 1 1 0 1 0 0 1 1 0 1 0 1 1 1 0
+ 0 1 1 0 1 0 1 1 1 1 0 1 0 0 1 1 0 1 0 1 1 1 1 1 1 0 1 1 1 1 0 0 1 1 0 1 1
+ 1 0 0 0 1 0 0 1 1 0 1 1 0 1 0 1 0 1 0 1 0 1 1 0 1 0 1 0 1 1 0 1 1 0 0 1 0
+ 1 1 0 1 1 1 1 1 1 0 0 1 0]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[  0   4   5   6   7   9  12  14  15  16  17  19  20  22  23  28  32  35
-  38  42  43  45  46  48  52  54  59  66  70  71  73  75  77  81  82  83
-  84  85  88  90  94  96  99 100 101 102 103 104 111 112 113 119 121 123
- 125 126 128 136 137 139 141 142 145 147 148 150 152 158 162 163 164 166
- 167 168 169 172 173 176 177 178 179 180 186 189 191 192 193 198 201 202
- 204 206 209 211 212 217 218 223 225 226 228 230 231 235 236 237 238 239
- 242 243 247 248 250 251 252 253 254 256 258 260 261 262 263 264 265 266
- 272 275 276 278 282 283 284 285 286 290 293 294 295 296 297 298 302 303
- 304 305 308 311 313 314 321 329 332 335 337 338 341 342 343 350 351 354
- 355 358 359 360 361 366 369 371 374 375 377 379 380 381 382 384 389 391
- 392 393 395 397 400 401 402 405 408 411 413 418 419 421 422 424 426 430
- 432 435 439 440 441 443 444 447 450 451 452 453 455 456 460 461 462 463
- 465 467 469 472 477 479 481 483 485 487 488 490 491 492 493 495 502 503
- 505 507 509 511 512 515 517 519 520 522 525 527 528 529 530 531 536 537
- 540 542 543 544 547 548 549 552 554 555 556 559 560 561 563 564 566 567
- 568 571 572 578 579 580 581 582 583 584 585 586 587 590 592 593 594 595
- 596 597 598 601 607 609 612 617 618 619 621 627 629 631 634 638 639 640
- 642 646 647 649 650 652 653 654 655 658 659 660 661 663 666 667 669 671
- 672 673 681 683 686 688 689 690 695 696 697 698 700 701 703 704 708 710
- 711 712 713 714 716 717 719 721 722 723 724 725 727 729 739 740 744 745
- 750]</t>
+          <t>[  0   1   5   6   9  11  13  15  16  19  20  21  25  26  27  28  31  34
+  35  36  37  39  40  41  42  43  44  46  47  49  50  52  53  54  55  56
+  59  61  62  67  70  71  72  75  76  79  82  83  85  87  88  89  90  93
+  94  95 100 101 103 105 106 110 112 114 115 117 119 122 123 125 126 127
+ 128 129 130 131 132 133 134 135 136 137 139 142 146 151 153 155 156 157
+ 159 161 162 163 164 165 168 171 172 174 175 177 178 180 181 183 184 186
+ 187 190 191 194 195 197 199 202 203 204 205 206 208 209 210 211 212 213
+ 214 218 219 220 221 223 224 225 226 227 228 229 235 236 238 241 243 248
+ 250 251 252 253 254 256 258 259 260 261 262 266 267 268 269 270 272 274
+ 276 277 278 280 283 284 286 289 290 291 292 295 297 299 300 301 303 304
+ 306 307 308 312 314 315 316 318 319 321 322 323 326 327 329 330 332 333
+ 335 336 337 338 339 341 343 345 346 348 349 351 353 354 355 356 359 360
+ 361 363 365 366 367 368 369 370 371 373 375 376 378 379 380 382 383 384
+ 386 387 389 390 392 393 396 397 400 401 402 405 406 407 408 409 410 411
+ 412 413 419 420 422 424 425 426 429 430 431 432 433 436 438 439 440 441
+ 442 443 447 448 452 453 457 459 462 463 464 465 466 468 471 473 474 475
+ 476 477 480 482 483 484 485 486 487 488 489 490 492 493 495 497 498 500
+ 502 503 505 507 508 511 512 513 515 517 519 523 524 525 528 530 531 532
+ 534 535 538 541 542 543 544 547 549 550 551 552 557 559 562 563 565 566
+ 567 571 575 579 580 581 582 583 584 585 586 588 590 592 593 594 595 598
+ 600 601 602 603 604 606 607 609 610 611 612 613 614 616 620 622 623 625
+ 628 630 631 633 634 635 637 639 641 646 647 648 649 650 651 652 654 657
+ 658 660 662 663 664 667 668 670 672 673 674 675 677 680 681 683 685 686
+ 687 688 689 690 692 693 694 695 698 699 701 702 703 707 710 711 713 714
+ 716 718 720 722 724 725 727 729 731 732 734 735 738 740 741 743 744 745
+ 746 747 748 751]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E3" t="n">
-        <v>18.49311447143555</v>
+        <v>27.01462364196777</v>
       </c>
     </row>
     <row r="4">
@@ -589,60 +594,58 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[1 1 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 0 0 1 0 0
- 0 0 1 0 1 1 0 1 0 1 0 1 0 0 1 1 0 1 1 0 0 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 0
- 1 0 1 0 0 0 1 1 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 1 1 0 1 0 1 1 1 0
- 0 0 1 1 1 1 0 1 1 1 1 0 0 0 0 1 0 0 0 1 1 0 1 0 0 1 1 0 0 0 1 1 1 1 0 1 0
- 1 1 1 0 0 1 0 0 0 0 1 1 1 0 0 0 1 0 0 0 1 1 0 1 1 0 1 1 1 1 1 1 1 1 1 1 1
- 1 1 0 1 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 1 1 0 1 1 1 0 0 0 0 1 1 0 0 0 1 0
- 1 0 0 1 0 1 1 1 1 0 1 0 0 0 0 1 1 1 1 1 1 0 1 0 1 0 0 0 0 1 1 1 0 1 1 0 0
- 0 1 0 0 1 0 1 0 1 0 1 0 0 0 0 1 0 1 1 1 0 1 1 1 1 0 1 1 0 1 0 0 0 0 1 1 0
- 1 0 0 1 0 0 0 0 1 0 1 1 1 0 1 1 0 0 1 1 0 0 1 1 0 0 0 1 0 0 1 1 0 0 1 1 1
- 1 1 0 1 1 0 0 0 1 0 1 1 0 1 0 1 0 0 1 0 1 1 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0
- 0 1 1 1 0 1 1 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 1 1 0 1 0 0 1
- 1 1 1 0 1 0 1 0 0 1 1 1 1 0 1 1 1 1 0 1 0 1 1 0 1 1 1 1 0 1 1 0 1 1 0 0 1
- 1 1 0 0 1 1 0 1 0 0 0 1 1 0 1 0 0 1 1 1 0 1 1 1 1 0 0 1 1 0 1 0 1 0 0 0 0
- 1 1 1 0 0 0 1 1 1 1 0 0 0 0 1 1 1 1 1 1 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 1
- 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 1 0 1 1 0 1 0 0 0 0 1 1 0 0 1 1 0 1
- 1 0 1 0 0 1 0 1 1 0 0 0 1 1 1 0 1 1 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 1 1
- 0 1 0 1 0 1 1 1 0 1 1 1 1 0 1 1 1 1 0 0 0 1 1 1 1 0 0 0 1 1 0 0 1 1 0 1 0
- 0 1 1 1 1 1 0 0 0 0 1 1 0 1 1 0 1 0 0 0 0 1 0 1 1 0 1 0 1 0 1 0 1 0 0 1 1
- 0 1 0 0 0 0 0 1 0 1 0 0 1 1 1 1 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 1 0 1 1
- 0 0 0 1 1 1 0 0 1 1 0 1 1 0 1 0 1 1 1 0 1 1 1 1 1 0 1 1 1 1 0 1 0 0 0 1 1
- 1 0 1 0 1 1 0 1 1 0 0 0 1]</t>
+          <t>[0 1 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 1 0 1 0 1 1 0 1 1 1 1 0 0 0 1 1 0 0 0 1
+ 1 0 0 1 1 1 1 0 1 0 1 1 0 1 0 0 1 0 1 0 0 0 0 1 1 1 1 0 1 1 0 1 1 1 0 0 1
+ 0 0 0 1 0 1 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 1 1 0
+ 0 1 0 1 1 1 1 1 1 1 1 0 0 0 0 0 1 0 0 1 1 0 1 0 1 0 1 1 0 1 0 1 0 1 1 1 1
+ 1 1 1 0 1 1 0 0 0 0 0 1 1 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 1 0 1 1 0 1 1 1
+ 1 0 1 1 1 1 1 1 0 1 0 1 0 0 0 0 0 1 1 0 1 0 0 1 0 1 1 0 1 1 1 0 0 0 0 1 0
+ 0 0 0 1 1 0 0 1 0 1 1 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0
+ 1 1 1 0 1 0 0 1 1 1 0 0 1 1 0 0 0 1 1 1 0 1 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0
+ 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 1 1 1 1 0 0 0 0 0 0 1 0
+ 1 0 0 1 1 1 0 1 0 0 0 0 1 0 0 1 0 1 0 0 1 1 1 1 1 0 0 0 1 0 0 1 0 0 0 0 0
+ 0 0 1 0 0 1 0 1 0 0 1 1 1 0 1 1 1 1 0 1 1 0 1 0 1 0 0 0 0 1 0 0 0 1 1 0 1
+ 1 1 0 0 0 0 0 1 1 1 1 0 0 1 0 0 1 1 1 1 1 0 1 0 1 0 1 1 0 1 0 0 1 0 0 1 1
+ 0 1 1 0 1 0 0 1 1 1 0 0 0 1 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 1 0 1 0 1 0
+ 0 1 0 1 0 1 1 0 1 0 1 1 0 0 1 0 1 0 0 0 1 0 0 0 1 0 1 0 1 1 1 1 0 0 1 0 0
+ 0 0 1 1 1 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 1 1 0 1 0 1 1 1 1 0 1
+ 1 1 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 1 0 1 0 0 1 0 1 1 0 1 0 0 0 0 1 1 1 0 0
+ 1 1 0 1 1 1 0 0 1 1 0 1 1 1 0 1 0 0 0 0 1 1 1 1 1 1 0 0 1 0 1 0 0 0 0 0 0
+ 0 0 0 1 1 0 1 1 0 1 0 0 1 0 1 0 1 1 0 0 1 1 1 0 1 1 0 1 1 0 0 1 0 0 0 1 1
+ 1 0 1 0 1 0 1 1 1 0 0 0 1 0 0 1 0 0 1 0 0 1 0 1 1 1 0 1 0 0 0 0 0 1 0 0 1
+ 1 0 0 1 0 0 1 1 0 1 1 0 0 1 1 1 0 1 1 1 1 1 1 0 1 1 0 0 1 1 1 0 0 0 0 0 1
+ 1 0 1 0 0 1 0 0 1 1 1 0 0]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[  0   1   2   6   9  10  17  18  19  20  21  22  23  24  27  29  30  31
-  34  39  41  42  44  46  48  51  52  54  55  58  59  60  61  62  63  65
-  66  67  69  71  74  76  80  81  85  89  93  94 100 102 103 105 107 108
- 109 113 114 115 116 118 119 120 121 126 130 131 133 136 137 141 142 143
- 144 146 148 149 150 153 158 159 160 164 168 169 171 172 174 175 176 177
- 178 179 180 181 182 183 184 185 186 188 189 192 199 200 204 205 206 208
- 209 210 215 216 220 222 225 227 228 229 230 232 237 238 239 240 241 242
- 244 246 251 252 253 255 256 260 263 265 267 269 274 276 277 278 280 281
- 282 283 285 286 288 293 294 296 299 304 306 307 308 310 311 314 315 318
- 319 323 326 327 330 331 332 333 334 336 337 341 343 344 346 348 351 353
- 354 360 363 366 368 371 372 373 375 376 380 381 383 386 392 394 397 400
- 401 403 406 407 408 409 411 413 416 417 418 419 421 422 423 424 426 428
- 429 431 432 433 434 436 437 439 440 443 444 445 448 449 451 455 456 458
- 461 462 463 465 466 467 468 471 472 474 476 481 482 483 487 488 489 490
- 495 496 497 498 499 500 505 506 510 513 517 518 525 527 528 535 537 539
- 540 542 547 548 551 552 554 555 557 560 562 563 567 568 569 571 572 576
- 578 579 581 590 591 593 595 597 598 599 601 602 603 604 606 607 608 609
- 613 614 615 616 620 621 624 625 627 630 631 632 633 634 639 640 642 643
- 645 650 652 653 655 657 659 661 664 665 667 673 675 678 679 680 681 682
- 686 693 694 698 699 701 702 706 707 708 711 712 714 715 717 719 720 721
- 723 724 725 726 727 729 730 731 732 734 738 739 740 742 744 745 747 748
- 752]</t>
+          <t>[  1   5   9  10  12  17  19  21  22  24  25  26  27  31  32  36  37  40
+  41  42  43  45  47  48  50  53  55  60  61  62  63  65  66  68  69  70
+  73  77  79  80  82  88  90  96  98 101 102 108 109 112 114 115 116 117
+ 118 119 120 121 127 130 131 133 135 137 138 140 142 144 145 146 147 148
+ 149 150 152 153 159 160 164 165 168 171 177 179 180 182 183 184 185 187
+ 188 189 190 191 192 194 196 202 203 205 208 210 211 213 214 215 220 225
+ 226 229 231 232 234 235 236 241 252 253 256 257 259 260 261 263 266 267
+ 268 271 272 276 277 278 280 284 287 289 291 299 301 304 312 314 315 320
+ 321 322 323 324 331 333 336 337 338 340 345 348 350 353 354 355 356 357
+ 361 364 372 375 377 380 381 382 384 385 386 387 389 390 392 394 399 403
+ 404 406 407 408 414 415 416 417 420 423 424 425 426 427 429 431 433 434
+ 436 439 442 443 445 446 448 451 452 453 457 463 465 466 467 475 477 479
+ 482 484 486 487 489 491 492 495 497 501 505 507 509 510 511 512 515 520
+ 521 522 527 528 534 536 538 543 544 545 547 549 550 551 552 554 555 556
+ 559 567 569 570 572 574 577 579 580 582 587 588 589 592 593 595 596 597
+ 600 601 603 604 605 607 612 613 614 615 616 617 620 622 632 633 635 636
+ 638 641 643 645 646 649 650 651 653 654 656 657 660 664 665 666 668 670
+ 672 673 674 678 681 684 687 689 690 691 693 699 702 703 706 709 710 712
+ 713 716 717 718 720 721 722 723 724 725 727 728 731 732 733 739 740 742
+ 745 748 749 750]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9868421052631579</v>
       </c>
       <c r="E4" t="n">
-        <v>27.19224143028259</v>
+        <v>32.79238295555115</v>
       </c>
     </row>
     <row r="5">
@@ -651,60 +654,59 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 0 1 1 1 1 1 1 0 1 1 1 0 0 1 0 1 1 0 0 1 0 1 1 0 0 1 0 0 1
- 1 1 0 1 1 0 1 0 0 1 1 1 1 0 0 1 1 1 1 0 0 1 1 0 0 1 0 0 1 0 0 0 0 1 1 1 1
- 1 0 1 0 0 1 1 0 1 1 1 0 0 1 0 1 0 1 0 0 1 0 0 1 1 1 1 0 0 0 1 1 1 0 0 1 1
- 1 1 1 0 1 1 1 0 1 1 0 1 1 0 1 1 1 0 1 1 0 1 1 1 1 1 0 1 1 1 0 1 1 1 0 1 0
- 1 1 1 1 0 0 1 0 0 0 0 1 0 1 0 0 1 1 1 0 0 0 0 0 0 0 1 1 0 1 1 1 0 1 0 1 1
- 1 0 0 1 1 0 0 1 1 0 1 0 0 1 1 1 0 0 0 1 1 0 1 1 0 1 1 0 0 0 1 1 0 1 1 0 0
- 0 0 0 1 1 1 0 1 0 0 0 1 1 1 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 1 0
- 1 1 0 0 0 0 0 0 1 1 1 0 1 0 0 1 1 1 1 0 0 1 1 1 0 0 0 1 0 1 1 0 1 0 1 0 1
- 0 1 0 1 1 0 1 1 1 1 0 0 1 0 1 1 0 1 0 1 0 1 1 0 0 1 0 1 1 1 1 0 1 1 1 1 1
- 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 1 1 0 1 1 1 0 1 0 0 1 1 0
- 1 1 0 0 0 0 1 0 0 1 1 1 0 1 1 1 0 0 0 1 1 1 0 0 0 1 1 1 0 0 1 0 0 0 1 1 1
- 0 1 0 0 0 0 1 1 0 1 1 0 0 1 1 0 0 1 1 0 1 1 0 0 0 0 0 1 0 0 1 1 1 0 0 0 1
- 0 1 0 1 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 0 0 0 0 1 1 1 1 0 1 0 1 1 0 0 1 0 1
- 1 1 1 1 0 0 0 1 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 1 1 0 1
- 0 1 0 0 0 1 0 1 1 1 0 1 1 0 0 1 0 1 1 0 1 1 0 1 1 0 0 1 0 0 0 1 0 1 0 0 1
- 1 0 1 1 0 0 1 1 1 0 0 0 1 0 0 0 1 1 0 1 1 0 1 1 0 1 0 0 1 0 1 1 1 0 1 0 0
- 0 0 0 0 1 1 0 0 0 1 0 1 1 0 0 0 1 1 0 0 1 1 1 0 0 0 1 1 1 0 1 0 0 1 1 1 1
- 1 0 0 1 1 0 1 1 0 0 0 1 0 0 1 0 1 0 1 0 1 1 1 0 0 0 0 1 0 0 1 1 0 0 0 0 1
- 0 0 1 1 1 0 1 1 0 1 1 0 1 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 1 1 1 1 1 0 0 0 1
- 1 1 1 1 1 0 1 1 1 0 1 1 1 0 1 1 1 1 1 0 1 1 1 1 0 0 0 0 0 1 0 0 1 1 1 0 0
- 0 1 1 1 0 0 1 1 1 0 0 1 1]</t>
+          <t>[1 1 0 1 0 1 0 0 1 0 1 1 0 1 1 1 1 0 1 1 0 1 0 1 0 0 1 1 1 0 0 0 0 0 1 0 0
+ 1 0 1 1 1 1 0 1 0 0 0 0 1 0 0 1 0 0 0 1 1 1 0 1 0 0 1 0 0 1 0 1 1 1 1 0 0
+ 0 1 1 0 0 1 0 0 0 1 1 1 1 1 1 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 1 0 1 0 1 0 1
+ 0 0 0 1 0 1 0 1 1 1 0 1 1 0 1 1 1 0 1 0 1 1 0 1 0 0 0 1 0 1 0 1 0 0 0 0 1
+ 0 1 0 1 0 1 1 0 1 1 1 0 1 0 0 0 1 1 1 0 1 1 0 1 1 0 0 1 0 1 0 1 1 1 1 1 0
+ 0 0 0 0 1 1 0 1 1 1 1 0 0 0 1 1 1 0 0 1 0 1 0 1 1 1 1 0 1 0 1 1 0 1 1 1 1
+ 0 1 1 1 0 0 1 0 0 1 0 1 1 1 0 0 0 0 0 1 1 1 1 0 0 1 0 0 1 0 0 1 1 0 1 1 0
+ 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 1 1 1 1 0 1 1 0 1 1 1 0 0 1 0 1 0 1 0 1 0
+ 0 1 1 1 0 1 0 1 0 0 0 1 1 0 1 0 0 1 0 0 0 1 0 0 0 1 1 0 0 1 0 1 1 0 0 0 0
+ 0 0 0 0 0 0 1 1 1 0 1 0 1 0 0 1 0 1 1 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0
+ 0 0 1 1 1 0 1 0 1 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0
+ 1 1 0 1 1 0 1 1 1 1 1 1 1 1 1 1 0 1 0 1 0 0 1 1 0 1 1 1 0 0 0 0 1 0 0 1 0
+ 0 0 0 1 1 1 0 1 0 0 1 1 1 0 0 1 0 0 0 1 1 0 1 1 0 1 1 1 0 0 0 1 0 1 0 0 1
+ 0 1 0 1 0 0 1 1 0 1 0 0 1 0 1 0 1 0 0 1 0 0 1 1 0 0 0 0 1 0 1 1 1 1 1 1 0
+ 1 1 1 1 0 1 1 1 1 1 0 1 1 1 0 1 0 0 0 0 0 0 1 0 0 1 0 1 1 1 1 1 1 0 1 0 1
+ 0 0 0 0 0 0 0 1 1 1 1 1 0 0 1 1 1 0 1 1 1 1 1 0 0 0 0 1 0 0 1 0 1 1 1 0 1
+ 0 1 1 0 1 1 1 1 1 0 0 0 1 0 0 1 1 0 0 0 0 1 0 1 1 1 1 1 0 0 0 0 1 1 1 1 0
+ 1 0 1 1 1 1 0 1 1 1 1 0 0 1 0 0 1 0 1 1 1 0 1 1 0 1 0 0 0 0 0 1 0 1 1 0 1
+ 0 1 1 0 1 0 1 1 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 1 0 0 0 0 1 0 1 1 1 0 0 0 0
+ 1 0 1 1 1 0 1 1 1 0 0 1 0 1 0 0 0 1 1 1 1 1 0 0 1 0 1 0 0 0 1 1 0 1 0 0 1
+ 0 0 0 0 0 0 0 0 1 1 0 0 1]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[  0   1   2   3   4   5   6   7   9  10  11  12  13  14  16  17  18  21
-  23  24  27  29  30  33  36  37  38  40  41  43  46  47  48  49  52  53
-  54  55  58  59  62  65  70  71  72  73  74  76  79  80  82  83  84  87
-  89  91  94  97  98  99 100 104 105 106 109 110 111 112 113 115 116 117
- 119 120 122 123 125 126 127 129 130 132 133 134 135 136 138 139 140 142
- 143 144 146 148 149 150 151 154 159 161 164 165 166 174 175 177 178 179
- 181 183 184 185 188 189 192 193 195 198 199 200 204 205 207 208 210 211
- 215 216 218 219 225 226 227 229 233 234 235 238 239 244 246 251 252 257
- 259 260 267 268 269 271 274 275 276 277 280 281 282 286 288 289 291 293
- 295 297 299 300 302 303 304 305 308 310 311 313 315 317 318 321 323 324
- 325 326 328 329 330 331 332 335 336 345 350 351 356 357 358 360 361 362
- 364 367 368 370 371 376 379 380 381 383 384 385 389 390 391 395 396 397
- 400 404 405 406 408 413 414 416 417 420 421 424 425 427 428 434 437 438
- 439 443 445 447 448 451 453 454 455 457 458 459 460 461 462 467 468 469
- 470 472 474 475 478 480 481 482 483 484 488 489 492 494 496 510 511 512
- 513 514 515 517 519 523 525 526 527 529 530 533 535 536 538 539 541 542
- 545 549 551 554 555 557 558 561 562 563 567 571 572 574 575 577 578 580
- 583 585 586 587 589 596 597 601 603 604 608 609 612 613 614 618 619 620
- 622 625 626 627 628 629 632 633 635 636 640 643 645 647 649 650 651 656
- 659 660 665 668 669 670 672 673 675 676 678 680 681 690 691 694 695 696
- 697 698 702 703 704 705 706 707 709 710 711 713 714 715 717 718 719 720
- 721 723 724 725 726 732 735 736 737 741 742 743 746 747 748 751 752]</t>
+          <t>[  0   1   3   5   8  10  11  13  14  15  16  18  19  21  23  26  27  28
+  34  37  39  40  41  42  44  49  52  56  57  58  60  63  66  68  69  70
+  71  75  76  79  83  84  85  86  87  88  95  96  97  98 104 106 108 110
+ 114 116 118 119 120 122 123 125 126 127 129 131 132 134 138 140 142 147
+ 149 151 153 154 156 157 158 160 164 165 166 168 169 171 172 175 177 179
+ 180 181 182 183 189 190 192 193 194 195 199 200 201 204 206 208 209 210
+ 211 213 215 216 218 219 220 221 223 224 225 228 231 233 234 235 241 242
+ 243 244 247 250 253 254 256 257 262 263 274 275 276 277 278 280 281 283
+ 284 285 288 290 292 294 297 298 299 301 303 307 308 310 313 317 321 322
+ 325 327 328 339 340 341 343 345 348 350 351 353 358 360 364 368 372 373
+ 374 376 378 380 385 386 391 396 400 402 403 407 408 410 411 413 414 415
+ 416 417 418 419 420 421 422 424 426 429 430 432 433 434 439 442 447 448
+ 449 451 454 455 456 459 463 464 466 467 469 470 471 475 477 480 482 484
+ 487 488 490 493 495 497 500 503 504 509 511 512 513 514 515 516 518 519
+ 520 521 523 524 525 526 527 529 530 531 533 540 543 545 546 547 548 549
+ 550 552 554 562 563 564 565 566 569 570 571 573 574 575 576 577 582 585
+ 587 588 589 591 593 594 596 597 598 599 600 604 607 608 613 615 616 617
+ 618 619 624 625 626 627 629 631 632 633 634 636 637 638 639 642 645 647
+ 648 649 651 652 654 660 662 663 665 667 668 670 672 673 681 683 685 686
+ 689 694 696 697 698 703 705 706 707 709 710 711 714 716 720 721 722 723
+ 724 727 729 733 734 736 739 748 749 752]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E5" t="n">
-        <v>38.17259001731873</v>
+        <v>47.2056610584259</v>
       </c>
     </row>
     <row r="6">
@@ -713,60 +715,60 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[1 1 0 0 0 1 0 1 1 1 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 1 1 1 1 0 1 1 1 1 0 1 0
- 1 1 1 0 1 1 0 1 0 1 1 0 1 1 0 0 0 1 0 1 1 1 0 1 0 1 0 1 1 0 0 0 1 0 1 1 1
- 0 1 1 1 1 0 1 1 0 0 0 0 1 0 1 1 1 1 1 0 0 0 1 1 0 1 0 0 0 1 1 0 1 1 0 0 1
- 1 1 1 1 0 1 1 1 1 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 1 0 1 0 1 1 1 1 0 0 0 0
- 0 1 0 1 1 1 0 0 0 0 1 1 0 1 0 0 0 0 1 1 0 1 0 0 1 0 1 1 1 0 0 0 1 0 1 1 0
- 0 1 1 1 1 0 0 1 0 0 1 0 0 1 0 0 1 1 0 1 1 1 1 1 1 0 1 0 0 1 0 1 0 1 1 1 1
- 1 0 1 1 0 1 1 1 0 0 0 1 1 1 0 1 1 1 0 0 0 1 0 0 1 0 1 0 0 0 1 1 1 0 1 1 0
- 0 0 0 0 0 1 1 0 0 1 1 1 0 0 1 0 1 0 0 1 1 1 0 1 1 1 0 1 0 0 1 1 0 1 1 0 0
- 0 0 0 1 1 1 0 1 0 0 0 0 0 1 1 1 0 1 1 0 1 1 1 0 1 0 1 1 1 0 1 1 0 1 0 1 1
- 0 0 1 0 1 0 1 1 0 0 1 0 1 0 0 1 0 0 1 1 1 0 1 0 1 0 1 1 1 1 1 1 1 0 1 1 0
- 1 1 0 0 0 1 1 0 0 1 1 0 0 1 0 0 1 0 1 0 0 1 0 0 1 1 0 1 1 1 0 1 0 0 0 0 0
- 0 1 0 1 0 1 1 1 1 0 0 1 0 1 0 1 0 0 1 1 1 1 1 0 1 1 0 0 0 1 0 1 0 0 0 1 1
- 0 0 1 1 1 0 1 1 0 1 1 0 1 1 0 0 0 1 1 1 0 1 1 0 0 1 1 0 1 0 1 1 1 1 0 1 0
- 0 0 0 1 1 1 0 0 1 0 0 0 1 0 1 1 1 0 1 0 0 1 1 1 0 0 1 0 0 1 0 0 1 0 1 1 1
- 1 0 1 1 0 1 0 1 0 0 1 1 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 1 1 1 1 0 0 1 0 0 0
- 0 1 0 0 1 1 0 0 0 1 1 1 1 0 0 0 0 1 0 1 0 1 0 0 1 1 1 1 0 0 1 0 0 0 1 0 1
- 1 1 1 1 1 1 1 0 1 1 0 1 0 0 1 1 0 1 0 1 0 1 1 1 0 0 0 1 1 0 1 1 0 0 1 1 0
- 0 1 1 1 1 0 0 0 0 0 1 1 1 1 0 1 0 1 0 1 0 0 0 0 0 1 1 1 1 0 0 1 0 1 1 0 0
- 0 1 1 0 1 1 0 1 0 0 0 0 0 0 0 1 1 0 1 1 0 1 0 1 1 1 0 1 1 0 0 0 0 0 1 1 0
- 1 1 1 1 1 0 1 0 0 1 0 1 0 0 1 0 1 0 0 1 1 0 0 0 1 0 1 1 1 1 1 0 1 1 0 0 1
- 1 0 0 0 0 0 1 1 1 1 0 0 0]</t>
+          <t>[1 0 0 0 1 1 0 0 1 1 1 0 0 1 1 1 0 1 1 0 0 0 0 1 1 1 1 1 1 0 0 1 0 1 0 1 0
+ 0 1 1 1 1 0 0 1 0 0 1 1 1 0 0 1 0 1 1 1 0 1 0 1 1 1 0 0 1 0 1 0 1 1 1 1 0
+ 1 0 0 0 1 1 1 1 0 1 1 0 1 0 1 0 0 1 1 0 0 0 0 0 1 0 0 1 1 0 1 1 1 1 1 1 0
+ 0 0 0 0 1 0 1 1 1 0 1 0 0 1 1 0 1 0 0 0 0 1 0 0 0 1 1 1 1 0 0 1 0 1 0 1 1
+ 0 1 1 1 1 0 1 1 1 1 0 1 0 0 0 0 1 1 0 1 1 0 0 1 1 1 0 1 1 0 0 0 1 0 1 0 1
+ 0 1 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 1 1 1 1 0 1 0 1 1 1 0
+ 0 1 1 0 0 0 1 1 0 1 1 1 0 0 1 0 0 0 1 1 0 0 0 1 1 0 0 1 1 1 0 0 0 1 0 0 0
+ 1 1 1 0 1 1 1 0 1 0 1 0 1 1 0 0 0 1 0 1 1 0 1 0 1 1 1 0 0 1 0 0 1 0 0 1 0
+ 1 1 1 1 1 0 1 1 0 0 1 1 0 0 1 1 1 0 0 0 1 0 0 1 1 0 1 0 0 1 0 0 1 1 0 1 1
+ 0 1 1 1 0 0 1 1 0 1 0 1 0 1 0 1 1 0 1 0 0 0 1 1 1 0 0 1 0 0 1 1 1 1 1 1 0
+ 1 1 0 1 0 0 1 0 0 0 1 0 1 1 0 0 1 0 1 1 1 0 0 1 0 1 1 1 0 1 1 1 0 1 1 0 1
+ 1 1 0 1 1 1 1 0 1 1 1 1 0 1 0 1 1 0 1 1 0 1 1 0 1 0 1 0 1 1 0 1 1 1 0 1 0
+ 0 0 0 0 1 0 1 0 1 1 0 1 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 1 0 0 1 0 1 0 1
+ 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 1 1 1 0 1 1 1 1 0 1 1 1
+ 1 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 1 1 1 1
+ 1 1 0 1 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 1 1 1 0 1 0 1 1 1 1 1 0 0 1 1 1 0
+ 1 1 1 0 0 1 1 0 0 1 0 1 1 1 0 0 1 0 0 1 1 1 1 1 1 1 0 0 0 0 1 0 1 0 1 0 0
+ 1 1 1 0 1 0 0 1 0 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 1 1 0 0 0 0 0 0 1 0 1 0
+ 1 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 1 1 1 1 0 0 1 0 1 0 0 1 1 1 0 0 1 1 1
+ 1 1 1 0 1 0 0 1 0 0 1 0 0 1 1 1 0 1 0 0 1 0 1 0 1 1 0 0 1 1 0 0 0 0 1 0 0
+ 0 1 1 0 0 0 0 1 1 0 0 0 0]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[  0   1   5   7   8   9  12  13  16  18  25  26  27  28  30  31  32  33
-  35  37  38  39  41  42  44  46  47  49  50  54  56  57  58  60  62  64
-  65  69  71  72  73  75  76  77  78  80  81  86  88  89  90  91  92  96
-  97  99 103 104 106 107 110 111 112 113 114 116 117 118 119 125 126 128
- 133 136 138 140 141 142 143 149 151 152 153 158 159 161 166 167 169 172
- 174 175 176 180 182 183 186 187 188 189 192 195 198 201 202 204 205 206
- 207 208 209 211 214 216 218 219 220 221 222 224 225 227 228 229 233 234
- 235 237 238 239 243 246 248 252 253 254 256 257 264 265 268 269 270 273
- 275 278 279 280 282 283 284 286 289 290 292 293 299 300 301 303 309 310
- 311 313 314 316 317 318 320 322 323 324 326 327 329 331 332 335 337 339
- 340 343 345 348 351 352 353 355 357 359 360 361 362 363 364 365 367 368
- 370 371 375 376 379 380 383 386 388 391 394 395 397 398 399 401 408 410
- 412 413 414 415 418 420 422 425 426 427 428 429 431 432 436 438 442 443
- 446 447 448 450 451 453 454 456 457 461 462 463 465 466 469 470 472 474
- 475 476 477 479 484 485 486 489 493 495 496 497 499 502 503 504 507 510
- 513 515 516 517 518 520 521 523 525 528 529 534 535 538 540 545 546 547
- 548 551 556 559 560 564 565 566 567 572 574 576 579 580 581 582 585 589
- 591 592 593 594 595 596 597 598 600 601 603 606 607 609 611 613 614 615
- 619 620 622 623 626 627 630 631 632 633 639 640 641 642 644 646 648 654
- 655 656 657 660 662 663 667 668 670 671 673 681 682 684 685 687 689 690
- 691 693 694 700 701 703 704 705 706 707 709 712 714 717 719 722 723 727
- 729 730 731 732 733 735 736 739 740 746 747 748 749]</t>
+          <t>[  0   4   5   8   9  10  13  14  15  17  18  23  24  25  26  27  28  31
+  33  35  38  39  40  41  44  47  48  49  52  54  55  56  58  60  61  62
+  65  67  69  70  71  72  74  78  79  80  81  83  84  86  88  91  92  98
+ 101 102 104 105 106 107 108 109 115 117 118 119 121 124 125 127 132 136
+ 137 138 139 142 144 146 147 149 150 151 152 154 155 156 157 159 164 165
+ 167 168 171 172 173 175 176 180 182 184 186 188 189 190 191 202 204 207
+ 208 211 212 213 214 216 218 219 220 223 224 228 229 231 232 233 236 240
+ 241 245 246 249 250 251 255 259 260 261 263 264 265 267 269 271 272 276
+ 278 279 281 283 284 285 288 291 294 296 297 298 299 300 302 303 306 307
+ 310 311 312 316 319 320 322 325 328 329 331 332 334 335 336 339 340 342
+ 344 346 348 349 351 355 356 357 360 363 364 365 366 367 368 370 371 373
+ 376 380 382 383 386 388 389 390 393 395 396 397 399 400 401 403 404 406
+ 407 408 410 411 412 413 415 416 417 418 420 422 423 425 426 428 429 431
+ 433 435 436 438 439 440 442 448 450 452 453 455 463 465 466 468 473 476
+ 478 480 485 486 487 488 496 500 502 503 506 507 508 510 511 512 513 515
+ 516 517 518 523 528 531 532 537 541 547 548 551 552 553 554 555 556 558
+ 562 564 569 571 575 576 577 579 581 582 583 584 585 588 589 590 592 593
+ 594 597 598 601 603 604 605 608 611 612 613 614 615 616 617 622 624 626
+ 629 630 631 633 636 638 641 642 643 644 646 647 649 650 651 652 654 655
+ 662 664 666 670 678 679 680 684 685 686 687 690 692 695 696 697 700 701
+ 702 703 704 705 707 710 713 716 717 718 720 723 725 727 728 731 732 737
+ 741 742 747 748]</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>0.9605263157894737</v>
       </c>
       <c r="E6" t="n">
-        <v>47.078693151474</v>
+        <v>62.60801529884338</v>
       </c>
     </row>
     <row r="7">
@@ -775,66 +777,63 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[0 1 0 1 1 1 0 0 1 1 0 0 1 1 1 0 1 1 0 1 1 1 1 0 1 0 1 1 1 1 0 1 0 1 1 0 0
- 1 0 1 0 1 1 1 0 1 0 1 1 1 1 0 1 1 0 0 1 1 0 0 1 1 1 1 1 1 1 1 1 1 0 1 1 1
- 0 1 1 1 0 1 1 1 1 1 1 0 1 1 0 1 1 1 1 1 1 0 1 1 0 1 0 0 0 1 0 0 1 1 0 1 1
- 1 1 1 1 0 0 1 1 0 1 0 0 0 1 1 1 1 1 0 0 1 1 1 1 1 0 0 1 1 1 1 0 1 1 1 1 1
- 1 1 0 1 1 1 1 1 0 1 0 1 0 1 1 1 1 1 1 1 1 1 0 1 1 0 1 0 1 0 1 1 1 0 0 1 1
- 0 1 1 0 1 0 0 1 0 1 0 1 1 1 1 0 1 1 0 0 1 1 1 1 1 1 1 1 0 0 1 1 0 1 1 1 0
- 0 0 0 1 1 0 1 1 1 0 1 0 0 1 0 0 1 0 1 0 0 0 0 1 1 1 1 1 1 1 0 0 0 1 1 1 1
- 1 1 1 1 0 1 0 0 1 0 1 1 0 1 0 0 1 0 1 1 0 1 1 1 1 0 1 0 0 1 1 1 1 1 1 0 0
- 1 0 1 1 1 1 1 1 0 1 1 1 0 0 1 1 1 0 0 0 0 1 1 0 1 1 0 1 1 1 1 1 0 0 0 1 1
- 1 1 1 0 1 1 1 0 1 0 1 0 1 1 0 0 0 0 1 1 1 1 0 1 1 1 1 0 0 1 1 1 1 1 1 1 0
- 0 1 1 1 1 1 1 0 1 0 1 1 0 0 0 1 0 0 1 1 0 0 1 1 1 1 0 0 0 1 1 1 1 1 1 0 0
- 1 0 1 1 0 0 1 1 1 1 1 0 0 1 1 1 0 0 1 0 1 1 1 0 1 0 0 0 1 1 1 0 0 1 1 1 0
- 1 1 1 1 1 0 1 1 1 1 1 0 1 1 1 1 1 1 0 0 1 1 1 1 0 0 1 0 1 1 1 1 1 1 1 0 0
- 1 0 1 0 1 1 1 0 1 1 0 1 0 0 1 1 1 0 1 0 1 0 1 0 1 0 1 0 1 1 1 0 1 1 1 0 1
- 0 0 1 1 1 1 0 1 1 1 0 1 1 1 1 1 1 0 1 1 1 1 1 1 0 1 1 0 1 1 0 0 1 0 1 1 1
- 1 1 0 0 1 1 1 1 1 1 1 0 1 1 1 0 1 1 1 0 1 0 0 1 1 1 1 1 1 1 1 1 1 1 1 0 1
- 1 1 1 0 0 1 0 1 1 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 0 1 1
- 0 0 0 1 1 1 1 1 1 1 1 1 1 1 0 0 0 1 1 1 0 0 1 1 1 1 1 1 0 1 0 1 0 1 1 0 1
- 0 1 0 0 1 1 1 1 1 1 0 1 0 1 0 1 1 1 0 0 1 1 0 1 1 0 0 0 1 0 0 0 0 1 0 0 1
- 0 0 0 1 1 0 1 1 1 0 0 1 1 1 1 0 1 1 1 1 0 0 1 1 0 0 1 1 0 1 1 0 1 0 1 0 0
- 1 1 1 1 0 1 0 1 1 0 0 0 0]</t>
+          <t>[1 0 1 1 1 0 1 1 1 0 1 0 1 1 0 0 1 1 1 1 1 0 1 1 0 1 0 1 0 0 0 0 1 1 0 1 1
+ 1 0 0 1 1 1 1 1 0 0 0 1 1 1 0 1 1 1 0 0 1 1 1 1 0 1 0 1 0 1 0 0 1 1 0 1 1
+ 0 1 1 0 1 1 0 0 0 0 0 1 1 0 1 0 1 0 1 1 1 1 1 0 0 1 0 1 0 0 0 1 1 0 1 0 1
+ 1 0 1 0 0 0 1 1 1 1 1 0 1 0 1 1 0 1 1 1 1 1 0 1 0 1 0 1 1 1 1 0 0 0 1 1 0
+ 0 1 0 1 0 0 1 0 0 1 0 1 0 1 1 0 1 1 1 1 1 1 0 0 1 0 0 1 0 1 0 1 1 1 0 0 1
+ 1 0 1 0 0 0 0 1 1 1 1 0 0 1 1 0 0 1 1 0 0 1 0 1 1 1 0 0 0 1 0 1 1 1 1 1 0
+ 0 1 1 0 1 0 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 1 1 1 1 1 0 1 0 0 0 1 0 1 1 0
+ 0 1 1 1 0 1 1 1 0 1 0 0 1 1 0 1 0 1 1 0 1 0 0 1 1 0 0 1 0 1 0 0 1 1 1 1 1
+ 1 0 1 1 1 1 0 1 0 1 0 1 1 0 0 1 1 1 1 1 0 0 1 0 1 1 1 0 0 0 1 1 0 1 1 1 0
+ 1 1 0 1 1 1 1 1 0 0 0 0 0 0 1 0 1 1 1 1 0 0 1 0 1 1 1 1 0 1 0 1 1 1 1 0 1
+ 1 1 0 1 0 1 1 1 1 1 1 1 0 1 1 1 1 0 1 0 1 1 1 1 1 0 1 1 0 0 1 0 1 1 1 1 1
+ 0 1 1 0 1 0 0 1 1 1 1 1 0 0 1 1 1 1 1 1 1 0 0 1 1 0 0 1 1 1 0 1 1 1 0 0 0
+ 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 1 1 0 1 1 1 1 0 0 0 0 0 1 1 1 1 1 0 1 1 1 1
+ 0 1 0 0 1 0 1 0 0 0 1 1 0 0 1 1 0 0 0 1 1 1 1 0 0 1 1 0 1 1 1 1 0 0 1 1 1
+ 1 0 1 1 0 1 0 0 1 0 1 0 1 1 0 1 0 1 1 1 0 1 1 1 0 0 0 0 0 0 0 1 0 1 1 1 0
+ 1 0 0 1 1 1 0 1 1 1 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 1 0 1 1 0 1 1 1 0 1
+ 0 0 1 0 1 0 1 1 0 1 1 0 0 1 0 0 1 1 1 1 1 1 1 0 1 1 0 1 1 1 0 1 1 0 0 1 1
+ 0 1 1 1 0 1 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 1 0 0 1 0 1 0 1 1 1 0 1 1 0
+ 1 0 0 0 0 0 0 0 1 1 0 1 1 1 0 0 0 1 0 1 0 0 0 1 1 1 0 0 0 1 0 0 1 1 1 0 1
+ 0 1 1 0 0 1 1 0 1 0 1 0 1 1 0 1 1 0 0 1 0 0 1 1 0 0 0 1 0 0 1 1 1 0 1 1 1
+ 1 1 0 1 1 0 1 0 0 0 0 1 0]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[  1   3   4   5   8   9  12  13  14  16  17  19  20  21  22  24  26  27
-  28  29  31  33  34  37  39  41  42  43  45  47  48  49  50  52  53  56
-  57  60  61  62  63  64  65  66  67  68  69  71  72  73  75  76  77  79
-  80  81  82  83  84  86  87  89  90  91  92  93  94  96  97  99 103 106
- 107 109 110 111 112 113 114 117 118 120 124 125 126 127 128 131 132 133
- 134 135 138 139 140 141 143 144 145 146 147 148 149 151 152 153 154 155
- 157 159 161 162 163 164 165 166 167 168 169 171 172 174 176 178 179 180
- 183 184 186 187 189 192 194 196 197 198 199 201 202 205 206 207 208 209
- 210 211 212 215 216 218 219 220 225 226 228 229 230 232 235 238 240 245
- 246 247 248 249 250 251 255 256 257 258 259 260 261 262 264 267 269 270
- 272 275 277 278 280 281 282 283 285 288 289 290 291 292 293 296 298 299
- 300 301 302 303 305 306 307 310 311 312 317 318 320 321 323 324 325 326
- 327 331 332 333 334 335 337 338 339 341 343 345 346 351 352 353 354 356
- 357 358 359 362 363 364 365 366 367 368 371 372 373 374 375 376 378 380
- 381 385 388 389 392 393 394 395 399 400 401 402 403 404 407 409 410 413
- 414 415 416 417 420 421 422 425 427 428 429 431 435 436 437 440 441 442
- 444 445 446 447 448 450 451 452 453 454 456 457 458 459 460 461 464 465
- 466 467 470 472 473 474 475 476 477 478 481 483 485 486 487 489 490 492
- 495 496 497 499 501 503 505 507 509 510 511 513 514 515 517 520 521 522
- 523 525 526 527 529 530 531 532 533 534 536 537 538 539 540 541 543 544
- 546 547 550 552 553 554 555 556 559 560 561 562 563 564 565 567 568 569
- 571 572 573 575 578 579 580 581 582 583 584 585 586 587 588 589 591 592
- 593 594 597 599 600 601 602 603 604 605 606 607 609 610 611 612 613 614
- 615 616 617 618 619 620 621 622 623 625 627 628 632 633 634 635 636 637
- 638 639 640 641 642 646 647 648 651 652 653 654 655 656 658 660 662 663
- 665 667 670 671 672 673 674 675 677 679 681 682 683 686 687 689 690 694
- 699 702 706 707 709 710 711 714 715 716 717 719 720 721 722 725 726 729
- 730 732 733 735 737 740 741 742 743 745 747 748]</t>
+          <t>[  0   2   3   4   6   7   8  10  12  13  16  17  18  19  20  22  23  25
+  27  32  33  35  36  37  40  41  42  43  44  48  49  50  52  53  54  57
+  58  59  60  62  64  66  69  70  72  73  75  76  78  79  85  86  88  90
+  92  93  94  95  96  99 101 105 106 108 110 111 113 117 118 119 120 121
+ 123 125 126 128 129 130 131 132 134 136 138 139 140 141 145 146 149 151
+ 154 157 159 161 162 164 165 166 167 168 169 172 175 177 179 180 181 184
+ 185 187 192 193 194 195 198 199 202 203 206 208 209 210 214 216 217 218
+ 219 220 223 224 226 229 231 233 234 237 238 239 240 242 243 244 245 246
+ 247 248 250 254 256 257 260 261 262 264 265 266 268 271 272 274 276 277
+ 279 282 283 286 288 291 292 293 294 295 296 298 299 300 301 303 305 307
+ 308 311 312 313 314 315 318 320 321 322 326 327 329 330 331 333 334 336
+ 337 338 339 340 347 349 350 351 352 355 357 358 359 360 362 364 365 366
+ 367 369 370 371 373 375 376 377 378 379 380 381 383 384 385 386 388 390
+ 391 392 393 394 396 397 400 402 403 404 405 406 408 409 411 414 415 416
+ 417 418 421 422 423 424 425 426 427 430 431 434 435 436 438 439 440 446
+ 448 456 458 459 460 462 463 464 465 471 472 473 474 475 477 478 479 480
+ 482 485 487 491 492 495 496 500 501 502 503 506 507 509 510 511 512 515
+ 516 517 518 520 521 523 526 528 530 531 533 535 536 537 539 540 541 549
+ 551 552 553 555 558 559 560 562 563 564 566 570 571 576 581 582 584 585
+ 587 588 589 591 594 596 598 599 601 602 605 608 609 610 611 612 613 614
+ 616 617 619 620 621 623 624 627 628 630 631 632 634 635 636 637 638 640
+ 641 643 644 645 646 651 652 655 657 659 660 661 663 664 666 674 675 677
+ 678 679 683 685 689 690 691 695 698 699 700 702 704 705 708 709 711 713
+ 715 716 718 719 722 725 726 730 733 734 735 737 738 739 740 741 743 744
+ 746 751]</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>0.9736842105263158</v>
       </c>
       <c r="E7" t="n">
-        <v>77.36121940612793</v>
+        <v>79.61447477340698</v>
       </c>
     </row>
     <row r="8">
@@ -843,59 +842,59 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[1 1 0 0 0 0 0 1 1 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 1 0 1
- 1 0 0 0 1 1 0 0 1 1 1 1 0 0 1 0 1 1 0 0 1 0 0 1 0 1 0 0 0 1 1 1 1 1 0 1 0
- 1 0 1 0 0 1 1 1 1 1 1 0 0 1 1 0 0 0 1 1 0 0 0 1 1 0 1 1 1 1 1 0 0 0 0 0 1
- 1 0 1 1 0 1 0 1 1 1 0 1 0 1 1 0 0 0 1 1 0 0 1 1 0 1 1 0 0 0 0 0 1 0 0 1 0
- 1 1 0 1 1 1 0 1 0 0 1 1 0 1 0 1 0 0 0 1 0 1 0 1 0 1 0 1 1 1 0 1 0 0 1 1 1
- 1 0 1 0 0 0 0 1 1 0 0 0 1 1 0 1 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 1 0 1 0 0
- 0 0 1 0 1 1 1 1 0 1 0 1 0 1 0 0 0 1 1 1 0 1 0 0 1 0 0 0 0 1 1 1 0 1 1 0 1
- 1 0 0 1 0 0 1 0 1 0 0 0 1 0 0 1 1 0 0 0 1 1 0 0 0 1 1 0 0 1 0 1 0 0 1 1 0
- 1 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 1 0 0 1 1 1 0 0 0 0 1 1 1 0 1 0 1 1 0 0
- 1 1 1 1 0 1 0 1 1 1 1 0 1 1 0 0 1 0 0 1 0 1 0 1 1 0 1 1 1 0 0 1 0 0 0 0 1
- 1 0 1 1 1 0 0 1 0 0 1 1 1 1 0 1 1 1 0 0 1 1 1 0 0 1 0 0 1 0 1 1 1 1 0 0 1
- 0 0 0 0 0 1 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 1 0 1 0 1 1 1 1 0 1 1 1 0 1
- 1 1 1 0 1 0 0 0 1 0 0 1 1 0 0 1 0 1 1 0 1 0 1 0 0 1 0 1 0 1 1 0 1 1 1 0 0
- 1 0 0 1 0 1 1 1 0 0 0 1 0 1 0 1 0 1 1 0 1 1 0 0 1 0 0 0 1 1 0 1 0 1 0 1 1
- 1 1 0 0 0 0 1 1 0 1 0 0 1 1 1 0 1 1 1 1 0 0 1 0 0 1 0 1 1 1 1 1 1 1 1 1 1
- 1 1 0 0 0 0 1 0 1 1 0 0 0 1 0 1 0 1 0 0 1 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1
- 1 1 0 0 0 1 1 1 1 0 1 1 1 0 1 1 0 0 0 0 0 0 1 0 1 1 0 0 0 1 1 1 1 1 0 1 1
- 0 1 1 1 1 0 1 1 0 1 0 1 1 1 1 0 1 1 1 1 0 1 0 1 0 1 1 1 0 1 1 1 1 1 0 1 1
- 0 0 1 1 0 1 0 0 1 0 0 1 1 0 0 1 0 1 0 1 0 0 0 1 1 1 0 0 1 0 0 1 0 1 1 0 1
- 0 1 0 1 0 1 1 1 0 1 0 1 0 1 1 0 0 0 1 1 1 1 1 0 0 0 0 1 0 0 0 1 1 1 1 1 0
- 1 0 0 1 1 0 0 0 0 1 0 0 0]</t>
+          <t>[1 1 0 0 1 0 1 1 1 1 0 1 1 1 1 1 0 0 1 1 0 1 0 0 0 1 1 1 1 1 0 1 0 0 1 0 1
+ 1 1 1 1 0 1 0 0 0 0 1 0 0 0 1 1 0 0 1 1 0 0 0 1 1 1 1 1 0 1 0 0 1 1 0 0 1
+ 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 1 1 0 1 1 1 0 0 0 1 0 0 0 1 1 0 0 1 1 0 1 1
+ 1 0 0 0 1 1 1 0 1 1 0 1 0 1 1 1 1 1 1 1 0 1 1 0 0 1 1 1 1 1 0 0 0 0 0 0 0
+ 1 0 1 1 0 1 1 1 1 1 0 0 0 1 1 0 0 1 0 1 1 0 1 0 1 1 0 1 1 1 0 1 0 0 1 0 0
+ 0 1 0 1 1 1 0 0 1 1 0 1 0 1 1 1 1 0 0 0 0 0 1 1 1 1 1 0 0 0 0 1 0 0 1 1 0
+ 0 1 0 0 0 0 0 0 0 0 1 1 1 0 1 0 1 1 1 0 0 1 0 0 1 0 0 0 1 1 1 1 1 1 0 1 0
+ 0 1 1 0 0 0 1 0 1 0 0 0 0 0 1 1 1 1 0 1 1 0 1 1 0 0 1 1 1 0 0 0 0 1 1 1 1
+ 0 0 1 1 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 1 1 0 0 1 0 1 1 0 1 0 1 0 0 1 1 1 0
+ 1 1 1 1 1 1 1 0 1 1 1 1 1 1 0 0 0 1 0 0 1 0 0 0 1 1 1 0 1 0 1 0 0 1 0 0 1
+ 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 0 1 0 1 0 1 1
+ 0 0 0 1 0 0 0 1 0 1 1 1 0 1 1 1 1 1 0 1 0 1 1 0 0 0 0 1 0 1 0 0 1 1 0 1 0
+ 0 1 1 1 0 0 1 0 0 1 1 0 0 1 0 1 1 0 1 0 0 0 0 1 0 0 1 1 1 0 1 1 0 0 0 1 1
+ 0 1 0 1 0 0 0 1 1 1 1 1 1 0 0 1 1 1 1 0 0 0 1 0 0 1 0 0 0 1 1 0 0 1 1 0 0
+ 0 1 0 1 1 1 0 1 1 0 1 1 0 0 1 1 0 0 0 0 0 0 1 0 1 1 0 1 1 0 1 1 1 1 0 0 1
+ 1 0 1 1 1 0 1 1 0 1 1 1 0 0 1 1 0 0 1 1 0 1 1 0 0 1 0 1 1 0 1 0 1 0 1 0 0
+ 1 1 0 1 1 1 1 0 1 1 1 0 0 1 0 1 0 1 1 1 1 0 0 1 0 0 1 1 0 1 1 0 0 1 1 0 1
+ 1 0 1 1 0 1 1 0 0 0 1 1 1 0 1 0 1 1 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 1 1 0 0
+ 0 1 1 1 1 1 0 1 0 1 1 0 0 0 1 0 0 0 1 1 0 1 1 1 0 0 1 0 1 1 1 0 0 0 0 0 1
+ 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 1 0 0 1 0 0 0 1 1 0 1 0 1 0 0 0 0 1 1 0
+ 1 1 1 0 1 0 1 0 0 1 1 0 0]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[  0   1   7   8  10  14  15  22  24  27  31  34  36  37  41  42  45  46
-  47  48  51  53  54  57  60  62  66  67  68  69  70  72  74  76  79  80
-  81  82  83  84  87  88  92  93  97  98 100 101 102 103 104 110 111 113
- 114 116 118 119 120 122 124 125 129 130 133 134 136 137 143 146 148 149
- 151 152 153 155 158 159 161 163 167 169 171 173 175 176 177 179 182 183
- 184 185 187 192 193 197 198 200 201 209 211 212 216 217 219 224 226 227
- 228 229 231 233 235 239 240 241 243 246 251 252 253 255 256 258 259 262
- 265 267 271 274 275 279 280 284 285 288 290 293 294 296 301 303 306 308
- 313 316 317 318 323 324 325 327 329 330 333 334 335 336 338 340 341 342
- 343 345 346 349 352 354 356 357 359 360 361 364 369 370 372 373 374 377
- 380 381 382 383 385 386 387 390 391 392 395 398 400 401 402 403 406 412
- 414 417 419 421 428 430 432 434 435 436 437 439 440 441 443 444 445 446
- 448 452 455 456 459 461 462 464 466 469 471 473 474 476 477 478 481 484
- 486 487 488 492 494 496 498 499 501 502 505 509 510 512 514 516 517 518
- 519 524 525 527 530 531 532 534 535 536 537 540 543 545 546 547 548 549
- 550 551 552 553 554 555 556 561 563 564 568 570 572 575 576 580 583 585
- 591 592 593 597 598 599 600 602 603 604 606 607 614 616 617 621 622 623
- 624 625 627 628 630 631 632 633 635 636 638 640 641 642 643 645 646 647
- 648 650 652 654 655 656 658 659 660 661 662 664 665 668 669 671 674 677
- 678 681 683 685 689 690 691 694 697 699 700 702 704 706 708 709 710 712
- 714 716 717 721 722 723 724 725 730 734 735 736 737 738 740 743 744 749]</t>
+          <t>[  0   1   4   6   7   8   9  11  12  13  14  15  18  19  21  25  26  27
+  28  29  31  34  36  37  38  39  40  42  47  51  52  55  56  60  61  62
+  63  64  66  69  70  73  75  79  83  87  89  90  92  93  94  98 102 103
+ 106 107 109 110 111 115 116 117 119 120 122 124 125 126 127 128 129 130
+ 132 133 136 137 138 139 140 148 150 151 153 154 155 156 157 161 162 165
+ 167 168 170 172 173 175 176 177 179 182 186 188 189 190 193 194 196 198
+ 199 200 201 207 208 209 210 211 216 219 220 223 232 233 234 236 238 239
+ 240 243 246 250 251 252 253 254 255 257 260 261 265 267 273 274 275 276
+ 278 279 281 282 285 286 287 292 293 294 295 298 299 301 304 307 310 315
+ 316 319 321 322 324 326 329 330 331 333 334 335 336 337 338 339 341 342
+ 343 344 345 346 350 353 357 358 359 361 363 366 369 372 375 376 380 388
+ 390 391 398 401 403 405 406 410 414 416 417 418 420 421 422 423 424 426
+ 428 429 434 436 439 440 442 445 446 447 450 453 454 457 459 460 462 467
+ 470 471 472 474 475 479 480 482 484 488 489 490 491 492 493 496 497 498
+ 499 503 506 510 511 514 515 519 521 522 523 525 526 528 529 532 533 540
+ 542 543 545 546 548 549 550 551 554 555 557 558 559 561 562 564 565 566
+ 569 570 573 574 576 577 580 582 583 585 587 589 592 593 595 596 597 598
+ 600 601 602 605 607 609 610 611 612 615 618 619 621 622 625 626 628 629
+ 631 632 634 635 639 640 641 643 645 646 652 655 658 660 662 663 667 668
+ 669 670 671 673 675 676 680 684 685 687 688 689 692 694 695 696 702 709
+ 714 715 717 720 723 727 728 730 732 737 738 740 741 742 744 746 749 750]</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>0.9605263157894737</v>
       </c>
       <c r="E8" t="n">
-        <v>64.25209879875183</v>
+        <v>87.48990988731384</v>
       </c>
     </row>
     <row r="9">
@@ -904,60 +903,59 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[1 0 1 1 0 1 1 0 0 0 1 0 0 1 1 1 0 1 0 0 1 1 1 0 0 1 0 1 0 1 1 0 0 1 0 0 0
- 1 0 0 0 0 1 1 0 1 1 1 1 1 0 0 1 1 0 0 1 1 1 1 1 0 1 0 1 1 0 0 0 1 0 0 1 1
- 0 0 0 1 1 1 0 0 0 1 1 0 1 0 0 0 1 1 0 1 0 1 0 1 1 1 0 1 1 1 0 0 0 1 0 0 1
- 1 1 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 1 0 1 1 1 1 0 1 0
- 1 0 0 1 0 0 0 1 1 0 1 1 1 0 1 1 0 1 0 0 1 0 0 1 1 1 0 1 1 0 0 1 0 0 0 1 0
- 1 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 1 1 1 0 1 0 0 1 0 1 0
- 1 1 0 1 1 0 1 1 0 1 1 0 0 0 0 0 1 1 1 1 1 1 0 1 0 0 0 0 1 0 0 0 0 1 1 0 1
- 0 1 0 1 1 1 1 0 0 1 1 0 1 1 0 1 0 0 1 1 1 0 0 1 1 0 0 1 0 0 1 1 0 1 1 1 0
- 1 1 1 1 0 0 1 0 0 1 0 1 0 1 1 1 0 1 1 1 0 1 1 1 1 0 1 1 1 0 0 0 1 1 0 1 1
- 0 0 0 0 1 1 0 1 0 0 0 1 1 0 1 1 0 0 0 1 0 0 1 1 1 1 0 1 1 0 0 0 0 0 1 0 0
- 0 0 1 0 0 0 1 1 1 1 1 1 1 1 1 1 0 1 1 0 0 1 0 0 1 0 0 1 1 1 0 1 0 0 1 0 1
- 1 1 1 0 1 1 0 1 0 1 0 0 0 1 1 1 1 0 0 1 0 0 0 1 0 0 1 1 0 1 1 1 1 0 1 1 0
- 1 1 0 0 0 1 0 0 1 1 1 0 0 1 0 1 1 1 1 1 0 0 1 0 0 1 0 1 1 1 0 0 1 1 1 1 0
- 0 0 1 0 0 1 1 0 1 1 1 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0
- 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 1 0 1 0 1 0 1 1 0 1 0 0 0 1 1 0 0
- 1 0 0 0 1 1 0 1 1 0 0 0 1 0 1 1 0 1 1 0 0 1 0 0 1 1 0 1 1 0 0 1 0 1 1 1 1
- 1 0 1 0 0 0 1 1 1 0 1 1 0 1 0 1 0 0 0 0 1 1 0 1 1 0 1 0 1 1 0 0 1 1 1 1 0
- 0 0 1 1 1 1 0 0 1 1 1 0 1 0 0 1 1 1 0 0 0 0 1 1 1 0 1 1 1 1 1 0 0 0 0 1 0
- 1 0 0 1 1 0 1 1 1 1 0 0 0 1 1 1 1 1 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 1 0
- 1 1 1 1 1 1 0 1 0 0 0 1 0 1 1 0 1 1 1 1 0 1 0 1 0 0 1 1 0 1 0 0 1 1 1 1 1
- 1 1 0 1 1 1 1 1 0 0 1 0 1]</t>
+          <t>[1 0 0 1 1 1 0 1 1 1 0 0 1 0 0 0 1 0 0 1 1 1 0 1 1 1 1 1 0 0 1 1 1 0 0 0 1
+ 0 1 1 0 0 0 0 1 1 1 1 0 0 1 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 1 1 1 0 0 1 1 1
+ 0 1 0 0 1 1 1 0 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 1 1 0 0 0
+ 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 1 0 1 1 0 0 0 1 1 1 0 0 1 0 1 1 0 0 0 0 0 0
+ 0 1 0 0 1 1 1 0 1 0 0 1 1 1 1 1 1 0 0 1 0 0 1 1 1 1 1 1 1 1 1 0 1 0 1 1 0
+ 1 1 0 0 1 0 1 0 1 0 0 0 1 1 1 1 0 0 1 0 0 1 1 1 0 0 0 1 1 1 1 1 1 1 1 0 0
+ 1 1 0 1 1 0 1 1 1 1 0 1 1 0 1 1 0 1 1 0 0 0 1 1 0 0 0 1 0 1 0 1 0 1 0 0 0
+ 1 1 0 1 1 1 1 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 1 0 1 0 0 1 0 0 0 1 0
+ 0 0 1 0 0 1 0 0 1 0 0 1 1 1 0 0 1 0 0 1 0 0 0 1 0 0 1 1 0 0 0 1 1 0 1 0 1
+ 0 0 0 1 0 0 1 1 1 0 1 1 1 0 0 1 0 0 1 1 0 1 0 0 1 1 0 0 0 0 0 1 0 1 0 1 1
+ 0 0 0 1 0 0 0 1 0 1 0 1 1 1 0 0 1 1 1 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0
+ 1 1 0 1 1 0 1 0 1 1 0 1 0 0 1 0 1 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0
+ 1 0 1 0 0 1 1 0 0 1 0 1 1 1 1 1 0 1 0 1 0 1 0 1 1 0 1 1 0 0 0 1 0 1 0 1 1
+ 1 1 1 1 0 0 0 1 1 0 1 0 1 1 0 1 1 0 0 1 0 0 1 0 0 1 0 0 1 1 0 0 1 1 1 0 1
+ 1 1 1 1 0 0 1 1 0 1 1 0 0 0 0 1 0 1 0 1 1 0 0 1 1 1 0 1 0 1 1 0 0 0 0 1 0
+ 0 0 0 1 0 0 0 0 0 0 0 1 1 1 1 1 1 1 1 0 1 1 0 0 0 1 0 1 0 1 1 1 1 1 0 1 0
+ 1 1 1 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 1 0 0 1 1 0 0 0 0 0 0 1 1 0
+ 1 0 1 1 0 1 0 0 1 1 1 1 1 1 1 0 0 1 1 0 0 1 0 1 1 1 1 0 1 0 1 1 1 1 0 0 1
+ 1 1 1 0 1 0 1 0 0 1 0 1 1 1 0 0 0 1 1 0 1 0 0 0 1 1 1 1 0 1 1 1 1 0 0 0 0
+ 0 1 0 0 1 0 0 0 1 1 0 0 1 0 1 1 1 1 1 1 1 0 1 0 1 1 1 1 1 1 1 0 0 1 1 1 1
+ 0 0 1 1 0 0 1 0 1 0 0 1 1]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[  0   2   3   5   6  10  13  14  15  17  20  21  22  25  27  29  30  33
-  37  42  43  45  46  47  48  49  52  53  56  57  58  59  60  62  64  65
-  69  72  73  77  78  79  83  84  86  90  91  93  95  97  98  99 101 102
- 103 107 110 111 112 113 114 118 121 130 131 135 138 139 141 142 143 144
- 146 148 151 155 156 158 159 160 162 163 165 168 171 172 173 175 176 179
- 183 185 187 190 192 193 202 205 207 208 211 212 213 215 218 220 222 223
- 225 226 228 229 231 232 238 239 240 241 242 243 245 250 255 256 258 260
- 262 263 264 265 268 269 271 272 274 277 278 279 282 283 286 289 290 292
- 293 294 296 297 298 299 302 305 307 309 310 311 313 314 315 317 318 319
- 320 322 323 324 328 329 331 332 337 338 340 344 345 347 348 352 355 356
- 357 358 360 361 367 372 376 377 378 379 380 381 382 383 384 385 387 388
- 391 394 397 398 399 401 404 406 407 408 409 411 412 414 416 420 421 422
- 423 426 430 433 434 436 437 438 439 441 442 444 445 449 452 453 454 457
- 459 460 461 462 463 466 469 471 472 473 476 477 478 479 483 486 487 489
- 490 491 494 498 502 505 512 516 518 519 527 530 534 535 538 540 542 544
- 545 547 551 552 555 559 560 562 563 567 569 570 572 573 576 579 580 582
- 583 586 588 589 590 591 592 594 598 599 600 602 603 605 607 612 613 615
- 616 618 620 621 624 625 626 627 631 632 633 634 637 638 639 641 644 645
- 646 651 652 653 655 656 657 658 659 664 666 669 670 672 673 674 675 679
- 680 681 682 683 684 690 694 695 699 701 703 704 705 706 707 708 710 714
- 716 717 719 720 721 722 724 726 729 730 732 735 736 737 738 739 740 741
- 743 744 745 746 747 750 752]</t>
+          <t>[  0   3   4   5   7   8   9  12  16  19  20  21  23  24  25  26  27  30
+  31  32  36  38  39  44  45  46  47  50  56  57  58  59  66  67  68  71
+  72  73  75  78  79  80  84  85  87  88  98 101 103 105 106 107 113 115
+ 120 121 126 128 129 133 134 135 138 140 141 149 152 153 154 156 159 160
+ 161 162 163 164 167 170 171 172 173 174 175 176 177 178 180 182 183 185
+ 186 189 191 193 197 198 199 200 203 206 207 208 212 213 214 215 216 217
+ 218 219 222 223 225 226 228 229 230 231 233 234 236 237 239 240 244 245
+ 249 251 253 255 259 260 262 263 264 265 266 269 277 278 281 284 285 287
+ 290 294 298 301 304 307 308 309 312 315 319 322 323 327 328 330 332 336
+ 339 340 341 343 344 345 348 351 352 354 357 358 364 366 368 369 373 377
+ 379 381 382 383 386 387 388 391 392 394 395 404 407 408 410 411 413 415
+ 416 418 421 423 426 428 430 436 440 441 444 446 449 450 453 455 456 457
+ 458 459 461 463 465 467 468 470 471 475 477 479 480 481 482 483 484 488
+ 489 491 493 494 496 497 500 503 506 509 510 513 514 515 517 518 519 520
+ 521 524 525 527 528 533 535 537 538 541 542 543 545 547 548 553 558 566
+ 567 568 569 570 571 572 573 575 576 580 582 584 585 586 587 588 590 592
+ 593 594 595 596 597 608 611 612 613 615 618 619 626 627 629 631 632 634
+ 637 638 639 640 641 642 643 646 647 650 652 653 654 655 657 659 660 661
+ 662 665 666 667 668 670 672 675 677 678 679 683 684 686 690 691 692 693
+ 695 696 697 698 704 707 711 712 715 717 718 719 720 721 722 723 725 727
+ 728 729 730 731 732 733 736 737 738 739 742 743 746 748 751 752]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E9" t="n">
-        <v>72.47375106811523</v>
+        <v>92.7266366481781</v>
       </c>
     </row>
     <row r="10">
@@ -966,60 +964,58 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[1 0 0 1 1 0 0 1 1 1 1 0 0 1 1 1 0 1 0 1 1 1 1 0 1 0 1 1 1 1 1 0 1 1 1 1 1
- 1 0 0 1 0 0 0 0 1 1 0 0 1 1 1 1 1 1 0 1 0 0 0 1 1 0 0 0 0 0 1 1 0 0 1 1 1
- 1 1 0 1 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 1 0 1 1 0 1 1 1 0 1 1 0 1 1 1 0 0 0
- 0 0 0 1 1 0 1 0 0 0 0 1 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 1 0 1 0 1
- 0 1 1 1 1 1 0 1 0 0 1 0 0 0 1 0 0 0 1 1 1 0 0 0 1 0 0 1 0 1 0 0 0 1 1 0 1
- 0 1 1 0 1 0 0 0 0 0 0 1 1 0 0 1 1 1 0 1 0 1 0 1 0 0 1 0 1 0 0 1 0 0 0 1 0
- 0 0 1 0 1 1 0 0 1 0 0 0 1 0 0 1 1 1 0 0 1 0 0 1 1 0 0 1 0 0 0 1 0 1 0 0 0
- 1 0 1 1 1 1 1 0 0 1 1 0 0 0 1 0 1 1 0 1 1 0 0 1 0 0 0 0 0 0 1 1 0 1 1 1 0
- 0 1 0 1 0 1 0 0 0 1 0 1 1 0 1 1 1 0 0 0 0 1 1 1 1 1 1 0 1 1 0 1 0 0 0 0 0
- 0 0 1 1 0 1 1 0 0 1 0 1 1 1 0 0 0 1 0 0 0 0 1 1 1 0 1 0 1 1 1 1 0 1 0 1 0
- 0 1 0 1 1 1 0 0 1 0 0 1 1 1 1 0 0 1 0 0 1 0 0 1 0 1 0 0 0 1 1 0 1 1 1 0 1
- 1 1 0 0 1 1 0 0 1 0 0 0 0 1 1 0 0 0 1 1 1 1 1 1 0 0 0 0 0 0 0 1 1 1 1 1 0
- 0 1 0 0 0 1 1 0 0 0 1 0 1 0 0 1 0 0 1 0 1 1 1 0 1 1 1 0 1 0 1 0 1 1 0 0 1
- 0 1 1 1 1 0 0 0 1 1 1 0 0 1 1 0 1 1 0 1 1 1 0 0 1 0 0 1 0 1 1 1 0 0 1 0 1
- 1 0 1 1 1 1 1 1 1 1 0 0 0 1 1 1 0 1 0 0 1 0 0 0 0 1 1 1 0 1 0 0 1 1 1 1 1
- 1 1 1 1 0 1 0 0 1 0 0 1 1 1 1 1 0 0 0 0 0 1 1 0 1 1 1 1 1 1 1 0 0 1 1 1 0
- 0 0 1 0 1 0 0 0 0 0 1 0 1 1 0 1 1 0 0 1 0 1 0 0 1 0 1 1 1 0 1 1 1 0 0 1 1
- 1 0 0 1 0 1 1 1 0 0 0 1 0 0 0 1 0 1 1 1 0 0 0 1 1 1 1 1 1 1 1 1 1 1 1 1 1
- 1 0 0 1 1 0 1 0 1 1 0 0 1 0 1 0 1 0 1 0 1 1 1 0 0 1 0 0 0 0 0 1 1 1 1 1 1
- 0 0 1 0 0 1 1 1 1 0 0 1 0 1 0 0 1 0 1 0 0 1 1 1 0 1 1 1 1 0 1 1 0 1 1 0 1
- 0 0 1 1 0 0 1 1 1 1 0 0 1]</t>
+          <t>[1 0 1 0 1 0 1 1 1 1 0 1 0 1 1 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1
+ 1 1 0 0 1 1 0 1 0 0 0 1 0 1 0 1 0 1 0 1 1 0 1 1 1 0 0 1 1 0 1 0 0 0 0 0 0
+ 0 0 0 0 1 1 1 0 0 0 0 1 1 1 1 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0
+ 0 1 0 1 1 1 0 1 0 0 1 1 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 1 0
+ 1 1 0 1 0 1 0 1 1 0 0 0 1 1 0 0 1 1 1 0 1 0 1 1 0 1 0 0 0 1 1 1 0 0 0 0 1
+ 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 1 0 1 1 0 0 0 1 0 1
+ 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 1 0 0 0 1 1 0 1 1 0 1 1 1 0 0 0 0 1 1
+ 0 1 0 0 0 1 0 0 1 0 1 1 1 1 0 0 1 0 1 1 1 1 0 1 0 1 1 0 0 0 0 0 0 1 0 1 1
+ 0 0 0 0 1 0 0 1 1 1 0 0 0 1 0 1 1 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0
+ 0 0 1 0 1 1 1 0 1 1 1 1 1 0 0 0 0 0 1 1 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1
+ 0 0 1 1 1 0 1 1 0 1 1 1 0 1 1 0 1 0 0 0 0 1 0 1 0 1 1 1 0 1 0 1 1 1 1 1 1
+ 1 1 1 0 1 0 1 0 0 0 0 1 0 0 1 1 1 1 0 0 1 0 1 1 1 1 0 0 0 1 0 0 1 1 1 0 1
+ 1 1 0 0 0 1 1 1 1 1 1 1 0 1 0 1 1 0 1 0 0 1 1 0 0 0 1 1 0 0 1 0 1 0 0 0 1
+ 1 0 1 0 0 0 1 1 1 1 1 0 1 1 0 0 0 0 0 1 1 1 1 1 1 1 0 0 1 1 0 1 0 1 0 1 0
+ 0 0 0 0 0 1 1 1 1 1 1 0 1 1 0 1 1 0 0 1 1 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1
+ 0 0 1 0 0 1 0 1 1 1 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 1
+ 0 1 1 0 1 1 1 0 0 1 1 0 1 1 1 1 0 0 1 0 1 1 0 1 1 1 1 1 0 1 1 1 1 1 0 0 1
+ 1 0 1 0 1 1 1 1 0 1 1 0 0 1 1 0 1 0 0 1 0 0 0 1 0 1 0 0 0 1 0 1 0 1 0 0 1
+ 1 1 0 0 0 1 1 1 1 0 0 1 0 0 1 1 0 1 0 0 0 1 1 1 1 1 1 1 0 1 1 1 0 0 0 1 0
+ 0 0 1 1 0 0 1 0 1 0 0 1 1 1 1 1 0 1 1 0 1 0 1 0 1 1 0 1 1 1 1 0 0 0 1 0 0
+ 0 1 0 1 0 0 0 1 1 1 0 0 0]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[  0   3   4   7   8   9  10  13  14  15  17  19  20  21  22  24  26  27
-  28  29  30  32  33  34  35  36  37  40  45  46  49  50  51  52  53  54
-  56  60  61  67  68  71  72  73  74  75  77  81  82  84  89  93  95  96
-  98  99 100 102 103 105 106 107 114 115 117 122 123 127 131 135 138 141
- 143 145 147 149 150 151 152 153 155 158 162 166 167 168 172 175 177 181
- 182 184 186 187 189 196 197 200 201 202 204 206 208 211 213 216 220 224
- 226 227 230 234 237 238 239 242 245 246 249 253 255 259 261 262 263 264
- 265 268 269 273 275 276 278 279 282 289 290 292 293 294 297 299 301 305
- 307 308 310 311 312 317 318 319 320 321 322 324 325 327 335 336 338 339
- 342 344 345 346 350 355 356 357 359 361 362 363 364 366 368 371 373 374
- 375 378 381 382 383 384 387 390 393 395 399 400 402 403 404 406 407 408
- 411 412 415 420 421 425 426 427 428 429 430 438 439 440 441 442 445 449
- 450 454 456 459 462 464 465 466 468 469 470 472 474 476 477 480 482 483
- 484 485 489 490 491 494 495 497 498 500 501 502 505 508 510 511 512 515
- 517 518 520 521 522 523 524 525 526 527 531 532 533 535 538 543 544 545
- 547 550 551 552 553 554 555 556 557 558 560 563 566 567 568 569 570 576
- 577 579 580 581 582 583 584 585 588 589 590 594 596 602 604 605 607 608
- 611 613 616 618 619 620 622 623 624 627 628 629 632 634 635 636 640 644
- 646 647 648 652 653 654 655 656 657 658 659 660 661 662 663 664 665 666
- 669 670 672 674 675 678 680 682 684 686 687 688 691 697 698 699 700 701
- 702 705 708 709 710 711 714 716 719 721 724 725 726 728 729 730 731 733
- 734 736 737 739 742 743 746 747 748 749 752]</t>
+          <t>[  0   2   4   6   7   8   9  11  13  14  16  19  23  25  34  36  37  38
+  41  42  44  48  50  52  54  56  57  59  60  61  64  65  67  78  79  80
+  85  86  87  88  90  93  95 100 106 107 108 112 114 115 116 118 121 122
+ 123 129 130 138 139 140 143 146 148 149 151 153 155 156 160 161 164 165
+ 166 168 170 171 173 177 178 179 184 186 187 189 192 204 205 208 211 212
+ 214 215 219 221 223 230 235 236 239 240 244 245 247 248 250 251 252 257
+ 258 260 264 267 269 270 271 272 275 277 278 279 280 282 284 285 292 294
+ 295 300 303 304 305 309 311 312 314 315 320 323 329 335 337 338 339 341
+ 342 343 344 345 351 352 353 356 358 366 369 372 373 374 376 377 379 380
+ 381 383 384 386 391 393 395 396 397 399 401 402 403 404 405 406 407 408
+ 409 411 413 418 421 422 423 424 427 429 430 431 432 436 439 440 441 443
+ 444 445 449 450 451 452 453 454 455 457 459 460 462 465 466 470 471 474
+ 476 480 481 483 487 488 489 490 491 493 494 500 501 502 503 504 505 506
+ 509 510 512 514 516 523 524 525 526 527 528 530 531 533 534 537 538 539
+ 547 548 549 554 557 560 562 563 564 566 568 569 570 582 583 584 588 591
+ 593 594 596 597 598 601 602 604 605 606 607 610 612 613 615 616 617 618
+ 619 621 622 623 624 625 628 629 631 633 634 635 636 638 639 642 643 645
+ 648 652 654 658 660 662 665 666 667 671 672 673 674 677 680 681 683 687
+ 688 689 690 691 692 693 695 696 697 701 705 706 709 711 714 715 716 717
+ 718 720 721 723 725 727 728 730 731 732 733 737 741 743 747 748 749]</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>0.9605263157894737</v>
       </c>
       <c r="E10" t="n">
-        <v>81.26875877380371</v>
+        <v>96.83013319969177</v>
       </c>
     </row>
     <row r="11">
@@ -1028,64 +1024,59 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 0 0 0 1 1 1 0 0 1 0 0 1 1 1 0 1 1 1 1 0 1 0 1 1 1 1 0 1
- 0 0 1 0 0 1 1 1 1 1 0 1 1 1 1 1 1 1 1 1 1 0 1 0 1 1 1 0 0 1 1 0 1 0 0 1 0
- 0 1 1 1 1 1 0 1 1 0 1 1 1 0 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 1 0 1 1 1 0 0 1
- 1 1 1 0 0 1 0 1 0 1 1 1 1 1 1 1 0 1 0 0 1 0 0 1 1 1 0 1 0 1 0 1 0 0 0 1 1
- 0 1 0 0 0 1 1 1 1 0 0 0 1 0 0 1 0 0 1 0 1 1 0 1 1 0 0 1 0 1 0 1 0 1 0 1 0
- 1 1 1 1 1 1 1 1 1 1 0 0 1 0 1 0 0 1 1 0 1 1 1 1 1 0 1 1 1 0 0 1 1 0 1 1 1
- 1 1 0 1 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 0 1 1 1 0 0 1 0 1 0 0 1 0 0 0 1 1 0
- 0 1 1 1 1 0 0 1 1 1 1 1 1 0 1 0 0 1 0 1 0 0 1 1 1 1 0 1 0 1 1 1 1 0 0 1 1
- 0 1 1 1 1 1 1 0 1 1 0 1 0 1 0 1 1 0 0 1 0 0 0 0 1 1 1 1 1 1 1 0 1 0 1 1 0
- 0 0 1 1 1 1 0 0 0 0 1 1 1 1 1 1 0 0 0 1 1 1 1 0 1 1 1 1 0 1 1 0 1 1 0 0 1
- 0 1 1 1 0 1 1 0 1 0 1 0 1 1 0 1 0 1 1 1 1 0 1 1 1 1 1 1 1 1 1 1 0 1 1 1 1
- 1 1 1 1 0 1 1 1 1 1 0 0 1 0 1 1 0 1 1 0 1 0 1 0 1 1 1 0 1 1 1 0 0 1 0 0 1
- 1 0 0 1 1 0 0 1 1 0 1 1 0 1 1 1 0 0 1 0 1 1 1 1 1 1 1 0 1 1 0 1 1 1 1 1 1
- 1 1 1 0 1 1 1 1 0 0 1 0 1 1 1 0 0 0 1 1 1 1 0 0 1 0 1 0 0 0 0 1 1 0 0 1 1
- 0 1 1 0 1 0 0 0 1 1 1 0 1 1 1 1 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1
- 1 0 0 1 1 1 0 1 0 1 0 0 0 1 1 1 0 1 1 1 0 1 0 1 1 1 1 1 0 1 1 0 0 1 0 1 0
- 0 1 1 1 1 1 1 0 0 1 1 1 0 0 1 1 1 0 1 1 0 1 0 1 0 0 1 0 0 1 0 0 1 1 1 1 0
- 0 1 1 1 1 1 1 1 1 1 1 1 0 0 1 1 1 0 1 0 1 1 1 0 1 1 0 1 1 0 0 0 0 1 1 0 1
- 1 0 0 1 1 1 1 1 0 1 0 1 0 0 1 0 0 0 0 1 0 1 1 1 0 0 0 0 1 0 0 0 1 0 1 0 0
- 1 1 1 0 0 1 1 0 0 1 0 1 1 1 0 1 0 0 1 1 1 0 0 0 1 0 1 0 1 0 0 1 0 1 1 1 1
- 1 1 1 1 1 0 1 0 1 0 0 0 1]</t>
+          <t>[1 0 1 0 0 1 0 1 0 1 0 1 0 0 0 1 1 0 1 1 1 0 1 0 0 0 0 1 0 1 0 1 0 0 1 1 0
+ 0 0 1 1 0 1 0 1 1 0 0 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 0 0 0 1 0 0 1 0
+ 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 1 0 1 1 0 1 0 0 1 1 0 1 0 1 0 0
+ 0 0 1 1 1 1 0 0 0 0 1 0 1 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 1 0
+ 1 1 1 0 1 0 1 1 0 0 0 0 1 0 0 1 1 1 0 1 0 1 0 0 0 0 1 1 0 0 0 1 1 1 0 0 1
+ 1 1 0 1 1 0 1 0 0 1 0 0 1 1 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 0 0 1 1 0 1
+ 1 0 1 0 1 0 0 1 1 0 0 0 1 0 0 0 0 1 0 1 1 1 0 0 1 0 0 0 0 1 0 1 1 1 0 0 1
+ 0 1 1 1 0 1 0 0 1 1 1 1 0 1 1 1 1 0 0 0 0 1 1 1 1 0 1 1 1 0 1 1 1 0 0 0 0
+ 0 0 0 1 0 1 0 1 0 0 0 1 1 1 1 1 1 0 0 0 1 1 1 0 0 0 1 1 1 0 0 0 1 1 1 1 0
+ 1 0 1 0 0 1 1 1 1 0 1 1 1 1 1 0 1 1 1 1 0 1 1 0 0 1 1 0 0 1 0 1 0 1 0 1 0
+ 0 1 1 0 1 1 1 1 1 1 1 1 1 0 1 1 0 0 0 1 1 0 0 1 1 0 1 0 0 0 1 1 0 0 0 1 0
+ 1 1 1 0 0 0 1 0 1 1 0 0 0 0 0 0 1 1 0 0 1 0 1 1 1 0 0 1 0 0 1 1 1 0 1 1 1
+ 0 1 0 1 0 1 0 0 1 1 1 0 0 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 0 1 0 1 0 0 1 0
+ 0 1 0 0 1 1 0 1 1 0 1 1 1 0 0 0 1 0 0 1 0 1 0 0 1 1 0 1 1 0 1 0 1 1 1 1 1
+ 0 1 0 0 0 0 0 0 1 1 0 0 1 1 0 0 1 0 1 0 1 1 1 0 1 1 1 0 0 0 0 1 0 0 0 1 0
+ 1 1 1 1 1 0 0 1 1 1 0 1 1 1 1 1 1 0 1 0 0 1 1 1 1 0 1 1 0 1 1 1 0 0 1 0 1
+ 0 1 1 1 0 1 0 1 1 1 0 1 0 0 1 0 1 0 1 1 1 1 1 1 1 0 0 1 0 0 0 1 1 1 0 1 1
+ 0 1 1 1 0 0 1 0 1 0 0 0 1 1 1 1 1 0 0 1 0 1 1 0 0 1 1 0 0 1 1 0 0 0 1 1 0
+ 0 0 1 0 0 0 0 0 1 1 0 1 0 0 1 0 0 1 1 0 1 0 0 1 0 1 0 0 1 1 1 0 1 0 1 0 0
+ 0 1 1 0 1 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1
+ 0 1 0 0 0 1 0 1 0 1 0 0 0]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[  0   1   2   3   4   5   6   7   8  12  13  14  17  20  21  22  24  25
-  26  27  29  31  32  33  34  36  39  42  43  44  45  46  48  49  50  51
-  52  53  54  55  56  57  59  61  62  63  66  67  69  72  75  76  77  78
-  79  81  82  84  85  86  88  89  90  91  92  93  95  96  97  98  99 100
- 101 102 103 105 106 107 110 111 112 113 116 118 120 121 122 123 124 125
- 126 128 131 134 135 136 138 140 142 146 147 149 153 154 155 156 160 163
- 166 168 169 171 172 175 177 179 181 183 185 186 187 188 189 190 191 192
- 193 194 197 199 202 203 205 206 207 208 209 211 212 213 216 217 219 220
- 221 222 223 225 226 229 230 231 232 233 234 235 237 238 239 240 242 243
- 244 247 249 252 256 257 260 261 262 263 266 267 268 269 270 271 273 276
- 278 281 282 283 284 286 288 289 290 291 294 295 297 298 299 300 301 302
- 304 305 307 309 311 312 315 320 321 322 323 324 325 326 328 330 331 335
- 336 337 338 343 344 345 346 347 348 352 353 354 355 357 358 359 360 362
- 363 365 366 369 371 372 373 375 376 378 380 382 383 385 387 388 389 390
- 392 393 394 395 396 397 398 399 400 401 403 404 405 406 407 408 409 410
- 412 413 414 415 416 419 421 422 424 425 427 429 431 432 433 435 436 437
- 440 443 444 447 448 451 452 454 455 457 458 459 462 464 465 466 467 468
- 469 470 472 473 475 476 477 478 479 480 481 482 483 485 486 487 488 491
- 493 494 495 499 500 501 502 505 507 512 513 516 517 519 520 522 526 527
- 528 530 531 532 533 536 540 541 543 554 555 558 559 560 562 564 568 569
- 570 572 573 574 576 578 579 580 581 582 584 585 588 590 593 594 595 596
- 597 598 601 602 603 606 607 608 610 611 613 615 618 621 624 625 626 627
- 630 631 632 633 634 635 636 637 638 639 640 643 644 645 647 649 650 651
- 653 654 656 657 662 663 665 666 669 670 671 672 673 675 677 680 685 687
- 688 689 694 698 700 703 704 705 708 709 712 714 715 716 718 721 722 723
- 727 729 731 734 736 737 738 739 740 741 742 743 744 746 748 752]</t>
+          <t>[  0   2   5   7   9  11  15  16  18  19  20  22  27  29  31  34  35  39
+  40  42  44  45  48  49  50  51  52  53  55  56  57  58  59  60  61  62
+  64  65  69  72  75  84  86  89  90  95  97  98 100 103 104 106 108 113
+ 114 115 116 121 123 124 125 127 128 130 136 137 138 139 146 148 149 150
+ 152 154 155 160 163 164 165 167 169 174 175 179 180 181 184 185 186 188
+ 189 191 194 197 198 200 204 206 210 214 218 219 221 222 224 226 229 230
+ 234 239 241 242 243 246 251 253 254 255 258 260 261 262 264 267 268 269
+ 270 272 273 274 275 280 281 282 283 285 286 287 289 290 291 299 301 303
+ 307 308 309 310 311 312 316 317 318 322 323 324 328 329 330 331 333 335
+ 338 339 340 341 343 344 345 346 347 349 350 351 352 354 355 358 359 362
+ 364 366 368 371 372 374 375 376 377 378 379 380 381 382 384 385 389 390
+ 393 394 396 400 401 405 407 408 409 413 415 416 423 424 427 429 430 431
+ 434 437 438 439 441 442 443 445 447 449 452 453 454 458 460 462 464 465
+ 468 469 470 471 474 476 479 482 485 486 488 489 491 492 493 497 500 502
+ 505 506 508 509 511 513 514 515 516 517 519 526 527 530 531 534 536 538
+ 539 540 542 543 544 549 553 555 556 557 558 559 562 563 564 566 567 568
+ 569 570 571 573 576 577 578 579 581 582 584 585 586 589 591 593 594 595
+ 597 599 600 601 603 606 608 610 611 612 613 614 615 616 619 623 624 625
+ 627 628 630 631 632 635 637 641 642 643 644 645 648 650 651 654 655 658
+ 659 663 664 668 674 675 677 680 683 684 686 689 691 694 695 696 698 700
+ 704 705 707 711 712 717 720 725 732 733 739 741 745 747 749]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="E11" t="n">
-        <v>128.7819304466248</v>
+        <v>124.0083332061768</v>
       </c>
     </row>
   </sheetData>

--- a/hasil uji/jumlahITER.xlsx
+++ b/hasil uji/jumlahITER.xlsx
@@ -466,19 +466,65 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[1 1 0 0 0 1 1 1 0 1 1 1 1 1 0 1 1 0 0 0 1 0 0 1 0 0 0 1 0 1]</t>
+          <t>[1 1 1 1 0 1 1 1 1 1 0 0 1 0 0 1 1 1 0 1 0 0 1 0 0 0 0 1 1 1 0 1 1 1 0 1 1
+ 1 1 0 1 0 1 1 1 1 1 1 1 1 0 1 1 1 1 1 0 1 1 1 1 0 1 1 1 0 0 1 0 0 0 1 1 0
+ 0 0 1 0 1 1 1 0 1 0 0 1 0 0 1 0 1 1 1 1 1 1 0 1 0 0 0 1 1 0 1 1 1 1 1 1 0
+ 1 1 0 1 0 1 1 0 1 1 1 1 0 0 1 0 1 1 0 1 1 1 0 0 1 0 1 0 1 1 0 0 1 1 1 1 1
+ 0 1 1 1 0 0 1 0 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1 1 0 1 0 1 0 1 1 1 1 1 1
+ 0 1 1 0 1 1 0 0 1 1 0 0 0 1 1 1 1 0 0 1 0 1 0 0 0 1 1 1 0 1 1 0 1 1 0 1 0
+ 0 0 1 1 1 1 0 0 1 1 1 1 0 0 0 1 0 1 1 1 1 1 0 1 1 0 0 1 0 0 0 1 1 0 0 1 1
+ 0 1 1 1 0 1 1 1 0 1 0 0 1 1 1 0 0 1 1 1 0 1 0 1 0 0 0 0 0 1 1 1 1 1 0 1 0
+ 1 1 1 0 1 0 0 0 0 0 1 1 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 1 0 1 1 1 1 0 1 0
+ 1 0 1 0 1 1 1 1 1 0 1 1 1 0 0 1 1 1 1 0 1 0 0 1 1 1 1 1 1 0 1 1 1 1 0 1 1
+ 0 1 1 1 1 1 1 0 1 1 0 0 1 0 1 0 1 0 1 1 0 0 0 0 1 1 1 1 1 1 1 1 1 0 1 1 0
+ 1 0 1 1 1 0 1 0 1 1 1 1 1 1 0 1 1 1 0 1 1 1 1 0 1 1 0 0 1 0 1 1 1 0 0 1 1
+ 1 1 0 0 1 0 1 1 0 1 0 1 1 1 1 0 1 0 0 0 1 1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1
+ 1 1 0 0 0 0 1 0 0 0 1 1 1 0 1 1 1 0 0 0 0 0 1 1 0 1 1 0 0 1 1 1 0 1 1 0 0
+ 1 0 0 1 1 0 1 0 1 1 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 0 0 1 1 0 1 1 0 1 1 0 0
+ 1 0 1 0 1 1 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 1 0 1 0 1 1 1 0 1 1 0 1 1 0 1
+ 1 1 0 0 0 1 1 1 1 1 1 0 0 1 1 0 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1 0 1 0
+ 1 1 0 0 1 1 0 0 1 0 1 1 1 0 0 0 0 0 1 0 1 1 1 1 0 1 0 1 1 0 0 0 1 0 1 1 1
+ 1 1 0 0 1 1 1 1 1 1 1 1 1 0 0 1 1 1 1 1 1 1 0 1 1 0 1 1 0 0 0 1 0 0 1 1 1
+ 0 1 1 1 0 1 1 0 0 1 0 1 0 1 1 1 1 1 0 1 0 0 1 1 1 1 1 1 1 1 1 1 0 1 1 1 0
+ 0 0 0 0 1 0 1 1 0 1 1 1 1]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[ 0  1  5  6  7  9 10 11 12 13 15 16 20 23 27 29]</t>
+          <t>[  0   1   2   3   5   6   7   8   9  12  15  16  17  19  22  27  28  29
+  31  32  33  35  36  37  38  40  42  43  44  45  46  47  48  49  51  52
+  53  54  55  57  58  59  60  62  63  64  67  71  72  76  78  79  80  82
+  85  88  90  91  92  93  94  95  97 101 102 104 105 106 107 108 109 111
+ 112 114 116 117 119 120 121 122 125 127 128 130 131 132 135 137 139 140
+ 143 144 145 146 147 149 150 151 154 156 157 158 159 160 161 162 163 164
+ 165 166 167 168 170 171 172 173 175 177 179 180 181 182 183 184 186 187
+ 189 190 193 194 198 199 200 201 204 206 210 211 212 214 215 217 218 220
+ 224 225 226 227 230 231 232 233 237 239 240 241 242 243 245 246 249 253
+ 254 257 258 260 261 262 264 265 266 268 271 272 273 276 277 278 280 282
+ 288 289 290 291 292 294 296 297 298 300 306 307 308 309 310 311 312 313
+ 314 316 317 318 319 320 321 322 323 324 326 327 328 329 331 333 335 337
+ 338 339 340 341 343 344 345 348 349 350 351 353 356 357 358 359 360 361
+ 363 364 365 366 368 369 371 372 373 374 375 376 378 379 382 384 386 388
+ 389 394 395 396 397 398 399 400 401 402 404 405 407 409 410 411 413 415
+ 416 417 418 419 420 422 423 424 426 427 428 429 431 432 435 437 438 439
+ 442 443 444 445 448 450 451 453 455 456 457 458 460 464 465 466 468 471
+ 473 474 475 477 478 479 480 481 482 487 491 492 493 495 496 497 503 504
+ 506 507 510 511 512 514 515 518 521 522 524 526 527 529 530 531 534 535
+ 537 538 539 540 541 542 545 546 548 549 551 552 555 557 559 560 561 562
+ 563 564 565 566 567 569 570 571 572 573 574 575 576 577 579 581 582 583
+ 585 586 588 589 591 592 593 597 598 599 600 601 602 605 606 608 609 611
+ 612 613 615 617 619 621 622 623 625 627 629 630 633 634 637 639 640 641
+ 647 649 650 651 652 654 656 657 661 663 664 665 666 667 670 671 672 673
+ 674 675 676 677 678 681 682 683 684 685 686 687 689 690 692 693 697 700
+ 701 702 704 705 706 708 709 712 714 716 717 718 719 720 722 725 726 727
+ 728 729 730 731 732 733 734 736 737 738 744 746 747 749 750 751 752]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2364153861999512</v>
+        <v>2.798770666122437</v>
       </c>
     </row>
     <row r="3">
@@ -487,19 +533,65 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 1 1 1 1 0 1 0 1]</t>
+          <t>[0 0 1 1 0 1 0 0 0 0 1 1 0 1 1 1 1 1 1 0 1 1 0 0 1 1 0 1 0 1 1 1 1 1 0 1 0
+ 1 0 1 1 0 1 1 1 0 1 1 1 1 1 1 1 0 1 0 1 1 1 1 1 0 0 0 1 1 1 0 0 1 0 1 1 0
+ 0 1 1 0 1 1 1 1 0 0 1 1 0 1 1 0 1 1 1 0 1 1 1 0 0 1 1 1 0 1 1 0 1 0 0 0 0
+ 0 0 0 1 1 0 1 1 0 1 1 1 1 1 1 0 1 0 1 1 1 1 0 0 0 1 1 1 0 0 0 0 0 0 1 1 0
+ 1 0 0 1 1 0 0 1 1 0 0 1 0 1 1 1 1 1 0 0 0 1 1 0 1 1 0 1 0 1 1 1 1 0 0 1 1
+ 1 1 1 0 1 1 0 1 0 0 0 0 0 0 1 1 0 1 1 1 0 0 0 1 1 1 1 1 0 1 1 1 1 1 1 1 1
+ 0 1 1 1 1 1 0 0 0 1 0 1 0 1 0 0 0 1 1 1 0 0 0 1 1 1 0 1 1 0 0 0 0 1 1 0 0
+ 1 0 1 1 1 1 0 1 1 0 1 1 1 1 0 1 0 0 1 1 1 1 0 0 1 1 1 0 1 1 0 0 0 0 1 1 1
+ 1 1 0 1 0 1 1 0 1 1 1 1 1 0 0 1 0 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 1 1 0 0 0
+ 0 1 1 1 1 1 1 1 0 1 1 1 1 0 1 1 1 1 1 1 0 0 1 1 0 1 0 1 0 0 1 0 1 1 1 0 0
+ 0 1 0 1 1 0 0 1 1 1 1 1 0 1 1 1 1 1 1 1 0 1 0 1 1 1 1 0 1 1 1 0 0 0 0 1 0
+ 1 1 1 0 1 1 1 1 1 0 1 0 1 0 1 1 1 0 1 0 1 1 1 1 1 0 1 1 0 1 1 0 0 0 0 1 1
+ 1 1 1 1 1 0 1 0 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 0 0 0 1 1 1 1 1 1 1 1 1 1 1
+ 1 0 0 1 1 1 0 0 1 1 1 0 0 0 0 0 0 1 0 1 1 1 1 1 0 1 0 0 0 1 1 1 0 1 0 1 0
+ 1 1 1 1 1 1 1 1 1 1 0 1 1 1 1 1 1 0 0 1 1 0 0 0 1 1 1 1 1 1 1 1 0 1 1 1 1
+ 0 1 1 0 1 1 0 0 1 1 1 1 1 1 1 1 1 1 1 0 0 1 0 0 0 1 1 0 0 1 0 1 1 1 0 0 0
+ 1 1 1 1 1 0 1 1 1 1 1 1 0 1 1 1 0 1 1 1 1 1 1 1 0 0 0 1 1 1 1 0 1 1 1 1 1
+ 1 1 0 1 1 1 0 0 1 0 1 1 1 1 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 0 1 0 0 0 0 1 0
+ 1 1 1 1 0 0 0 1 1 1 1 1 1 0 0 1 0 1 1 1 1 0 1 1 1 1 1 1 1 0 1 1 0 1 1 0 0
+ 1 1 1 1 0 1 0 1 1 0 1 0 0 1 1 0 1 1 1 1 1 1 0 0 0 0 1 1 1 1 1 1 1 1 1 1 1
+ 1 1 0 1 1 1 0 1 0 1 0 0 0]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[ 4 13 14 15 17 22 23 24 25 27 29]</t>
+          <t>[  2   3   5  10  11  13  14  15  16  17  18  20  21  24  25  27  29  30
+  31  32  33  35  37  39  40  42  43  44  46  47  48  49  50  51  52  54
+  56  57  58  59  60  64  65  66  69  71  72  75  76  78  79  80  81  84
+  85  87  88  90  91  92  94  95  96  99 100 101 103 104 106 114 115 117
+ 118 120 121 122 123 124 125 127 129 130 131 132 136 137 138 145 146 148
+ 151 152 155 156 159 161 162 163 164 165 169 170 172 173 175 177 178 179
+ 180 183 184 185 186 187 189 190 192 199 200 202 203 204 208 209 210 211
+ 212 214 215 216 217 218 219 220 221 223 224 225 226 227 231 233 235 239
+ 240 241 245 246 247 249 250 255 256 259 261 262 263 264 266 267 269 270
+ 271 272 274 277 278 279 280 283 284 285 287 288 293 294 295 296 297 299
+ 301 302 304 305 306 307 308 311 313 314 315 316 317 318 321 324 326 327
+ 328 329 334 335 336 337 338 339 340 342 343 344 345 347 348 349 350 351
+ 352 355 356 358 360 363 365 366 367 371 373 374 377 378 379 380 381 383
+ 384 385 386 387 388 389 391 393 394 395 396 398 399 400 405 407 408 409
+ 411 412 413 414 415 417 419 421 422 423 425 427 428 429 430 431 433 434
+ 436 437 442 443 444 445 446 447 448 450 454 455 457 458 459 460 461 462
+ 463 464 470 471 472 473 474 475 476 477 478 479 480 481 484 485 486 489
+ 490 491 498 500 501 502 503 504 506 510 511 512 514 516 518 519 520 521
+ 522 523 524 525 526 527 529 530 531 532 533 534 537 538 542 543 544 545
+ 546 547 548 549 551 552 553 554 556 557 559 560 563 564 565 566 567 568
+ 569 570 571 572 573 576 580 581 584 586 587 588 592 593 594 595 596 598
+ 599 600 601 602 603 605 606 607 609 610 611 612 613 614 615 619 620 621
+ 622 624 625 626 627 628 629 630 632 633 634 637 639 640 641 642 643 649
+ 650 651 653 655 656 657 659 664 666 667 668 669 673 674 675 676 677 678
+ 681 683 684 685 686 688 689 690 691 692 693 694 696 697 699 700 703 704
+ 705 706 708 710 711 713 716 717 719 720 721 722 723 724 729 730 731 732
+ 733 734 735 736 737 738 739 740 741 743 744 745 747 749]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4345071315765381</v>
+        <v>4.702892541885376</v>
       </c>
     </row>
     <row r="4">
@@ -508,19 +600,65 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[1 1 0 1 0 0 0 1 0 0 1 1 0 1 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0]</t>
+          <t>[1 1 1 1 1 1 1 0 1 1 1 1 1 1 0 0 0 1 1 1 0 1 0 0 1 1 1 1 1 0 1 1 0 1 0 1 0
+ 0 0 0 1 0 1 1 1 1 1 0 0 0 1 1 1 0 1 1 0 0 1 0 1 1 1 1 0 1 1 0 1 1 1 1 0 1
+ 1 0 0 0 1 0 1 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 1 0 1
+ 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 1 0 0 1 1 1 0
+ 0 1 1 1 0 1 0 0 1 1 1 0 1 1 0 0 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 0 0 1 0 0 0
+ 1 1 1 0 1 1 1 1 1 0 0 1 1 1 1 1 1 0 0 0 0 1 1 0 0 0 1 1 0 1 1 0 0 1 0 0 0
+ 1 1 0 0 0 1 1 0 1 1 1 1 1 0 1 1 0 0 0 1 1 0 1 1 1 1 1 1 1 0 0 1 1 1 1 1 1
+ 1 0 1 0 1 1 0 0 1 1 0 0 1 0 0 1 1 0 0 1 0 1 0 1 0 1 1 1 1 0 1 0 0 0 1 1 0
+ 1 1 0 0 1 0 1 1 1 0 1 1 1 1 0 0 1 0 1 1 1 0 1 1 1 1 0 1 1 0 1 1 0 1 1 1 0
+ 0 0 0 0 1 1 0 1 1 1 0 1 1 0 0 1 1 1 1 1 1 0 0 1 1 1 1 1 1 1 1 1 1 1 1 1 1
+ 1 0 1 1 1 0 1 0 0 1 1 1 1 1 1 0 1 1 1 1 0 0 0 1 0 1 0 1 1 1 0 1 0 1 1 1 1
+ 1 0 1 1 1 1 0 1 1 0 1 1 0 1 1 0 0 0 1 0 0 1 0 1 0 0 1 0 1 0 1 1 1 1 0 1 1
+ 0 1 0 1 0 1 1 1 1 0 1 0 0 0 1 0 1 1 0 0 1 1 0 1 0 0 1 0 1 0 0 0 1 1 1 1 1
+ 1 1 1 1 0 1 1 1 1 1 1 0 1 1 0 1 0 1 0 0 0 1 0 1 1 1 1 0 0 1 0 1 1 1 1 0 1
+ 1 1 0 1 1 1 0 1 1 0 0 1 1 1 1 1 1 0 0 0 0 1 1 1 1 1 1 0 0 1 1 1 0 1 0 0 1
+ 1 0 0 0 0 1 1 0 1 1 0 1 1 0 1 1 1 1 0 1 1 0 1 1 0 1 1 1 0 1 1 1 1 1 0 1 0
+ 0 1 0 0 0 0 0 1 0 0 0 0 1 1 1 1 1 0 0 1 1 0 0 0 1 0 0 0 1 0 1 0 1 1 1 1 1
+ 0 1 0 1 1 1 1 0 0 1 1 0 1 1 1 1 0 0 1 1 1 1 0 1 0 1 0 1 0 0 1 1 0 1 1 1 1
+ 0 1 0 0 1 1 1 1 0 1 1 1 1 1 1 1 1 1 1 0 0 1 1 1 1 0 1 0 0 1 1 1 0 1 1 0 1
+ 1 0 1 1 1 0 1 0 0 1 1 0 0 0 1 1 0 1 0 1 0 0 1 0 1 0 0 0 0 1 1 1 1 0 1 1 1
+ 1 0 1 0 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[ 0  1  3  7 10 11 13 14 16 17 18 20 21 22 23 24 25 26 27]</t>
+          <t>[  0   1   2   3   4   5   6   8   9  10  11  12  13  17  18  19  21  24
+  25  26  27  28  30  31  33  35  40  42  43  44  45  46  50  51  52  54
+  55  58  60  61  62  63  65  66  68  69  70  71  73  74  78  80  85  86
+  87  89  91  92  93  94  95  96  97  98 101 103 104 105 106 107 108 110
+ 111 112 113 114 115 116 117 118 119 120 121 122 124 125 126 127 128 129
+ 130 131 134 136 137 138 139 140 141 144 145 146 149 150 151 153 156 157
+ 158 160 161 164 165 166 167 168 169 170 171 172 173 174 175 176 177 178
+ 181 185 186 187 189 190 191 192 193 196 197 198 199 200 201 206 207 211
+ 212 214 215 218 222 223 227 228 230 231 232 233 234 236 237 241 242 244
+ 245 246 247 248 249 250 253 254 255 256 257 258 259 261 263 264 267 268
+ 271 274 275 278 280 282 284 285 286 287 289 293 294 296 297 300 302 303
+ 304 306 307 308 309 312 314 315 316 318 319 320 321 323 324 326 327 329
+ 330 331 337 338 340 341 342 344 345 348 349 350 351 352 353 356 357 358
+ 359 360 361 362 363 364 365 366 367 368 369 370 372 373 374 376 379 380
+ 381 382 383 384 386 387 388 389 393 395 397 398 399 401 403 404 405 406
+ 407 409 410 411 412 414 415 417 418 420 421 425 428 430 433 435 437 438
+ 439 440 442 443 445 447 449 450 451 452 454 458 460 461 464 465 467 470
+ 472 476 477 478 479 480 481 482 483 484 486 487 488 489 490 491 493 494
+ 496 498 502 504 505 506 507 510 512 513 514 515 517 518 519 521 522 523
+ 525 526 529 530 531 532 533 534 539 540 541 542 543 544 547 548 549 551
+ 554 555 560 561 563 564 566 567 569 570 571 572 574 575 577 578 580 581
+ 582 584 585 586 587 588 590 593 599 604 605 606 607 608 611 612 616 620
+ 622 624 625 626 627 628 630 632 633 634 635 638 639 641 642 643 644 647
+ 648 649 650 652 654 656 659 660 662 663 664 665 667 670 671 672 673 675
+ 676 677 678 679 680 681 682 683 684 687 688 689 690 692 695 696 697 699
+ 700 702 703 705 706 707 709 712 713 717 718 720 722 725 727 732 733 734
+ 735 737 738 739 740 742 744 745 746 747 748 749 750 751 752]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9342105263157895</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5779647827148438</v>
+        <v>6.938888788223267</v>
       </c>
     </row>
     <row r="5">
@@ -529,19 +667,65 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[1 1 0 1 1 1 0 0 1 0 0 1 1 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1]</t>
+          <t>[0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 1 0 1 1 0 1 1 0 0 1 1 1 0 0 0 1 1 1 0 0 0 0
+ 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 0 0 1 0 1 0 1 1 0 1 1 1 0 1 0 0 1 1 0 1 0
+ 1 1 1 1 0 1 1 0 1 1 1 0 0 1 1 1 1 1 1 1 0 1 0 0 0 0 0 0 1 1 0 1 0 1 1 0 1
+ 1 1 0 1 1 1 0 1 0 0 1 0 1 0 1 1 1 1 0 1 1 1 1 1 1 1 0 0 0 0 1 1 1 0 1 1 1
+ 0 0 0 1 0 1 1 1 0 0 1 1 1 1 1 1 0 1 0 1 0 1 1 0 0 1 1 0 0 1 0 1 1 1 0 0 1
+ 0 0 1 0 1 1 0 0 1 1 0 1 1 0 1 1 1 0 0 1 1 1 0 0 0 0 0 1 0 1 1 1 1 0 1 1 1
+ 0 1 1 0 1 1 0 1 0 1 0 1 1 1 1 1 0 1 0 0 0 0 0 0 1 0 1 1 0 1 0 1 1 1 0 1 0
+ 1 1 1 1 0 0 1 1 1 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1
+ 0 1 0 1 1 1 0 1 1 0 1 1 0 0 0 1 1 1 1 1 0 1 0 0 1 1 1 1 1 0 0 1 1 0 1 1 1
+ 0 0 1 1 1 0 1 1 0 0 0 0 1 1 1 0 1 0 1 1 0 1 0 0 0 0 1 0 1 0 1 1 1 0 1 1 1
+ 1 0 1 0 1 1 0 1 0 1 1 1 0 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0 0 0 1 0 0 0 1
+ 0 1 1 1 0 1 0 1 1 1 1 1 0 1 0 0 1 1 1 0 1 0 0 1 0 1 1 1 1 1 1 0 1 0 1 0 1
+ 1 0 0 1 1 1 1 0 1 1 0 0 1 0 1 1 1 1 0 1 1 0 1 1 0 1 1 1 1 0 1 1 1 1 1 1 1
+ 1 1 0 1 0 0 0 1 1 1 1 0 1 1 1 1 1 1 0 0 1 0 0 0 0 1 1 1 1 1 0 0 1 0 1 0 1
+ 1 1 1 0 1 1 0 1 1 0 1 0 1 1 1 1 0 0 0 0 1 1 1 0 1 0 1 0 1 0 1 0 0 1 1 0 0
+ 1 1 1 0 1 0 0 0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 0 1 1 0 0 1 1 0 1 1 1 0 1
+ 1 1 1 0 1 1 0 1 1 0 1 1 1 1 0 0 1 1 1 1 0 1 0 1 0 0 1 1 1 1 0 1 0 1 0 1 1
+ 1 1 1 1 1 0 0 1 1 0 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 1 1 0 1 1 0 0 0 0 0
+ 0 1 0 1 0 1 1 0 1 1 0 1 1 1 1 1 1 0 1 0 1 1 1 1 1 1 1 0 1 1 0 1 0 0 0 1 0
+ 1 1 1 1 0 1 0 0 0 1 0 0 0 1 1 1 1 0 0 1 0 1 0 0 1 1 0 1 1 1 1 0 0 0 0 1 0
+ 0 1 0 1 0 1 1 0 1 1 0 1 1]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[ 0  1  3  4  5  8 11 12 13 15 20 22 29]</t>
+          <t>[  1   2   3   4   5   6   7   8  10  11  12  14  15  17  18  20  21  24
+  25  26  30  31  32  37  38  39  40  42  43  44  45  46  47  48  49  51
+  52  55  57  59  60  62  63  64  66  69  70  72  74  75  76  77  79  80
+  82  83  84  87  88  89  90  91  92  93  95 102 103 105 107 108 110 111
+ 112 114 115 116 118 121 123 125 126 127 128 130 131 132 133 134 135 136
+ 141 142 143 145 146 147 151 153 154 155 158 159 160 161 162 163 165 167
+ 169 170 173 174 177 179 180 181 184 187 189 190 193 194 196 197 199 200
+ 201 204 205 206 212 214 215 216 217 219 220 221 223 224 226 227 229 231
+ 233 234 235 236 237 239 246 248 249 251 253 254 255 257 259 260 261 262
+ 265 266 267 268 269 270 271 273 274 276 277 278 279 283 284 285 288 289
+ 291 292 293 294 295 297 299 300 301 303 304 306 307 311 312 313 314 315
+ 317 320 321 322 323 324 327 328 330 331 332 335 336 337 339 340 345 346
+ 347 349 351 352 354 359 361 363 364 365 367 368 369 370 372 374 375 377
+ 379 380 381 383 384 385 386 387 388 389 392 394 395 396 397 398 402 406
+ 408 409 410 412 414 415 416 417 418 420 423 424 425 427 430 432 433 434
+ 435 436 437 439 441 443 444 447 448 449 450 452 453 456 458 459 460 461
+ 463 464 466 467 469 470 471 472 474 475 476 477 478 479 480 481 482 484
+ 488 489 490 491 493 494 495 496 497 498 501 506 507 508 509 510 513 515
+ 517 518 519 520 522 523 525 526 528 530 531 532 533 538 539 540 542 544
+ 546 548 551 552 555 556 557 559 563 566 567 568 569 570 571 572 574 575
+ 576 577 578 580 581 584 585 587 588 589 591 592 593 594 596 597 599 600
+ 602 603 604 605 608 609 610 611 613 615 618 619 620 621 623 625 627 628
+ 629 630 631 632 633 636 637 639 640 641 642 644 645 646 647 648 649 650
+ 651 653 654 655 656 657 659 660 667 669 671 672 674 675 677 678 679 680
+ 681 682 684 686 687 688 689 690 691 692 694 695 697 701 703 704 705 706
+ 708 712 716 717 718 719 722 724 727 728 730 731 732 733 738 741 743 745
+ 746 748 749 751 752]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7145192623138428</v>
+        <v>9.430194854736328</v>
       </c>
     </row>
     <row r="6">
@@ -550,19 +734,64 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[1 1 0 0 1 0 0 0 1 1 0 1 1 0 1 0 1 1 1 0 0 1 1 1 1 1 1 0 0 0]</t>
+          <t>[1 1 0 0 1 0 0 1 1 1 1 1 1 1 1 1 1 1 0 0 0 1 1 1 1 0 1 1 1 1 1 1 1 1 0 0 0
+ 1 1 1 0 0 1 0 1 1 1 1 1 0 0 1 0 1 0 1 0 0 1 1 1 1 1 0 0 1 1 1 1 1 0 0 1 0
+ 1 1 0 1 0 0 1 1 0 1 1 1 1 1 1 1 0 1 0 1 0 1 1 0 1 0 1 0 1 0 1 1 0 1 0 0 0
+ 1 0 1 0 1 1 1 0 0 1 1 1 1 1 1 1 0 1 0 0 0 1 0 0 0 1 1 0 0 1 1 1 0 0 1 1 1
+ 1 1 0 1 1 1 0 1 1 1 1 1 0 0 1 1 0 1 0 0 1 0 1 1 0 0 1 1 1 0 0 1 1 0 0 1 0
+ 1 0 1 1 1 0 1 0 1 1 1 0 1 0 1 1 1 0 0 1 0 1 1 0 0 0 1 1 1 1 0 1 0 1 0 1 0
+ 1 1 0 1 1 0 0 0 0 1 0 0 1 1 1 1 1 1 1 0 1 0 0 1 0 0 0 1 0 1 1 1 0 0 0 0 1
+ 0 1 1 1 1 0 1 1 0 1 0 0 0 1 0 1 1 1 1 1 1 1 1 1 0 1 0 0 0 1 0 1 1 0 1 1 0
+ 1 1 1 1 0 1 1 0 0 1 0 0 1 0 1 1 1 1 1 0 1 1 1 1 0 1 1 1 1 0 1 1 0 1 1 0 1
+ 1 1 1 1 0 1 0 1 0 0 0 0 0 1 0 1 1 0 0 1 1 1 1 1 1 1 1 1 0 0 0 0 1 0 0 0 1
+ 1 0 1 1 1 1 1 0 1 1 0 1 1 0 0 1 0 1 0 0 1 1 1 1 1 0 1 1 1 1 1 1 1 1 1 1 1
+ 1 0 0 1 1 1 1 0 1 0 0 0 1 1 1 1 1 0 1 1 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1
+ 1 1 1 1 1 1 1 1 0 0 0 0 1 0 1 1 1 1 1 0 1 1 1 1 0 0 1 1 0 1 1 1 1 0 0 0 0
+ 1 1 1 0 1 1 1 1 1 1 0 1 0 1 1 0 1 0 0 0 0 1 1 1 1 1 1 1 0 1 1 0 1 0 1 0 1
+ 1 1 1 1 1 1 0 1 0 0 0 1 0 1 1 0 0 1 1 1 1 0 0 0 1 1 1 1 1 0 0 1 0 0 0 0 1
+ 1 1 0 0 1 0 1 1 0 1 1 1 0 0 1 1 1 0 1 1 0 0 1 1 0 1 1 1 1 1 0 0 1 1 1 0 0
+ 0 0 0 1 1 0 0 0 1 1 1 0 1 1 1 0 0 1 1 1 0 1 0 1 1 1 0 1 0 1 1 0 0 1 1 1 0
+ 1 1 1 1 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 1 1 1 1 0 0 1 1 1 0 1 1 0 0 1
+ 1 0 0 1 0 1 1 0 1 1 1 0 0 1 1 0 1 0 1 1 0 1 1 1 0 1 1 0 1 1 1 0 1 1 1 0 0
+ 1 1 1 1 0 0 0 0 0 0 1 1 1 1 1 0 1 0 1 1 1 0 1 1 0 0 1 1 0 1 1 1 0 1 1 1 0
+ 1 0 0 0 1 1 1 1 1 0 0 1 1]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[ 0  1  4  8  9 11 12 14 16 17 18 21 22 23 24 25 26]</t>
+          <t>[  0   1   4   7   8   9  10  11  12  13  14  15  16  17  21  22  23  24
+  26  27  28  29  30  31  32  33  37  38  39  42  44  45  46  47  48  51
+  53  55  58  59  60  61  62  65  66  67  68  69  72  74  75  77  80  81
+  83  84  85  86  87  88  89  91  93  95  96  98 100 102 104 105 107 111
+ 113 115 116 117 120 121 122 123 124 125 126 128 132 136 137 140 141 142
+ 145 146 147 148 149 151 152 153 155 156 157 158 159 162 163 165 168 170
+ 171 174 175 176 179 180 183 185 187 188 189 191 193 194 195 197 199 200
+ 201 204 206 207 211 212 213 214 216 218 220 222 223 225 226 231 234 235
+ 236 237 238 239 240 242 245 249 251 252 253 258 260 261 262 263 265 266
+ 268 272 274 275 276 277 278 279 280 281 282 284 288 290 291 293 294 296
+ 297 298 299 301 302 305 308 310 311 312 313 314 316 317 318 319 321 322
+ 323 324 326 327 329 330 332 333 334 335 336 338 340 346 348 349 352 353
+ 354 355 356 357 358 359 360 365 369 370 372 373 374 375 376 378 379 381
+ 382 385 387 390 391 392 393 394 396 397 398 399 400 401 402 403 404 405
+ 406 407 410 411 412 413 415 419 420 421 422 423 425 426 428 429 430 431
+ 432 433 434 436 437 438 439 440 441 442 443 444 445 446 447 448 449 450
+ 451 456 458 459 460 461 462 464 465 466 467 470 471 473 474 475 476 481
+ 482 483 485 486 487 488 489 490 492 494 495 497 502 503 504 505 506 507
+ 508 510 511 513 515 517 518 519 520 521 522 523 525 529 531 532 535 536
+ 537 538 542 543 544 545 546 549 554 555 556 559 561 562 564 565 566 569
+ 570 571 573 574 577 578 580 581 582 583 584 587 588 589 595 596 600 601
+ 602 604 605 606 609 610 611 613 615 616 617 619 621 622 625 626 627 629
+ 630 631 632 635 641 642 646 650 651 652 653 654 657 658 659 661 662 665
+ 666 669 671 672 674 675 676 679 680 682 684 685 687 688 689 691 692 694
+ 695 696 698 699 700 703 704 705 706 713 714 715 716 717 719 721 722 723
+ 725 726 729 730 732 733 734 736 737 738 740 744 745 746 747 748 751 752]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8746867179870605</v>
+        <v>11.71494174003601</v>
       </c>
     </row>
     <row r="7">
@@ -571,19 +800,64 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[1 0 1 0 0 1 1 1 0 0 0 1 1 0 0 1 0 1 1 1 0 1 0 0 1 1 0 1 0 0]</t>
+          <t>[1 0 1 1 1 0 0 1 1 1 0 0 1 1 1 0 0 0 1 0 1 1 1 1 0 1 0 1 1 0 0 1 1 0 0 1 1
+ 1 1 1 0 0 1 1 1 1 1 1 0 1 0 0 1 1 0 1 1 1 1 0 1 1 0 1 1 1 1 1 0 0 1 1 1 0
+ 0 1 1 0 1 1 1 1 1 1 1 1 0 1 0 0 0 1 0 1 0 1 0 1 1 1 1 1 1 0 0 1 1 1 1 1 0
+ 1 1 1 1 1 1 1 0 0 1 1 0 0 1 1 0 1 1 0 1 1 0 0 0 0 1 1 1 0 0 0 1 0 0 0 1 1
+ 1 1 1 1 1 1 1 1 1 0 0 1 1 1 0 0 1 0 1 1 1 1 0 1 1 1 1 1 0 1 0 1 1 0 0 0 1
+ 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 1 1 1 0 0 0 1 0 1 1
+ 1 1 1 0 0 1 0 1 0 1 1 1 0 0 1 0 1 1 0 1 0 1 0 0 0 0 1 0 0 1 1 1 1 1 0 0 0
+ 1 1 0 1 0 0 1 1 1 0 1 1 1 0 1 1 1 0 1 0 0 1 0 0 0 1 1 1 1 0 0 1 0 1 1 0 1
+ 0 1 0 0 0 1 0 0 1 1 0 1 1 1 0 1 0 0 1 1 1 0 0 1 1 1 1 1 1 1 1 0 1 1 1 1 1
+ 0 1 1 1 1 1 1 0 0 1 1 1 1 1 1 1 0 1 0 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 0 0
+ 0 0 0 1 1 1 0 1 1 0 0 0 1 0 0 0 1 1 1 1 0 1 1 0 1 0 0 1 0 0 0 1 1 1 0 1 1
+ 1 1 1 1 1 1 0 1 1 1 0 1 1 0 1 0 1 1 1 0 1 0 1 0 0 1 1 0 0 1 1 1 0 1 0 0 0
+ 1 0 1 1 0 1 1 0 1 0 1 1 1 0 1 1 0 0 0 1 1 0 0 1 1 1 1 1 1 1 0 0 0 1 0 0 0
+ 1 0 1 0 1 0 0 0 1 1 1 1 0 1 1 1 1 1 0 1 0 1 0 0 0 0 1 1 0 1 1 0 1 1 1 1 0
+ 0 1 1 1 1 0 0 1 0 1 1 0 0 1 1 0 0 1 0 0 0 1 1 1 1 1 1 1 1 1 0 0 1 1 0 1 0
+ 0 0 1 1 0 1 1 1 1 0 1 1 1 1 1 0 0 0 1 1 1 1 1 0 1 0 1 0 1 1 1 0 1 0 0 0 0
+ 1 1 0 1 1 0 0 0 1 1 1 1 0 0 0 1 1 0 1 0 1 1 1 1 1 1 1 1 1 0 0 0 1 0 1 1 0
+ 1 0 1 0 0 0 1 0 1 0 0 0 1 1 1 1 0 0 0 0 1 1 0 1 1 0 0 1 1 1 1 1 1 1 1 0 1
+ 0 0 1 1 1 0 1 1 1 1 1 0 0 1 1 0 1 0 0 0 1 1 1 1 1 1 0 1 0 0 0 0 0 0 1 0 0
+ 0 1 1 1 1 0 1 1 1 1 1 1 0 1 1 0 1 1 1 0 1 1 1 1 0 0 1 1 0 0 1 0 1 0 1 0 0
+ 0 0 1 1 1 1 0 1 0 1 0 1 1]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[ 0  2  5  6  7 11 12 15 17 18 19 21 24 25 27]</t>
+          <t>[  0   2   3   4   7   8   9  12  13  14  18  20  21  22  23  25  27  28
+  31  32  35  36  37  38  39  42  43  44  45  46  47  49  52  53  55  56
+  57  58  60  61  63  64  65  66  67  70  71  72  75  76  78  79  80  81
+  82  83  84  85  87  91  93  95  97  98  99 100 101 102 105 106 107 108
+ 109 111 112 113 114 115 116 117 120 121 124 125 127 128 130 131 136 137
+ 138 142 146 147 148 149 150 151 152 153 154 155 156 159 160 161 164 166
+ 167 168 169 171 172 173 174 175 177 179 180 184 186 187 189 190 191 192
+ 193 194 195 196 199 200 201 203 205 206 207 208 209 210 211 212 213 214
+ 218 220 221 222 223 224 227 229 231 232 233 236 238 239 241 243 248 251
+ 252 253 254 255 259 260 262 265 266 267 269 270 271 273 274 275 277 280
+ 284 285 286 287 290 292 293 295 297 301 304 305 307 308 309 311 314 315
+ 316 319 320 321 322 323 324 325 326 328 329 330 331 332 334 335 336 337
+ 338 339 342 343 344 345 346 347 348 350 352 353 355 356 357 358 359 360
+ 361 362 364 365 366 373 374 375 377 378 382 386 387 388 389 391 392 394
+ 397 401 402 403 405 406 407 408 409 410 411 412 414 415 416 418 419 421
+ 423 424 425 427 429 432 433 436 437 438 440 444 446 447 449 450 452 454
+ 455 456 458 459 463 464 467 468 469 470 471 472 473 477 481 483 485 489
+ 490 491 492 494 495 496 497 498 500 502 507 508 510 511 513 514 515 516
+ 519 520 521 522 525 527 528 531 532 535 539 540 541 542 543 544 545 546
+ 547 550 551 553 557 558 560 561 562 563 565 566 567 568 569 573 574 575
+ 576 577 579 581 583 584 585 587 592 593 595 596 600 601 602 603 607 608
+ 610 612 613 614 615 616 617 618 619 620 624 626 627 629 631 635 637 641
+ 642 643 644 649 650 652 653 656 657 658 659 660 661 662 663 665 668 669
+ 670 672 673 674 675 676 679 680 682 686 687 688 689 690 691 693 700 704
+ 705 706 707 709 710 711 712 713 714 716 717 719 720 721 723 724 725 726
+ 729 730 733 735 737 742 743 744 745 747 749 751 752]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E7" t="n">
-        <v>1.088231563568115</v>
+        <v>14.60606908798218</v>
       </c>
     </row>
     <row r="8">
@@ -592,19 +866,66 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[0 0 1 1 1 0 0 1 0 0 0 1 0 0 1 1 1 0 1 1 1 0 1 1 0 0 0 0 0 1]</t>
+          <t>[0 0 1 1 1 0 1 1 1 1 0 1 1 1 0 1 1 1 1 1 0 1 1 0 0 1 1 1 1 0 0 0 1 0 1 1 0
+ 1 0 1 1 0 0 0 0 1 0 1 1 1 0 1 0 1 1 0 1 1 0 1 1 1 1 0 1 1 1 1 1 0 1 1 1 0
+ 1 0 0 1 1 1 0 1 1 0 1 1 1 0 0 1 1 1 0 0 1 1 1 0 1 1 1 0 1 1 1 1 1 1 0 0 1
+ 1 1 1 1 1 1 0 1 0 0 1 1 1 1 0 1 1 0 1 0 1 1 1 1 1 0 0 0 0 0 1 0 1 1 0 1 0
+ 1 1 1 1 1 0 1 0 0 1 1 0 0 1 0 0 0 1 1 1 1 1 1 0 1 1 0 0 1 1 1 1 1 0 1 0 1
+ 1 0 0 0 1 0 0 1 1 0 1 1 1 1 0 1 1 0 1 1 0 0 0 1 1 1 1 1 0 1 1 0 0 1 1 1 1
+ 1 0 0 0 1 1 0 1 1 1 1 0 1 1 0 0 1 0 1 0 1 1 1 0 0 0 0 1 1 0 1 1 1 0 1 0 1
+ 1 0 0 1 1 1 1 0 0 0 1 0 0 1 0 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 1 1 1 0 0 0 1
+ 1 1 1 1 0 0 0 1 1 1 1 0 1 1 1 1 1 1 1 1 1 0 0 1 1 1 1 1 1 1 1 1 1 1 0 1 0
+ 1 1 1 0 1 1 1 1 1 0 0 1 0 1 1 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 0 1 0 0 1 1 1
+ 1 1 1 0 1 1 1 1 1 1 0 1 1 0 0 0 1 1 0 1 0 1 1 1 1 1 1 1 1 1 0 1 1 1 1 1 1
+ 0 0 1 0 1 0 1 0 1 0 0 1 1 1 1 0 1 0 1 1 0 1 1 1 1 1 0 1 0 1 1 1 1 0 1 0 1
+ 1 0 1 1 1 1 0 1 1 1 1 0 0 0 1 0 1 1 0 1 0 0 0 0 1 1 1 0 1 1 1 0 1 0 1 0 1
+ 1 1 0 1 1 1 1 1 0 1 1 0 1 1 0 1 1 1 1 1 0 0 0 1 0 1 1 1 1 0 1 1 1 1 1 1 1
+ 1 1 1 1 1 1 0 0 0 1 1 0 1 1 1 0 1 0 0 0 1 1 1 1 0 0 1 0 1 1 0 1 1 1 1 0 1
+ 0 0 1 0 1 1 1 1 0 0 1 1 0 0 0 0 0 1 0 1 0 1 1 1 1 0 0 1 0 0 1 1 1 1 1 1 0
+ 1 1 0 1 1 1 0 1 1 1 1 0 0 1 1 0 0 1 0 1 1 1 1 0 1 1 1 1 1 0 0 1 1 0 0 0 1
+ 1 1 1 0 0 1 0 1 1 1 0 0 1 0 0 1 1 1 0 1 1 0 1 0 1 1 1 0 0 1 1 1 0 1 0 1 0
+ 0 1 1 1 1 1 1 1 0 1 0 0 0 0 1 0 0 0 1 1 1 1 1 0 1 1 0 1 1 1 1 1 1 1 1 1 1
+ 1 1 1 0 0 1 1 1 0 0 1 0 0 0 0 1 0 1 0 0 1 1 1 0 0 1 0 1 0 1 1 0 1 1 1 1 0
+ 1 1 0 0 1 1 1 1 1 1 0 1 1]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[ 2  3  4  7 11 14 15 16 18 19 20 22 23 29]</t>
+          <t>[  2   3   4   6   7   8   9  11  12  13  15  16  17  18  19  21  22  25
+  26  27  28  32  34  35  37  39  40  45  47  48  49  51  53  54  56  57
+  59  60  61  62  64  65  66  67  68  70  71  72  74  77  78  79  81  82
+  84  85  86  89  90  91  94  95  96  98  99 100 102 103 104 105 106 107
+ 110 111 112 113 114 115 116 118 121 122 123 124 126 127 129 131 132 133
+ 134 135 141 143 144 146 148 149 150 151 152 154 157 158 161 165 166 167
+ 168 169 170 172 173 176 177 178 179 180 182 184 185 189 192 193 195 196
+ 197 198 200 201 203 204 208 209 210 211 212 214 215 218 219 220 221 222
+ 226 227 229 230 231 232 234 235 238 240 242 243 244 249 250 252 253 254
+ 256 258 259 262 263 264 265 269 272 274 275 277 278 279 280 281 282 283
+ 284 286 287 288 289 290 291 295 296 297 298 299 303 304 305 306 308 309
+ 310 311 312 313 314 315 316 319 320 321 322 323 324 325 326 327 328 329
+ 331 333 334 335 337 338 339 340 341 344 346 347 349 350 351 352 353 354
+ 355 357 358 359 360 361 362 364 367 368 369 370 371 372 374 375 376 377
+ 378 379 381 382 386 387 389 391 392 393 394 395 396 397 398 399 401 402
+ 403 404 405 406 409 411 413 415 418 419 420 421 423 425 426 428 429 430
+ 431 432 434 436 437 438 439 441 443 444 446 447 448 449 451 452 453 454
+ 458 460 461 463 468 469 470 472 473 474 476 478 480 481 482 484 485 486
+ 487 488 490 491 493 494 496 497 498 499 500 504 506 507 508 509 511 512
+ 513 514 515 516 517 518 519 520 521 522 523 527 528 530 531 532 534 538
+ 539 540 541 544 546 547 549 550 551 552 554 557 559 560 561 562 565 566
+ 572 574 576 577 578 579 582 585 586 587 588 589 590 592 593 595 596 597
+ 599 600 601 602 605 606 609 611 612 613 614 616 617 618 619 620 623 624
+ 628 629 630 631 634 636 637 638 641 644 645 646 648 649 651 653 654 655
+ 658 659 660 662 664 667 668 669 670 671 672 673 675 680 684 685 686 687
+ 688 690 691 693 694 695 696 697 698 699 700 701 702 703 704 705 708 709
+ 710 713 718 720 723 724 725 728 730 732 733 735 736 737 738 740 741 744
+ 745 746 747 748 749 751 752]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="E8" t="n">
-        <v>1.223633766174316</v>
+        <v>16.44350433349609</v>
       </c>
     </row>
     <row r="9">
@@ -613,19 +934,59 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 1 1 0 1 1 0 1 1 0 0 1]</t>
+          <t>[0 0 1 0 1 0 0 0 1 1 1 0 0 1 1 0 1 1 0 1 1 1 0 0 1 1 0 0 1 0 1 0 0 0 0 1 1
+ 0 1 0 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 0 1 1 0 0 0 1 0 0 1 0 1 1 1 0 1
+ 1 0 0 1 0 1 0 0 1 0 0 0 1 0 1 1 1 0 0 0 1 1 1 0 0 1 0 1 0 0 0 0 0 1 0 0 1
+ 0 0 0 1 1 0 1 1 0 1 1 0 1 0 0 1 1 1 0 0 0 0 1 0 1 1 0 1 0 0 1 0 0 0 1 0 0
+ 1 0 1 1 1 1 1 0 1 0 1 1 1 0 1 1 1 1 0 0 0 1 1 0 1 0 0 1 0 1 0 1 1 0 1 0 1
+ 1 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 1 0
+ 1 0 0 0 1 0 0 1 0 0 1 1 1 1 1 1 0 1 0 1 1 1 0 1 0 1 0 1 0 0 0 0 1 0 0 1 0
+ 1 0 0 1 0 0 1 1 1 1 0 1 0 1 1 1 1 1 0 1 1 0 0 1 1 0 1 1 1 1 0 0 0 1 0 0 0
+ 1 0 1 1 0 0 1 0 0 0 1 1 1 1 1 1 0 1 0 1 1 1 1 0 1 1 0 1 0 0 0 0 1 1 1 1 1
+ 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 0 1 1 0 0 1 1 1 1 1 0 0 1 0 1 0 1 1
+ 0 1 1 1 0 0 1 1 0 0 1 0 0 0 1 1 1 0 1 1 1 1 1 0 1 0 1 1 1 1 1 1 1 0 1 1 0
+ 1 1 0 0 1 1 0 1 1 0 1 1 1 1 1 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 1 1 0 0
+ 1 0 1 0 1 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 1 0 1 0 0
+ 0 0 0 0 1 1 1 1 0 1 0 0 0 1 0 1 1 1 0 0 1 0 0 1 0 1 1 1 1 1 0 0 1 0 1 1 0
+ 0 1 0 0 0 0 0 0 1 1 1 1 0 1 0 0 0 1 1 1 1 1 0 1 0 0 0 0 0 1 1 0 1 1 1 0 0
+ 1 1 0 1 1 1 0 0 0 1 1 1 1 1 1 0 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 0 0 0 1 1 0
+ 1 0 0 1 1 0 1 1 1 0 1 1 1 0 0 0 1 1 1 1 1 0 0 0 0 0 0 1 1 0 1 1 1 0 1 0 1
+ 1 0 0 1 1 0 0 0 1 1 0 1 1 1 0 1 1 0 1 0 1 0 0 0 0 0 0 1 0 1 1 1 0 1 0 0 1
+ 1 0 1 0 1 1 1 1 1 0 1 0 0 0 1 1 0 0 1 0 1 1 1 1 0 1 1 1 0 0 0 0 1 0 1 0 1
+ 1 1 1 1 1 0 0 1 1 1 1 0 0 0 1 0 1 1 0 1 0 0 0 0 0 1 0 1 0 1 0 1 0 0 1 1 1
+ 0 1 1 0 1 0 1 0 1 1 0 1 0]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[ 0  3  6 13 16 18 19 20 22 23 25 26 29]</t>
+          <t>[  2   4   8   9  10  13  14  16  17  19  20  21  24  25  28  30  35  36
+  38  42  43  45  46  47  48  49  50  51  52  55  59  60  64  67  69  70
+  71  73  74  77  79  82  86  88  89  90  94  95  96  99 101 107 110 114
+ 115 117 118 120 121 123 126 127 128 133 135 136 138 141 145 148 150 151
+ 152 153 154 156 158 159 160 162 163 164 165 169 170 172 175 177 179 180
+ 182 184 185 187 190 194 199 207 209 212 216 220 222 226 229 232 233 234
+ 235 236 237 239 241 242 243 245 247 249 254 257 259 262 265 266 267 268
+ 270 272 273 274 275 276 278 279 282 283 285 286 287 288 292 296 298 299
+ 302 306 307 308 309 310 311 313 315 316 317 318 320 321 323 328 329 330
+ 331 332 333 339 344 347 351 353 354 357 358 359 360 361 364 366 368 369
+ 371 372 373 376 377 380 384 385 386 388 389 390 391 392 394 396 397 398
+ 399 400 401 402 404 405 407 408 411 412 414 415 417 418 419 420 421 423
+ 426 433 435 437 440 441 444 446 448 451 453 456 460 464 466 471 474 476
+ 478 485 486 487 488 490 494 496 497 498 501 504 506 507 508 509 510 513
+ 515 516 519 526 527 528 529 531 535 536 537 538 539 541 547 548 550 551
+ 552 555 556 558 559 560 564 565 566 567 568 569 571 575 576 580 581 585
+ 589 590 592 595 596 598 599 600 602 603 604 608 609 610 611 612 619 620
+ 622 623 624 626 628 629 632 633 637 638 640 641 642 644 645 647 649 656
+ 658 659 660 662 665 666 668 670 671 672 673 674 676 680 681 684 686 687
+ 688 689 691 692 693 698 700 702 703 704 705 706 707 710 711 712 713 717
+ 719 720 722 728 730 732 734 737 738 739 741 742 744 746 748 749 751]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="E9" t="n">
-        <v>1.463499069213867</v>
+        <v>18.80657744407654</v>
       </c>
     </row>
     <row r="10">
@@ -634,19 +995,66 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[1 1 1 1 0 1 0 1 0 1 0 1 1 1 0 0 1 1 1 0 0 1 1 1 0 0 0 1 1 0]</t>
+          <t>[0 1 1 0 0 0 0 1 1 0 0 1 0 0 1 1 1 1 0 1 1 1 1 0 1 0 0 0 1 0 0 0 0 1 1 1 1
+ 1 0 0 1 0 1 0 0 0 0 0 1 1 1 1 1 1 1 1 0 0 1 1 1 0 0 0 1 1 0 1 0 1 1 1 1 0
+ 0 1 1 1 1 1 1 1 1 0 0 0 0 1 1 1 1 1 1 1 1 1 0 1 1 1 1 0 1 1 1 1 1 1 1 0 0
+ 1 1 1 1 0 0 1 1 1 1 1 1 1 0 0 1 1 0 1 0 0 1 1 1 0 1 0 0 0 0 0 1 0 1 1 1 1
+ 0 0 1 0 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 0 1 1 1 1 1 1 1 1 0 0 0 1 1 1 1 0 1
+ 1 0 1 0 1 1 0 1 0 0 1 1 1 0 1 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 1 1 1 1 1 0 0
+ 1 0 0 0 1 1 1 1 1 1 1 1 0 1 1 1 1 0 1 1 0 0 1 0 1 1 0 1 1 1 1 0 0 1 0 0 0
+ 1 1 0 1 1 0 0 0 0 1 1 0 1 1 0 0 1 1 1 0 1 1 1 1 1 1 1 0 1 1 1 1 0 1 1 1 1
+ 0 0 1 1 0 1 1 0 0 1 1 1 1 1 1 0 1 1 0 1 0 0 0 1 1 0 0 0 0 1 1 1 1 0 0 1 1
+ 1 0 0 0 0 0 1 1 0 0 1 1 1 1 0 1 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 1 1 0 1 0
+ 0 0 1 1 1 1 0 1 0 0 0 1 1 1 1 1 1 1 1 0 0 0 0 0 1 1 1 1 1 1 1 1 0 1 1 1 0
+ 0 1 1 1 1 1 0 1 1 1 0 0 1 1 1 0 1 1 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 0 1
+ 0 1 1 1 0 0 1 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 1 1 0 1 0 0 0 1 1 0
+ 1 0 1 1 1 1 0 0 1 1 1 0 0 1 0 1 0 1 0 1 0 0 1 0 0 1 1 0 1 1 1 0 0 1 1 0 0
+ 1 1 0 1 0 1 0 1 1 1 1 0 1 0 0 0 1 1 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 1 1
+ 1 1 1 1 1 1 0 1 1 1 0 0 1 1 1 0 1 0 0 0 0 1 1 1 0 0 1 1 0 0 1 0 1 1 1 1 1
+ 1 0 1 1 0 1 0 0 1 1 0 1 1 1 0 1 0 0 1 0 0 1 1 0 1 1 0 1 1 0 0 1 0 0 1 1 1
+ 0 0 0 1 0 0 0 0 1 1 1 1 1 0 0 0 1 1 1 0 1 0 1 1 1 1 1 0 1 0 1 1 1 1 1 1 1
+ 1 1 0 1 1 1 0 0 1 1 1 0 1 1 1 0 0 1 1 0 0 1 1 1 1 0 1 1 1 0 1 1 1 1 1 1 1
+ 0 1 0 1 1 1 1 1 1 1 1 0 1 0 0 1 1 1 0 1 0 0 1 0 1 1 1 1 1 1 0 0 1 1 0 1 1
+ 1 1 1 1 1 0 1 1 1 1 1 0 1]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[ 0  1  2  3  5  7  9 11 12 13 16 17 18 21 22 23 27 28]</t>
+          <t>[  1   2   7   8  11  14  15  16  17  19  20  21  22  24  28  33  34  35
+  36  37  40  42  48  49  50  51  52  53  54  55  58  59  60  64  65  67
+  69  70  71  72  75  76  77  78  79  80  81  82  87  88  89  90  91  92
+  93  94  95  97  98  99 100 102 103 104 105 106 107 108 111 112 113 114
+ 117 118 119 120 121 122 123 126 127 129 132 133 134 136 142 144 145 146
+ 147 150 152 153 154 155 156 157 158 159 160 161 162 163 164 166 168 169
+ 170 171 172 173 174 175 179 180 181 182 184 185 187 189 190 192 195 196
+ 197 199 201 202 204 205 206 207 208 209 210 211 214 215 216 217 218 219
+ 222 226 227 228 229 230 231 232 233 235 236 237 238 240 241 244 246 247
+ 249 250 251 252 255 259 260 262 263 268 269 271 272 275 276 277 279 280
+ 281 282 283 284 285 287 288 289 290 292 293 294 295 298 299 301 302 305
+ 306 307 308 309 310 312 313 315 319 320 325 326 327 328 331 332 333 339
+ 340 343 344 345 346 348 349 350 351 352 353 354 355 356 358 359 360 362
+ 364 365 366 368 372 373 374 375 377 381 382 383 384 385 386 387 388 394
+ 395 396 397 398 399 400 401 403 404 405 408 409 410 411 412 414 415 416
+ 419 420 421 423 424 425 427 428 429 431 432 433 434 435 436 437 438 440
+ 441 443 445 446 447 450 451 452 453 454 455 456 457 459 460 461 462 463
+ 464 465 466 468 469 470 471 472 474 478 479 481 483 484 485 486 489 490
+ 491 494 496 498 500 503 506 507 509 510 511 514 515 518 519 521 523 525
+ 526 527 528 530 534 535 537 538 539 540 541 542 543 545 546 547 548 549
+ 550 551 552 553 554 555 556 557 558 559 560 562 563 564 567 568 569 571
+ 576 577 578 581 582 585 587 588 589 590 591 592 594 595 597 600 601 603
+ 604 605 607 610 613 614 616 617 619 620 623 626 627 628 632 637 638 639
+ 640 641 645 646 647 649 651 652 653 654 655 657 659 660 661 662 663 664
+ 665 666 667 669 670 671 674 675 676 678 679 680 683 684 687 688 689 690
+ 692 693 694 696 697 698 699 700 701 702 704 706 707 708 709 710 711 712
+ 713 715 718 719 720 722 725 727 728 729 730 731 732 735 736 738 739 740
+ 741 742 743 744 746 747 748 749 750 752]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E10" t="n">
-        <v>1.597866296768188</v>
+        <v>21.02269983291626</v>
       </c>
     </row>
     <row r="11">
@@ -655,19 +1063,65 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[1 1 1 1 0 1 0 1 1 0 0 1 1 1 0 0 1 0 1 0 1 0 1 1 1 1 0 1 0 0]</t>
+          <t>[1 1 0 0 1 1 0 0 1 1 1 0 1 1 0 0 1 1 1 0 1 0 1 0 1 1 1 1 1 1 1 0 0 1 0 1 1
+ 1 0 1 0 0 0 1 0 0 1 0 1 0 1 0 1 0 0 1 0 1 0 1 1 0 1 1 1 1 1 1 1 1 1 1 0 0
+ 0 0 0 1 0 1 1 1 0 1 0 1 1 1 1 1 0 0 0 1 1 1 1 1 1 1 0 0 0 0 0 1 1 1 0 1 1
+ 1 0 1 1 1 1 0 1 1 1 1 1 0 1 0 0 0 1 0 1 1 1 1 1 1 1 0 1 0 1 1 1 1 1 1 0 1
+ 1 0 1 1 1 1 1 1 1 0 0 0 1 0 1 0 1 0 0 1 1 1 1 0 1 1 1 0 1 1 0 1 1 0 0 1 0
+ 1 1 1 0 1 0 1 1 1 1 1 1 0 1 1 1 1 1 1 1 0 0 0 1 1 1 1 1 0 1 1 0 1 1 0 0 0
+ 1 1 1 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 1 1 0 0 1 1 1 1 1 1 0 1 1 1 1 1 1 1
+ 1 1 1 1 1 1 1 1 1 1 0 1 0 0 1 1 1 1 1 0 0 0 0 1 1 1 1 0 1 1 1 0 1 0 1 1 1
+ 0 0 0 1 1 1 1 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 1 1 1 0 0 1 0 1 0 0 1 1 1 1 1
+ 1 0 1 1 0 1 1 0 0 1 1 1 0 1 0 1 1 0 0 1 0 0 1 1 1 1 1 1 1 1 0 0 1 1 0 0 1
+ 1 0 0 1 0 1 1 1 0 1 0 1 1 0 1 1 0 0 0 0 1 1 1 0 1 1 1 1 0 0 0 1 1 0 0 1 1
+ 1 1 0 0 1 1 1 1 0 0 1 0 0 1 0 0 1 1 0 0 1 1 1 0 0 1 0 0 0 0 0 1 1 0 1 1 0
+ 1 1 1 1 0 0 1 0 0 1 0 0 0 1 1 1 1 0 1 1 1 1 0 1 1 0 1 1 1 1 1 0 0 1 0 0 1
+ 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 0 1 0 0 1 0 1 1 1 1 0 1 0 1 1 0 1 1 0 0 1
+ 0 1 1 0 1 0 1 1 1 0 0 1 1 1 0 1 0 0 1 0 0 0 1 0 1 0 0 0 1 1 0 1 1 0 1 1 1
+ 1 1 0 0 0 0 0 0 1 0 1 1 1 0 1 1 1 0 1 0 0 0 1 1 0 0 1 1 1 1 1 1 1 1 1 1 1
+ 1 1 1 1 0 1 1 0 1 0 1 1 1 1 0 0 1 0 0 1 0 1 0 1 1 1 1 1 1 1 1 1 1 1 1 1 1
+ 1 0 0 1 0 1 1 1 1 0 1 1 1 1 1 1 0 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 1 0 0 1
+ 1 1 0 1 0 1 0 1 0 0 1 1 0 0 0 1 0 1 0 1 0 0 1 1 1 1 1 0 1 1 1 0 0 1 1 1 0
+ 1 1 1 1 0 0 1 1 0 0 1 1 0 1 1 1 1 1 1 1 0 1 1 1 1 1 0 0 1 1 0 1 1 0 1 1 1
+ 1 1 1 1 1 0 1 0 1 1 1 1 0]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[ 0  1  2  3  5  7  8 11 12 13 16 18 20 22 23 24 25 27]</t>
+          <t>[  0   1   4   5   8   9  10  12  13  16  17  18  20  22  24  25  26  27
+  28  29  30  33  35  36  37  39  43  46  48  50  52  55  57  59  60  62
+  63  64  65  66  67  68  69  70  71  77  79  80  81  83  85  86  87  88
+  89  93  94  95  96  97  98  99 105 106 107 109 110 111 113 114 115 116
+ 118 119 120 121 122 124 128 130 131 132 133 134 135 136 138 140 141 142
+ 143 144 145 147 148 150 151 152 153 154 155 156 160 162 164 167 168 169
+ 170 172 173 174 176 177 179 180 183 185 186 187 189 191 192 193 194 195
+ 196 198 199 200 201 202 203 204 208 209 210 211 212 214 215 217 218 222
+ 223 224 225 226 229 230 231 232 234 235 237 238 239 240 241 242 245 246
+ 247 248 249 250 252 253 254 255 256 257 258 259 260 261 262 263 264 265
+ 266 267 268 270 273 274 275 276 277 282 283 284 285 287 288 289 291 293
+ 294 295 299 300 301 302 306 309 313 314 318 319 320 323 325 328 329 330
+ 331 332 333 335 336 338 339 342 343 344 346 348 349 352 355 356 357 358
+ 359 360 361 362 365 366 369 370 373 375 376 377 379 381 382 384 385 390
+ 391 392 394 395 396 397 401 402 405 406 407 408 411 412 413 414 417 420
+ 423 424 427 428 429 432 438 439 441 442 444 445 446 447 450 453 457 458
+ 459 460 462 463 464 465 467 468 470 471 472 473 474 477 480 481 482 484
+ 485 486 487 488 489 490 491 493 494 495 498 501 503 504 505 506 508 510
+ 511 513 514 517 519 520 522 524 525 526 529 530 531 533 536 540 542 546
+ 547 549 550 552 553 554 555 556 563 565 566 567 569 570 571 573 577 578
+ 581 582 583 584 585 586 587 588 589 590 591 592 593 594 595 597 598 600
+ 602 603 604 605 608 611 613 615 616 617 618 619 620 621 622 623 624 625
+ 626 627 628 629 632 634 635 636 637 639 640 641 642 643 644 646 647 648
+ 649 650 651 652 655 657 658 659 660 661 662 665 666 667 669 671 673 676
+ 677 681 683 685 688 689 690 691 692 694 695 696 699 700 701 703 704 705
+ 706 709 710 713 714 716 717 718 719 720 721 722 724 725 726 727 728 731
+ 732 734 735 737 738 739 740 741 742 743 744 746 748 749 750 751]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="E11" t="n">
-        <v>1.734287738800049</v>
+        <v>24.34594655036926</v>
       </c>
     </row>
     <row r="12">
@@ -676,19 +1130,65 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[1 0 1 0 0 1 0 0 1 1 0 0 0 0 1 1 1 0 1 0 0 1 1 0 1 1 1 0 0 1]</t>
+          <t>[1 0 1 0 1 1 1 0 0 1 1 1 1 1 1 0 1 0 1 0 1 1 1 0 1 0 1 1 0 0 1 1 0 0 1 0 1
+ 1 0 0 1 1 1 1 1 1 1 0 0 0 0 1 0 1 0 1 1 0 0 1 0 1 0 1 1 0 1 1 0 0 0 0 1 1
+ 1 1 0 1 0 1 1 0 1 1 0 0 1 0 0 1 1 0 0 1 0 1 1 0 1 1 0 0 0 1 1 0 1 0 1 0 1
+ 1 1 0 1 1 0 1 1 1 0 1 1 0 1 1 1 1 0 1 1 1 0 0 1 1 1 1 1 1 1 1 1 1 1 0 1 1
+ 1 1 0 1 1 1 1 0 1 0 1 1 0 0 1 1 1 0 1 0 1 0 1 0 0 1 1 1 1 1 1 1 0 0 1 1 1
+ 1 1 1 1 1 1 1 0 1 1 1 0 1 1 0 0 1 1 0 1 1 1 1 1 0 1 0 1 0 1 0 1 0 1 1 1 0
+ 1 0 1 1 0 0 1 1 1 0 1 1 0 1 0 1 1 0 1 1 0 1 0 0 1 0 0 1 0 0 1 1 1 1 0 1 1
+ 1 1 0 1 1 1 1 0 1 1 0 0 1 0 1 1 0 1 1 1 1 1 0 1 0 1 0 1 1 0 0 0 1 1 1 1 1
+ 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0 1 0 1 0 1 0 1 1 1 1 1 0 1 0 1 0 0 1 0 1
+ 0 1 0 1 1 1 0 1 0 1 0 1 0 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 0 1 1 0 1 1 0 1 1
+ 0 1 0 1 1 0 0 1 1 0 0 1 0 1 1 1 1 1 1 1 1 1 0 0 1 1 1 0 1 0 0 0 1 1 1 0 0
+ 1 1 1 1 1 1 0 0 1 1 0 1 1 1 1 1 0 1 0 0 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1 1
+ 1 1 1 0 0 1 1 0 1 0 1 0 0 1 1 1 0 1 1 1 0 1 1 1 1 1 1 1 0 0 1 1 0 1 1 1 1
+ 1 0 1 0 1 0 1 1 1 1 0 1 0 1 0 0 1 1 1 1 1 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1
+ 1 0 0 1 1 1 0 1 1 1 0 1 1 0 1 1 1 1 1 1 1 1 1 0 0 1 0 1 1 0 1 1 1 0 1 0 0
+ 0 1 1 1 0 0 1 1 0 0 0 1 1 1 1 1 1 1 1 0 1 1 0 1 0 1 1 0 0 1 0 1 1 1 0 1 0
+ 0 1 1 1 1 1 0 1 1 0 0 1 0 1 0 1 1 0 1 1 1 1 0 0 1 1 1 0 1 1 1 0 1 0 1 0 1
+ 0 0 1 1 0 1 0 0 0 0 0 1 1 1 1 0 0 0 0 0 1 0 1 1 1 0 0 1 0 1 1 1 1 1 1 1 1
+ 0 1 1 0 0 1 0 0 1 0 0 0 0 0 1 0 1 1 1 0 1 1 1 1 0 1 0 1 1 1 1 1 1 1 1 0 0
+ 1 0 0 1 0 0 0 1 0 1 0 1 1 1 0 0 1 0 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1 0 0 0
+ 1 0 1 1 1 1 0 1 1 1 1 0 0]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[ 0  2  5  8  9 14 15 16 18 21 22 24 25 26 29]</t>
+          <t>[  0   2   4   5   6   9  10  11  12  13  14  16  18  20  21  22  24  26
+  27  30  31  34  36  37  40  41  42  43  44  45  46  51  53  55  56  59
+  61  63  64  66  67  72  73  74  75  77  79  80  82  83  86  89  90  93
+  95  96  98  99 103 104 106 108 110 111 112 114 115 117 118 119 121 122
+ 124 125 126 127 129 130 131 134 135 136 137 138 139 140 141 142 143 144
+ 146 147 148 149 151 152 153 154 156 158 159 162 163 164 166 168 170 173
+ 174 175 176 177 178 179 182 183 184 185 186 187 188 189 190 191 193 194
+ 195 197 198 201 202 204 205 206 207 208 210 212 214 216 218 219 220 222
+ 224 225 228 229 230 232 233 235 237 238 240 241 243 246 249 252 253 254
+ 255 257 258 259 260 262 263 264 265 267 268 271 273 274 276 277 278 279
+ 280 282 284 286 287 291 292 293 294 295 299 300 301 303 305 306 307 308
+ 309 310 311 313 315 317 319 320 321 322 323 325 327 330 332 334 336 337
+ 338 340 342 344 346 348 349 350 351 352 353 354 355 357 358 359 362 363
+ 365 366 368 369 371 373 374 377 378 381 383 384 385 386 387 388 389 390
+ 391 394 395 396 398 402 403 404 407 408 409 410 411 412 415 416 418 419
+ 420 421 422 424 427 428 429 430 431 432 433 434 435 436 437 438 440 441
+ 442 443 444 445 446 449 450 452 454 457 458 459 461 462 463 465 466 467
+ 468 469 470 471 474 475 477 478 479 480 481 483 485 487 488 489 490 492
+ 494 497 498 499 500 501 502 507 512 514 517 518 521 522 523 525 526 527
+ 529 530 532 533 534 535 536 537 538 539 540 543 545 546 548 549 550 552
+ 556 557 558 561 562 566 567 568 569 570 571 572 573 575 576 578 580 581
+ 584 586 587 588 590 593 594 595 596 597 599 600 603 605 607 608 610 611
+ 612 613 616 617 618 620 621 622 624 626 628 631 632 634 640 641 642 643
+ 649 651 652 653 656 658 659 660 661 662 663 664 665 667 668 671 674 680
+ 682 683 684 686 687 688 689 691 693 694 695 696 697 698 699 700 703 706
+ 710 712 714 715 716 719 721 722 723 724 725 726 727 728 729 730 731 732
+ 734 735 736 740 742 743 744 745 747 748 749 750]</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="E12" t="n">
-        <v>2.025699615478516</v>
+        <v>27.42998576164246</v>
       </c>
     </row>
     <row r="13">
@@ -697,19 +1197,65 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[0 1 0 1 0 0 1 0 1 0 0 0 1 0 0 0 1 1 1 1 0 0 1 0 1 0 0 0 0 0]</t>
+          <t>[0 0 1 0 1 1 0 0 0 0 1 1 0 0 1 0 0 1 1 1 1 1 1 0 0 0 1 1 0 0 0 1 0 1 1 0 0
+ 1 1 0 0 0 1 1 0 0 1 1 1 0 0 1 1 1 1 1 0 1 0 0 1 0 0 0 0 1 1 0 1 1 0 0 1 1
+ 1 1 1 1 0 1 0 1 0 0 0 0 1 1 1 0 1 0 0 1 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 0 1
+ 1 1 0 1 1 1 1 0 0 0 0 0 0 1 1 1 1 1 1 1 0 0 0 1 1 0 1 0 1 0 1 0 0 1 0 1 1
+ 1 0 1 0 1 0 1 1 1 0 0 1 1 1 1 1 1 1 1 1 1 0 0 1 1 0 1 1 0 0 1 1 1 1 1 1 1
+ 1 1 1 1 0 1 0 0 1 1 1 1 0 0 0 1 0 1 1 0 1 1 1 1 1 0 0 0 0 1 1 1 1 0 1 1 0
+ 1 0 1 1 0 0 1 1 1 0 1 0 1 1 1 1 1 0 1 0 1 1 1 1 0 0 0 1 1 1 0 1 0 1 1 1 1
+ 0 1 1 1 1 1 1 0 1 1 1 1 0 1 1 1 0 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1
+ 1 1 1 0 1 1 1 1 0 1 1 0 0 1 1 0 0 1 1 0 0 1 1 1 1 1 1 1 1 1 1 0 0 1 1 1 1
+ 0 0 1 1 1 0 1 1 1 0 0 0 1 0 1 0 1 0 1 1 0 1 1 1 1 0 0 0 1 1 0 1 1 1 1 1 1
+ 1 1 1 0 1 0 0 0 1 0 0 0 0 1 1 1 0 0 1 0 0 0 1 1 0 0 1 1 0 1 1 1 1 1 0 1 1
+ 1 1 0 1 0 1 1 0 1 0 0 1 1 1 1 1 1 1 1 1 1 1 1 0 0 1 1 1 1 0 0 1 1 0 0 1 0
+ 1 0 0 0 0 1 0 1 0 1 1 1 1 1 1 0 1 1 1 1 1 0 0 0 1 1 1 1 1 1 0 0 0 1 1 1 1
+ 1 1 0 0 0 1 1 0 0 0 1 1 0 1 1 0 0 0 0 1 0 1 0 1 1 1 1 0 0 0 1 0 0 1 1 1 0
+ 1 1 1 1 1 1 0 1 1 1 1 1 0 0 1 1 1 0 1 1 1 1 0 1 0 1 1 0 1 0 1 1 1 1 0 0 1
+ 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 1 1 1 1 1 0 1 1 1 1 0 1 1 0 1 1 1 1 1 0 0
+ 1 0 1 0 1 1 1 1 0 1 1 1 0 0 1 1 1 0 1 1 1 0 1 1 1 1 1 1 0 1 0 1 0 0 1 0 0
+ 0 1 1 1 1 0 1 0 1 0 1 1 1 1 0 1 1 1 1 0 1 1 1 0 0 1 1 1 1 1 1 1 1 1 0 1 0
+ 0 1 1 1 1 1 0 1 0 1 0 1 1 1 1 1 1 1 1 1 1 0 1 0 1 0 1 1 1 1 1 0 0 0 1 1 1
+ 0 0 1 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 1 1 1 1 1 1 1 0 1 0 0 0 1 1 1
+ 1 0 1 1 0 1 1 0 0 0 0 1 0]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[ 1  3  6  8 12 16 17 18 19 22 24]</t>
+          <t>[  2   4   5  10  11  14  17  18  19  20  21  22  26  27  31  33  34  37
+  38  42  43  46  47  48  51  52  53  54  55  57  60  65  66  68  69  72
+  73  74  75  76  77  79  81  86  87  88  90  93  94  97  99 100 101 103
+ 104 105 106 107 108 110 111 112 114 115 116 117 124 125 126 127 128 129
+ 130 134 135 137 139 141 144 146 147 148 150 152 154 155 156 159 160 161
+ 162 163 164 165 166 167 168 171 172 174 175 178 179 180 181 182 183 184
+ 185 186 187 188 190 193 194 195 196 200 202 203 205 206 207 208 209 214
+ 215 216 217 219 220 222 224 225 228 229 230 232 234 235 236 237 238 240
+ 242 243 244 245 249 250 251 253 255 256 257 258 260 261 262 263 264 265
+ 267 268 269 270 272 273 274 276 277 278 279 280 281 282 283 284 285 286
+ 287 288 289 290 291 292 293 295 296 297 298 300 301 302 303 305 306 309
+ 310 313 314 317 318 319 320 321 322 323 324 325 326 329 330 331 332 335
+ 336 337 339 340 341 345 347 349 351 352 354 355 356 357 361 362 364 365
+ 366 367 368 369 370 371 372 374 378 383 384 385 388 392 393 396 397 399
+ 400 401 402 403 405 406 407 408 410 412 413 415 418 419 420 421 422 423
+ 424 425 426 427 428 429 432 433 434 435 438 439 442 444 449 451 453 454
+ 455 456 457 458 460 461 462 463 464 468 469 470 471 472 473 477 478 479
+ 480 481 482 486 487 491 492 494 495 500 502 504 505 506 507 511 514 515
+ 516 518 519 520 521 522 523 525 526 527 528 529 532 533 534 536 537 538
+ 539 541 543 544 546 548 549 550 551 554 555 558 559 560 561 563 564 566
+ 567 568 569 571 572 573 574 575 577 578 579 580 582 583 585 586 587 588
+ 589 592 594 596 597 598 599 601 602 603 606 607 608 610 611 612 614 615
+ 616 617 618 619 621 623 626 630 631 632 633 635 637 639 640 641 642 644
+ 645 646 647 649 650 651 654 655 656 657 658 659 660 661 662 664 667 668
+ 669 670 671 673 675 677 678 679 680 681 682 683 684 685 686 688 690 692
+ 693 694 695 696 700 701 702 705 708 711 715 717 722 725 726 727 728 729
+ 730 731 733 737 738 739 740 742 743 745 746 751]</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E13" t="n">
-        <v>2.171159744262695</v>
+        <v>30.68376159667969</v>
       </c>
     </row>
     <row r="14">
@@ -718,19 +1264,65 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[1 1 1 0 1 0 1 0 0 1 0 0 0 1 0 1 1 1 1 0 0 1 1 0 1 0 1 1 0 0]</t>
+          <t>[1 1 0 1 1 1 1 1 1 0 1 0 1 1 1 1 0 1 1 1 1 1 1 1 0 1 1 0 0 1 0 1 1 0 0 0 1
+ 1 1 1 1 0 0 1 0 1 0 1 1 1 0 0 0 1 0 0 0 1 1 1 1 1 1 0 1 0 1 1 1 1 0 1 1 0
+ 0 0 1 1 0 0 1 0 1 1 1 1 1 1 1 1 0 0 0 1 1 1 1 1 1 0 1 0 1 0 1 1 0 1 1 1 0
+ 0 1 1 0 1 0 0 1 0 0 0 1 1 1 1 1 1 0 1 1 0 1 1 0 1 1 1 0 1 1 0 1 1 1 1 0 0
+ 0 1 0 0 1 0 0 0 1 0 0 1 1 0 1 1 1 1 0 1 1 0 0 1 0 1 1 0 1 1 1 1 0 1 1 0 1
+ 1 1 1 0 0 0 0 1 0 0 1 0 1 1 1 0 1 1 1 1 0 1 0 1 0 1 1 0 1 1 1 0 0 0 1 1 1
+ 1 1 1 1 1 0 0 1 0 0 0 1 0 0 0 1 1 1 0 0 0 1 1 0 0 1 0 1 0 0 1 1 0 0 0 1 1
+ 0 1 1 1 0 1 1 0 1 0 0 1 1 0 1 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 1 0 1 1 1 1 1
+ 1 1 1 1 0 1 1 1 1 1 1 0 1 1 0 1 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1
+ 1 1 0 1 1 0 1 0 1 1 1 0 0 0 1 1 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 1 1 0 1 0 1
+ 1 1 0 1 1 1 1 1 0 1 0 1 1 0 1 0 1 1 1 1 1 1 0 1 1 1 1 0 0 0 1 1 0 1 1 0 1
+ 0 1 0 1 1 1 0 0 0 1 1 1 0 1 1 1 0 1 1 0 1 1 0 1 0 1 1 0 1 1 0 0 1 1 1 0 0
+ 0 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1 1 1 0 0 0 1 1 1 1 1 0 1 1 0 1 0 0 1 1 0
+ 1 0 0 0 0 1 1 0 0 1 1 0 0 1 0 1 0 0 1 0 1 1 1 1 1 1 1 1 0 1 1 0 0 1 1 1 1
+ 0 1 0 1 1 1 0 1 1 1 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 1 1 1 1 0 0 0 0 1 1 1 1
+ 1 1 1 1 1 0 1 1 1 1 1 1 1 1 1 1 1 0 0 1 1 0 0 1 1 0 0 1 1 0 1 0 1 1 0 1 1
+ 1 0 1 1 1 0 1 1 1 1 1 0 0 1 1 1 0 1 1 0 0 1 0 1 1 1 1 0 0 1 1 0 1 1 1 0 1
+ 1 1 1 0 0 1 0 1 0 0 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 0 1 0 1 1 1 1 1 1 1
+ 0 1 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 1 1 0 1 0 1 0
+ 0 0 0 1 1 1 1 1 1 1 0 1 1 0 1 0 1 1 0 1 1 1 0 1 1 1 1 1 0 1 1 0 0 0 0 0 1
+ 0 0 1 1 0 0 1 0 0 1 0 1 1]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[ 0  1  2  4  6  9 13 15 16 17 18 21 22 24 26 27]</t>
+          <t>[  0   1   3   4   5   6   7   8  10  12  13  14  15  17  18  19  20  21
+  22  23  25  26  29  31  32  36  37  38  39  40  43  45  47  48  49  53
+  57  58  59  60  61  62  64  66  67  68  69  71  72  76  77  80  82  83
+  84  85  86  87  88  89  93  94  95  96  97  98 100 102 104 105 107 108
+ 109 112 113 115 118 122 123 124 125 126 127 129 130 132 133 135 136 137
+ 139 140 142 143 144 145 149 152 156 159 160 162 163 164 165 167 168 171
+ 173 174 176 177 178 179 181 182 184 185 186 187 192 195 197 198 199 201
+ 202 203 204 206 208 210 211 213 214 215 219 220 221 222 223 224 225 226
+ 229 233 237 238 239 243 244 247 249 252 253 257 258 260 261 262 264 265
+ 267 270 271 273 275 276 277 278 280 281 283 284 285 286 289 291 292 293
+ 294 295 296 297 298 299 301 302 303 304 305 306 308 309 311 313 314 315
+ 317 319 320 321 322 323 324 325 327 328 329 330 331 332 333 334 336 337
+ 339 341 342 343 347 348 349 350 351 352 354 355 357 358 359 360 364 365
+ 367 369 370 371 373 374 375 376 377 379 381 382 384 386 387 388 389 390
+ 391 393 394 395 396 400 401 403 404 406 408 410 411 412 416 417 418 420
+ 421 422 424 425 427 428 430 432 433 435 436 439 440 441 445 446 447 448
+ 449 450 451 452 453 454 455 456 458 459 460 461 462 466 467 468 469 470
+ 472 473 475 478 479 481 486 487 490 491 494 496 499 501 502 503 504 505
+ 506 507 508 510 511 514 515 516 517 519 521 522 523 525 526 527 531 532
+ 534 542 543 544 545 546 551 552 553 554 555 556 557 558 559 561 562 563
+ 564 565 566 567 568 569 570 571 574 575 578 579 582 583 585 587 588 590
+ 591 592 594 595 596 598 599 600 601 602 605 606 607 609 610 613 615 616
+ 617 618 621 622 624 625 626 628 629 630 631 634 636 640 642 644 646 647
+ 650 651 652 653 655 657 659 660 661 662 663 664 665 667 669 670 671 672
+ 673 674 675 677 678 679 680 681 682 683 684 685 686 687 689 690 691 693
+ 695 696 697 699 701 706 707 708 709 710 711 712 714 715 717 719 720 722
+ 723 724 726 727 728 729 730 732 733 739 742 743 746 749 751 752]</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E14" t="n">
-        <v>2.372955322265625</v>
+        <v>31.94249176979065</v>
       </c>
     </row>
     <row r="15">
@@ -739,19 +1331,66 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[0 1 1 0 1 1 0 0 1 0 0 1 1 0 1 1 0 1 1 1 1 0 1 0 1 0 1 1 1 1]</t>
+          <t>[0 0 1 0 1 1 1 0 0 0 0 1 1 0 0 1 1 1 1 0 1 1 0 0 0 0 0 1 1 1 0 1 0 1 0 1 0
+ 1 1 0 0 1 1 0 1 1 1 1 1 1 0 1 0 1 1 1 1 1 1 0 0 1 1 0 0 0 1 1 1 1 0 1 1 0
+ 1 1 1 1 0 1 1 1 0 0 1 1 0 1 1 1 0 1 0 1 1 1 1 0 1 0 1 1 1 1 1 1 1 1 1 1 1
+ 0 1 1 1 1 1 1 1 1 1 0 1 1 1 0 0 0 1 0 1 1 0 0 1 1 0 1 1 1 1 1 1 1 0 1 0 1
+ 1 1 1 0 0 1 1 0 0 0 1 1 0 1 0 1 0 1 1 1 1 0 1 1 0 0 0 1 0 1 0 0 1 1 1 1 1
+ 1 1 1 1 1 0 0 1 1 1 0 1 1 1 0 0 1 1 1 1 0 1 0 1 0 0 0 1 1 1 0 0 0 0 1 1 1
+ 0 0 1 1 1 1 1 0 0 0 0 0 1 1 1 1 1 0 0 1 0 1 1 1 0 1 1 1 1 1 0 1 1 1 1 1 1
+ 1 1 1 1 1 1 1 1 0 0 1 1 0 1 1 0 0 1 1 1 0 1 0 1 0 1 1 1 1 1 1 1 1 1 1 1 1
+ 0 0 1 1 1 0 1 0 0 1 1 1 0 1 0 0 1 1 1 0 1 0 1 0 0 1 1 0 1 0 0 1 1 1 1 1 1
+ 1 1 0 0 1 0 1 1 0 1 0 1 1 1 0 0 1 0 1 0 1 1 1 1 1 1 1 0 0 1 1 0 1 1 1 1 0
+ 0 0 0 0 0 0 1 0 1 1 0 1 1 1 0 1 1 0 1 1 0 1 1 0 1 0 1 1 1 0 1 1 0 0 1 0 1
+ 1 1 0 0 0 0 1 1 1 1 1 0 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 0 1 1 1 1 1 0
+ 1 1 0 0 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 1 0 0 0 1 1 0 1 1 1 0 0 0 1 1 1
+ 0 1 0 1 1 1 1 0 1 1 1 1 0 1 0 1 1 1 0 1 1 1 0 0 0 1 0 1 1 0 1 1 1 0 0 0 1
+ 1 1 1 1 1 1 0 1 0 1 1 1 1 1 0 0 0 1 1 1 1 1 0 1 1 1 1 1 1 1 1 1 1 0 1 0 0
+ 1 1 1 1 0 0 0 1 1 1 0 1 0 1 1 1 1 0 0 1 0 1 1 0 0 1 1 1 0 1 0 1 1 1 1 1 0
+ 1 1 0 1 1 1 1 1 1 0 1 1 0 1 1 1 1 0 1 0 0 0 0 0 0 1 0 1 1 1 1 1 1 1 1 1 0
+ 1 1 1 0 0 1 1 1 1 1 1 1 0 0 1 1 1 1 1 0 0 0 0 0 0 1 0 1 0 1 1 0 1 1 1 1 1
+ 1 0 0 1 1 1 1 0 0 0 1 0 0 1 0 1 1 0 0 1 0 0 1 1 0 1 0 1 1 1 0 1 1 0 0 1 1
+ 1 1 1 0 1 0 0 1 1 1 1 1 0 1 0 1 1 0 1 1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 1 0
+ 0 1 1 0 0 1 1 1 1 0 0 1 1]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[ 1  2  4  5  8 11 12 14 15 17 18 19 20 22 24 26 27 28 29]</t>
+          <t>[  2   4   5   6  11  12  15  16  17  18  20  21  27  28  29  31  33  35
+  37  38  41  42  44  45  46  47  48  49  51  53  54  55  56  57  58  61
+  62  66  67  68  69  71  72  74  75  76  77  79  80  81  84  85  87  88
+  89  91  93  94  95  96  98 100 101 102 103 104 105 106 107 108 109 110
+ 112 113 114 115 116 117 118 119 120 122 123 124 128 130 131 134 135 137
+ 138 139 140 141 142 143 145 147 148 149 150 153 154 158 159 161 163 165
+ 166 167 168 170 171 175 177 180 181 182 183 184 185 186 187 188 189 192
+ 193 194 196 197 198 201 202 203 204 206 208 212 213 214 219 220 221 224
+ 225 226 227 228 234 235 236 237 238 241 243 244 245 247 248 249 250 251
+ 253 254 255 256 257 258 259 260 261 262 263 264 265 266 269 270 272 273
+ 276 277 278 280 282 284 285 286 287 288 289 290 291 292 293 294 295 298
+ 299 300 302 305 306 307 309 312 313 314 316 318 321 322 324 327 328 329
+ 330 331 332 333 334 337 339 340 342 344 345 346 349 351 353 354 355 356
+ 357 358 359 362 363 365 366 367 368 376 378 379 381 382 383 385 386 388
+ 389 391 392 394 396 397 398 400 401 404 406 407 408 413 414 415 416 417
+ 419 420 421 422 424 425 426 427 428 429 430 431 433 434 435 438 439 440
+ 441 442 444 445 448 449 450 451 452 453 454 456 457 458 460 462 464 465
+ 469 470 472 473 474 478 479 480 482 484 485 486 487 489 490 491 492 494
+ 496 497 498 500 501 502 506 508 509 511 512 513 517 518 519 520 521 522
+ 523 525 527 528 529 530 531 535 536 537 538 539 541 542 543 544 545 546
+ 547 548 549 550 552 555 556 557 558 562 563 564 566 568 569 570 571 574
+ 576 577 580 581 582 584 586 587 588 589 590 592 593 595 596 597 598 599
+ 600 602 603 605 606 607 608 610 617 619 620 621 622 623 624 625 626 627
+ 629 630 631 634 635 636 637 638 639 640 643 644 645 646 647 654 656 658
+ 659 661 662 663 664 665 666 669 670 671 672 676 679 681 682 685 688 689
+ 691 693 694 695 697 698 701 702 703 704 705 707 710 711 712 713 714 716
+ 718 719 721 722 724 725 726 727 729 731 733 735 736 738 741 742 745 746
+ 747 748 751 752]</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E15" t="n">
-        <v>2.654525518417358</v>
+        <v>32.62498641014099</v>
       </c>
     </row>
     <row r="16">
@@ -760,19 +1399,64 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[0 1 1 1 1 1 1 0 0 0 0 0 0 1 0 1 0 1 1 1 1 1 1 0 0 0 1 0 0 1]</t>
+          <t>[1 0 0 1 1 1 1 1 1 0 1 0 1 0 1 0 1 0 1 1 0 0 0 0 1 0 0 1 0 1 0 1 1 1 1 1 0
+ 1 1 0 0 0 1 0 1 1 1 0 1 1 1 0 1 1 1 1 1 1 0 1 0 0 1 1 0 1 1 0 1 1 0 1 1 1
+ 1 1 1 1 1 1 0 1 0 1 0 1 1 1 0 1 0 0 1 1 1 0 0 1 0 1 1 0 0 1 0 0 1 1 1 1 0
+ 1 1 1 0 1 1 1 1 1 1 1 1 1 0 1 0 0 0 0 1 0 1 1 0 1 0 0 0 1 1 1 0 1 0 1 0 1
+ 0 1 1 0 1 0 0 1 1 1 1 0 1 0 0 0 1 0 1 1 1 1 0 1 1 1 0 1 1 1 0 1 1 1 0 1 0
+ 1 1 1 1 1 0 0 0 1 1 1 1 1 1 0 1 1 0 0 1 0 0 1 1 1 0 1 1 0 1 0 0 1 1 0 0 1
+ 1 1 1 0 1 1 0 0 1 0 0 1 0 0 1 1 1 1 0 0 1 1 1 0 1 0 0 1 1 0 1 1 1 1 1 1 1
+ 1 1 0 1 1 1 1 0 1 1 1 0 0 1 0 0 1 0 1 1 0 0 1 1 1 0 1 1 0 0 0 1 1 1 1 0 0
+ 0 1 0 1 0 1 0 0 1 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 0 0 1 1 1 1 1 1 0 1 0 1 0
+ 1 1 0 1 1 0 1 0 0 1 0 0 0 1 1 0 0 1 0 1 1 0 1 1 1 1 0 1 0 0 1 0 0 0 0 1 1
+ 0 1 1 0 0 1 0 0 1 1 0 1 1 1 1 0 1 1 1 0 0 0 0 0 1 0 0 1 0 1 1 0 1 1 1 0 0
+ 1 0 1 1 1 1 1 1 1 0 0 1 1 0 0 0 0 1 0 1 1 1 1 1 1 0 1 0 1 0 1 0 1 1 1 1 1
+ 1 0 0 1 1 0 1 1 1 0 1 1 1 1 0 1 1 0 0 1 0 1 0 0 0 1 1 1 1 1 1 1 0 1 1 0 1
+ 1 1 1 1 1 1 0 1 0 0 1 0 0 1 0 1 1 1 0 1 0 1 1 0 0 1 1 0 0 1 0 0 0 1 1 1 1
+ 1 0 0 1 1 1 1 0 1 1 0 0 1 1 0 1 0 1 0 1 1 1 1 1 1 0 1 0 1 1 1 1 1 1 1 0 1
+ 0 0 1 0 1 0 1 0 0 1 1 1 1 1 1 0 1 0 1 0 0 1 1 0 1 0 0 1 0 1 0 1 0 0 0 1 0
+ 1 1 0 0 1 0 0 1 1 0 0 0 0 0 1 0 1 0 1 1 0 0 0 1 1 1 1 1 1 0 1 1 1 0 1 0 0
+ 0 0 0 0 0 1 0 1 1 1 1 0 0 0 1 1 1 1 1 0 0 1 1 1 1 1 0 0 1 1 1 1 0 0 1 0 1
+ 1 0 1 1 0 0 0 1 0 0 1 1 1 1 1 0 1 0 1 1 1 0 1 0 1 1 0 0 1 1 1 0 0 0 1 1 1
+ 0 1 1 1 1 0 0 0 0 0 1 1 1 1 1 1 1 1 0 0 1 1 1 0 1 1 0 0 1 1 0 1 0 1 1 1 1
+ 1 1 1 1 0 0 1 1 1 0 1 1 1]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[ 1  2  3  4  5  6 13 15 17 18 19 20 21 22 26 29]</t>
+          <t>[  0   3   4   5   6   7   8  10  12  14  16  18  19  24  27  29  31  32
+  33  34  35  37  38  42  44  45  46  48  49  50  52  53  54  55  56  57
+  59  62  63  65  66  68  69  71  72  73  74  75  76  77  78  79  81  83
+  85  86  87  89  92  93  94  97  99 100 103 106 107 108 109 111 112 113
+ 115 116 117 118 119 120 121 122 123 125 130 132 133 135 139 140 141 143
+ 145 147 149 150 152 155 156 157 158 160 164 166 167 168 169 171 172 173
+ 175 176 177 179 180 181 183 185 186 187 188 189 193 194 195 196 197 198
+ 200 201 204 207 208 209 211 212 214 217 218 221 222 223 224 226 227 230
+ 233 236 237 238 239 242 243 244 246 249 250 252 253 254 255 256 257 258
+ 259 260 262 263 264 265 267 268 269 272 275 277 278 281 282 283 285 286
+ 290 291 292 293 297 299 301 304 306 307 308 311 312 314 315 316 317 318
+ 319 322 323 324 325 326 327 329 331 333 334 336 337 339 342 346 347 350
+ 352 353 355 356 357 358 360 363 368 369 371 372 375 378 379 381 382 383
+ 384 386 387 388 394 397 399 400 402 403 404 407 409 410 411 412 413 414
+ 415 418 419 424 426 427 428 429 430 431 433 435 437 439 440 441 442 443
+ 444 447 448 450 451 452 454 455 456 457 459 460 463 465 469 470 471 472
+ 473 474 475 477 478 480 481 482 483 484 485 486 488 491 494 496 497 498
+ 500 502 503 506 507 510 514 515 516 517 518 521 522 523 524 526 527 530
+ 531 533 535 537 538 539 540 541 542 544 546 547 548 549 550 551 552 554
+ 557 559 561 564 565 566 567 568 569 571 573 576 577 579 582 584 586 590
+ 592 593 596 599 600 606 608 610 611 615 616 617 618 619 620 622 623 624
+ 626 634 636 637 638 639 643 644 645 646 647 650 651 652 653 654 657 658
+ 659 660 663 665 666 668 669 673 676 677 678 679 680 682 684 685 686 688
+ 690 691 694 695 696 700 701 702 704 705 706 707 713 714 715 716 717 718
+ 719 720 723 724 725 727 728 731 732 734 736 737 738 739 740 741 742 743
+ 746 747 748 750 751 752]</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="E16" t="n">
-        <v>2.694464683532715</v>
+        <v>34.95893263816833</v>
       </c>
     </row>
     <row r="17">
@@ -781,19 +1465,65 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[0 1 0 1 1 0 1 1 1 0 1 0 1 1 1 0 1 0 1 1 1 0 0 0 0 1 1 1 0 0]</t>
+          <t>[0 1 0 1 1 1 0 0 1 1 0 1 1 1 1 0 0 1 1 1 1 1 0 0 0 1 1 0 1 0 1 1 1 0 1 0 1
+ 1 0 1 1 1 0 0 0 0 0 0 1 1 0 1 0 0 1 1 1 1 1 1 0 1 1 0 1 0 1 0 1 1 1 1 0 1
+ 0 0 0 1 1 1 1 0 0 1 1 0 1 1 1 0 0 1 0 1 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 0
+ 1 0 1 1 0 1 0 0 1 0 0 1 1 1 0 1 1 0 0 1 0 1 1 1 1 1 1 1 1 1 1 1 0 0 0 0 1
+ 0 1 0 1 1 0 1 1 0 1 1 1 0 0 0 1 1 1 1 1 0 0 1 1 0 1 1 1 0 1 1 0 0 1 1 1 0
+ 1 0 1 0 1 1 1 1 0 1 1 1 1 0 1 1 0 1 1 1 0 1 0 0 0 0 0 0 0 1 0 0 1 1 1 1 1
+ 0 1 1 0 1 0 0 1 0 1 0 0 1 1 0 1 1 1 0 0 0 0 1 1 0 0 1 0 1 1 1 0 0 0 1 1 0
+ 1 1 1 0 0 0 1 1 1 1 0 0 0 0 1 1 1 0 0 1 0 0 1 1 0 0 0 1 1 1 1 1 1 1 1 1 1
+ 1 1 1 0 0 0 1 1 1 0 1 1 1 0 1 0 1 0 1 1 1 0 1 1 1 1 0 1 1 1 1 1 1 1 0 0 1
+ 1 1 1 1 0 0 1 0 1 1 1 0 0 1 0 1 1 0 0 0 0 1 1 1 1 0 1 0 1 1 1 1 1 0 0 1 0
+ 1 0 0 1 1 0 0 1 1 1 1 0 0 1 1 1 1 0 0 1 1 1 0 0 0 1 1 0 1 1 0 0 1 1 1 1 1
+ 0 1 1 0 0 0 1 0 1 0 1 1 0 0 1 1 0 1 1 1 0 1 1 0 1 0 1 0 1 0 1 1 1 0 1 1 0
+ 1 1 1 1 1 0 0 0 1 1 1 0 0 1 1 0 0 1 1 1 1 1 1 1 0 1 1 0 1 1 0 1 1 0 1 1 1
+ 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 1 0 1 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1
+ 1 1 1 1 1 1 1 1 1 0 1 1 1 1 0 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 1 1 0 1 0 1 1
+ 1 1 1 0 1 0 1 0 1 1 1 0 1 0 1 1 1 1 0 1 1 0 1 1 1 1 1 0 1 0 1 0 1 1 1 1 1
+ 1 0 0 1 0 1 0 0 1 1 0 1 1 1 0 1 1 0 0 0 0 1 1 1 0 0 1 1 1 1 1 1 0 0 1 0 1
+ 1 0 1 0 0 1 1 1 0 1 1 1 1 1 0 1 1 1 0 0 1 1 0 1 0 1 1 1 0 1 1 0 1 0 1 1 1
+ 1 0 0 1 0 0 1 0 0 1 1 1 0 1 0 1 0 1 1 1 0 0 1 1 1 1 0 0 1 1 0 1 0 1 1 0 1
+ 1 0 1 1 0 0 1 0 1 1 0 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1 0 1 1 0 1 1 1 1 0 1
+ 0 1 1 0 1 0 1 1 1 1 1 0 1]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[ 1  3  4  6  7  8 10 12 13 14 16 18 19 20 25 26 27]</t>
+          <t>[  1   3   4   5   8   9  11  12  13  14  17  18  19  20  21  25  26  28
+  30  31  32  34  36  37  39  40  41  48  49  51  54  55  56  57  58  59
+  61  62  64  66  68  69  70  71  73  77  78  79  80  83  84  86  87  88
+  91  93  94  97  99 100 101 103 104 105 106 107 108 109 111 113 114 116
+ 119 122 123 124 126 127 130 132 133 134 135 136 137 138 139 140 141 142
+ 147 149 151 152 154 155 157 158 159 163 164 165 166 167 170 171 173 174
+ 175 177 178 181 182 183 185 187 189 190 191 192 194 195 196 197 199 200
+ 202 203 204 206 214 217 218 219 220 221 223 224 226 229 231 234 235 237
+ 238 239 244 245 248 250 251 252 256 257 259 260 261 265 266 267 268 273
+ 274 275 278 281 282 286 287 288 289 290 291 292 293 294 295 296 297 298
+ 302 303 304 306 307 308 310 312 314 315 316 318 319 320 321 323 324 325
+ 326 327 328 329 332 333 334 335 336 339 341 342 343 346 348 349 354 355
+ 356 357 359 361 362 363 364 365 368 370 373 374 377 378 379 380 383 384
+ 385 386 389 390 391 395 396 398 399 402 403 404 405 406 408 409 413 415
+ 417 418 421 422 424 425 426 428 429 431 433 435 437 438 439 441 442 444
+ 445 446 447 448 452 453 454 457 458 461 462 463 464 465 466 467 469 470
+ 472 473 475 476 478 479 480 481 484 485 487 488 489 490 491 492 493 494
+ 496 497 498 499 501 502 505 506 507 508 509 510 511 513 514 515 516 517
+ 518 519 520 521 522 523 524 525 526 528 529 530 531 534 535 536 537 538
+ 539 540 541 543 544 545 547 548 549 551 553 554 555 556 557 559 561 563
+ 564 565 567 569 570 571 572 574 575 577 578 579 580 581 583 585 587 588
+ 589 590 591 592 595 597 600 601 603 604 605 607 608 613 614 615 618 619
+ 620 621 622 623 626 628 629 631 634 635 636 638 639 640 641 642 644 645
+ 646 649 650 652 654 655 656 658 659 661 663 664 665 666 669 672 675 676
+ 677 679 681 683 684 685 688 689 690 691 694 695 697 699 700 702 703 705
+ 706 709 711 712 714 715 716 717 718 719 720 721 722 723 724 725 727 728
+ 729 731 732 734 735 736 737 739 741 742 744 746 747 748 749 750 752]</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E17" t="n">
-        <v>3.382902145385742</v>
+        <v>37.4660267829895</v>
       </c>
     </row>
     <row r="18">
@@ -802,19 +1532,65 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[0 0 0 0 1 1 1 1 0 1 0 0 1 1 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 1]</t>
+          <t>[1 1 0 1 1 1 1 0 1 1 0 0 0 0 0 0 0 1 1 1 1 1 1 0 1 1 1 1 1 0 0 1 1 1 0 1 1
+ 0 0 1 0 0 1 1 0 1 1 0 1 1 1 1 0 1 1 0 1 1 0 1 1 1 0 1 1 0 1 1 1 0 1 1 1 1
+ 0 0 1 1 1 0 1 1 1 1 0 1 0 0 0 1 1 1 0 1 1 1 0 1 0 1 0 0 0 1 1 0 1 1 1 1 1
+ 1 1 1 1 0 0 0 1 1 0 0 1 1 1 1 1 0 1 0 0 1 0 1 1 1 0 1 0 1 1 0 1 1 1 0 1 1
+ 1 1 1 1 0 1 0 1 1 1 1 1 0 1 1 0 1 1 1 0 0 0 1 0 1 1 1 1 0 0 1 1 1 0 1 1 1
+ 0 1 1 0 0 1 1 0 0 1 0 0 1 1 0 0 0 0 1 1 1 1 1 0 1 1 1 1 0 1 1 1 0 0 1 1 1
+ 1 0 0 1 0 1 0 1 0 1 1 0 1 0 0 1 1 1 1 0 0 1 1 1 0 0 1 1 1 1 1 0 0 1 1 0 1
+ 0 0 1 0 1 1 0 0 0 0 1 0 1 1 1 1 1 1 1 0 1 1 0 0 1 1 1 0 0 1 1 1 1 1 1 1 0
+ 1 1 1 1 0 0 0 1 0 1 0 1 0 1 1 0 0 1 0 0 0 1 1 1 1 0 0 1 1 1 1 1 0 1 1 0 1
+ 1 1 0 1 1 0 1 1 0 1 1 0 1 1 1 1 0 0 1 0 0 0 1 1 0 1 1 1 0 1 1 1 1 0 1 1 1
+ 0 0 1 1 0 0 0 1 1 1 1 0 0 1 1 0 0 1 0 1 0 1 0 1 1 0 0 1 1 1 0 1 0 0 0 0 1
+ 1 1 0 1 1 1 0 1 1 1 1 1 1 0 1 1 1 0 1 0 1 1 1 0 1 0 1 1 1 0 0 1 0 0 1 1 1
+ 1 1 1 0 1 1 1 0 0 1 0 1 1 1 1 1 1 0 1 1 1 1 0 1 0 0 1 1 1 1 1 0 0 1 0 0 1
+ 0 1 0 1 1 1 0 1 1 1 1 0 1 0 1 1 1 0 0 1 0 1 0 0 0 0 1 1 0 1 1 1 1 0 1 0 1
+ 1 0 0 1 1 0 1 0 1 1 1 1 0 0 1 1 1 0 1 1 1 0 1 1 0 0 0 1 0 0 1 0 1 1 0 1 1
+ 1 0 1 1 1 1 0 0 1 0 0 1 0 1 1 1 0 1 1 0 1 0 1 1 0 1 1 0 0 1 0 1 1 0 0 1 1
+ 0 1 1 0 0 1 1 0 1 1 0 0 0 1 1 1 0 1 1 0 1 0 1 1 0 1 0 0 0 1 1 0 1 1 1 1 0
+ 1 0 0 1 0 1 1 1 1 1 1 0 1 0 0 1 1 0 0 1 1 1 1 1 0 1 0 1 1 1 1 1 0 1 0 1 1
+ 0 1 0 1 1 1 1 1 0 0 1 0 0 1 0 1 0 0 1 1 1 0 0 1 1 1 0 0 1 0 0 1 1 0 0 0 1
+ 1 1 0 1 1 1 0 1 0 1 1 0 1 1 0 0 1 0 1 1 1 1 1 0 1 0 1 0 1 1 1 1 0 1 1 0 0
+ 1 0 1 1 1 0 0 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[ 4  5  6  7  9 12 13 17 18 20 23 29]</t>
+          <t>[  0   1   3   4   5   6   8   9  17  18  19  20  21  22  24  25  26  27
+  28  31  32  33  35  36  39  42  43  45  46  48  49  50  51  53  54  56
+  57  59  60  61  63  64  66  67  68  70  71  72  73  76  77  78  80  81
+  82  83  85  89  90  91  93  94  95  97  99 103 104 106 107 108 109 110
+ 111 112 113 114 118 119 122 123 124 125 126 128 131 133 134 135 137 139
+ 140 142 143 144 146 147 148 149 150 151 153 155 156 157 158 159 161 162
+ 164 165 166 170 172 173 174 175 178 179 180 182 183 184 186 187 190 191
+ 194 197 198 203 204 205 206 207 209 210 211 212 214 215 216 219 220 221
+ 222 225 227 229 231 232 234 237 238 239 240 243 244 245 248 249 250 251
+ 252 255 256 258 261 263 264 269 271 272 273 274 275 276 277 279 280 283
+ 284 285 288 289 290 291 292 293 294 296 297 298 299 303 305 307 309 310
+ 313 317 318 319 320 323 324 325 326 327 329 330 332 333 334 336 337 339
+ 340 342 343 345 346 347 348 351 355 356 358 359 360 362 363 364 365 367
+ 368 369 372 373 377 378 379 380 383 384 387 389 391 393 394 397 398 399
+ 401 406 407 408 410 411 412 414 415 416 417 418 419 421 422 423 425 427
+ 428 429 431 433 434 435 438 441 442 443 444 445 446 448 449 450 453 455
+ 456 457 458 459 460 462 463 464 465 467 470 471 472 473 474 477 480 482
+ 484 485 486 488 489 490 491 493 495 496 497 500 502 507 508 510 511 512
+ 513 515 517 518 521 522 524 526 527 528 529 532 533 534 536 537 538 540
+ 541 545 548 550 551 553 554 555 557 558 559 560 563 566 568 569 570 572
+ 573 575 577 578 580 581 584 586 587 590 591 593 594 597 598 600 601 605
+ 606 607 609 610 612 614 615 617 621 622 624 625 626 627 629 632 634 635
+ 636 637 638 639 641 644 645 648 649 650 651 652 654 656 657 658 659 660
+ 662 664 665 667 669 670 671 672 673 676 679 681 684 685 686 689 690 691
+ 694 697 698 702 703 704 706 707 708 710 712 713 715 716 719 721 722 723
+ 724 725 727 729 731 732 733 734 736 737 740 742 743 744 747 748 749 750
+ 751 752]</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="E18" t="n">
-        <v>3.726885795593262</v>
+        <v>38.81699895858765</v>
       </c>
     </row>
     <row r="19">
@@ -823,19 +1599,64 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 0 0 0 0 0 0 1 1 1 1 0 1 0 0 0 0 0 1 0 1 0 0 0 1]</t>
+          <t>[0 1 1 0 1 0 1 0 1 1 1 0 1 1 1 0 0 1 0 1 0 1 0 1 0 1 1 1 1 1 0 1 1 0 1 1 0
+ 1 1 0 1 0 1 1 0 1 1 0 1 1 1 0 1 0 1 0 1 1 1 1 0 0 0 1 1 0 0 1 0 1 1 1 1 0
+ 1 1 1 0 1 1 0 1 0 0 1 0 0 0 1 1 0 0 0 1 0 1 0 1 0 1 1 0 1 1 0 1 1 0 0 1 1
+ 1 1 0 0 0 0 0 0 0 1 1 0 1 1 1 1 1 1 1 1 1 1 0 1 0 1 1 1 1 1 0 1 1 1 0 1 1
+ 1 1 1 1 1 1 1 0 0 0 1 0 0 1 0 1 1 1 1 0 1 1 0 1 1 1 0 0 0 0 0 0 0 0 1 1 0
+ 1 1 0 0 1 1 1 1 0 1 1 0 0 1 1 1 0 0 0 0 0 1 1 0 1 1 1 0 1 0 1 1 1 0 1 1 1
+ 1 0 0 1 0 0 1 0 1 1 1 1 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1
+ 1 1 0 1 0 0 1 1 1 1 1 1 0 1 0 1 1 0 1 0 1 1 0 0 1 1 1 1 1 0 1 1 0 1 0 1 1
+ 0 0 0 0 0 1 0 0 1 0 0 1 1 0 1 1 1 1 1 0 0 1 0 0 0 0 1 0 0 1 1 1 1 1 0 0 0
+ 1 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 0 1 0 0 1 1 1 0 1 1 0 1 1 0 0 1 0 0 0 0 1
+ 1 1 1 1 0 0 0 1 0 1 1 0 1 1 1 1 1 1 1 0 0 1 1 1 0 1 1 0 1 1 0 1 1 1 0 1 1
+ 0 1 1 0 1 0 1 0 0 1 0 1 0 0 0 1 1 1 0 1 1 0 0 0 0 1 1 0 1 1 1 1 1 1 0 0 0
+ 1 1 1 1 1 1 0 1 1 0 1 0 1 0 0 0 1 1 1 0 1 1 1 1 1 0 1 0 0 1 1 1 1 1 1 0 0
+ 1 0 0 0 0 1 1 1 0 1 1 0 1 0 1 1 1 1 1 1 0 1 1 1 1 1 0 1 0 0 0 0 1 1 0 1 0
+ 1 1 0 0 0 0 1 1 1 1 1 1 0 1 0 1 1 1 0 0 0 1 1 0 1 1 1 0 0 0 0 1 1 1 1 0 0
+ 1 0 0 1 0 1 0 1 1 0 0 1 1 1 1 1 1 1 0 1 0 1 0 1 0 1 1 1 1 1 0 0 0 1 0 1 1
+ 1 0 1 0 0 0 0 1 0 1 0 1 1 1 1 1 1 1 1 1 0 1 1 1 1 1 1 0 1 0 1 1 1 1 0 0 0
+ 0 1 1 1 1 0 1 1 0 0 1 0 1 1 0 1 1 1 0 1 0 1 0 1 1 0 1 1 1 0 1 1 1 0 1 0 0
+ 0 1 1 1 1 1 1 1 1 1 1 1 0 0 1 1 0 0 1 1 1 1 0 0 0 1 0 1 0 0 1 0 1 1 1 1 1
+ 0 1 0 1 1 0 0 1 1 1 1 1 1 1 0 1 0 0 1 0 1 0 1 0 1 1 1 0 0 1 1 1 1 1 1 1 1
+ 0 0 1 1 0 1 1 1 1 1 0 0 1]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[ 0  2  3  4  5 12 13 14 15 17 23 25 29]</t>
+          <t>[  1   2   4   6   8   9  10  12  13  14  17  19  21  23  25  26  27  28
+  29  31  32  34  35  37  38  40  42  43  45  46  48  49  50  52  54  56
+  57  58  59  63  64  67  69  70  71  72  74  75  76  78  79  81  84  88
+  89  93  95  97  99 100 102 103 105 106 109 110 111 112 120 121 123 124
+ 125 126 127 128 129 130 131 132 134 136 137 138 139 140 142 143 144 146
+ 147 148 149 150 151 152 153 154 158 161 163 164 165 166 168 169 171 172
+ 173 182 183 185 186 189 190 191 192 194 195 198 199 200 206 207 209 210
+ 211 213 215 216 217 219 220 221 222 225 228 230 231 232 233 236 241 244
+ 247 249 250 251 253 254 255 256 257 258 259 260 262 265 266 267 268 269
+ 270 272 274 275 277 279 280 283 284 285 286 287 289 290 292 294 295 301
+ 304 307 308 310 311 312 313 314 317 322 325 326 327 328 329 333 334 340
+ 341 342 344 346 347 348 350 353 354 355 357 358 360 361 364 369 370 371
+ 372 373 377 379 380 382 383 384 385 386 387 388 391 392 393 395 396 398
+ 399 401 402 403 405 406 408 409 411 413 416 418 422 423 424 426 427 432
+ 433 435 436 437 438 439 440 444 445 446 447 448 449 451 452 454 456 460
+ 461 462 464 465 466 467 468 470 473 474 475 476 477 478 481 486 487 488
+ 490 491 493 495 496 497 498 499 500 502 503 504 505 506 508 513 514 516
+ 518 519 524 525 526 527 528 529 531 533 534 535 539 540 542 543 544 549
+ 550 551 552 555 558 560 562 563 566 567 568 569 570 571 572 574 576 578
+ 580 581 582 583 584 588 590 591 592 594 599 601 603 604 605 606 607 608
+ 609 610 611 613 614 615 616 617 618 620 622 623 624 625 630 631 632 633
+ 635 636 639 641 642 644 645 646 648 650 652 653 655 656 657 659 660 661
+ 663 667 668 669 670 671 672 673 674 675 676 677 680 681 684 685 686 687
+ 691 693 696 698 699 700 701 702 704 706 707 710 711 712 713 714 715 716
+ 718 721 723 725 727 728 729 732 733 734 735 736 737 738 739 742 743 745
+ 746 747 748 749 752]</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E19" t="n">
-        <v>3.812547922134399</v>
+        <v>41.58358383178711</v>
       </c>
     </row>
     <row r="20">
@@ -844,19 +1665,64 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[1 1 0 0 1 1 1 0 1 1 0 1 1 1 0 0 0 1 1 0 0 1 0 1 1 0 0 1 1 0]</t>
+          <t>[1 1 0 1 0 1 1 1 1 1 0 1 1 0 0 1 1 0 1 1 0 1 0 1 0 0 1 1 0 0 1 1 1 1 0 1 1
+ 0 0 1 0 0 1 1 0 1 1 1 0 0 0 1 0 0 1 1 1 1 1 1 1 1 1 1 1 1 0 1 0 1 1 1 1 0
+ 0 0 1 0 0 0 0 1 1 0 1 1 1 1 1 0 1 1 1 1 1 1 1 0 0 0 1 1 1 1 1 1 0 0 0 1 1
+ 0 1 1 1 1 1 1 0 1 0 0 1 1 0 1 0 1 0 1 0 1 1 1 1 1 1 0 0 0 0 0 1 1 0 0 1 0
+ 1 0 1 1 1 0 0 1 1 0 0 1 0 0 1 0 1 1 0 0 1 1 1 1 1 1 1 1 0 1 0 1 0 0 0 0 1
+ 1 1 1 1 1 1 0 1 1 0 1 1 0 0 0 1 1 0 1 0 1 0 0 0 1 0 1 1 1 0 1 1 0 0 1 0 1
+ 0 0 1 1 1 1 1 1 1 0 1 1 1 0 0 1 0 0 1 0 0 1 1 1 1 0 0 0 1 0 1 0 1 1 1 0 1
+ 0 1 1 1 1 1 0 0 0 1 1 0 0 1 1 0 1 1 0 0 1 1 0 0 1 1 1 0 0 0 1 0 1 1 1 1 0
+ 1 1 0 1 1 1 1 0 1 1 1 1 1 0 0 1 1 1 1 0 1 0 0 0 0 1 0 1 1 0 1 1 0 1 1 0 0
+ 0 0 0 1 1 0 1 0 1 0 1 1 1 1 0 1 1 1 1 1 1 1 1 1 0 1 1 1 1 0 0 1 0 1 1 0 1
+ 0 1 1 1 1 1 1 0 1 1 1 1 1 0 1 0 1 1 0 1 1 1 0 1 1 1 1 1 1 0 1 0 1 1 0 0 1
+ 0 0 0 1 1 0 1 1 0 0 0 1 1 0 0 0 1 1 0 1 1 0 0 0 0 1 0 1 1 1 1 1 0 1 0 1 1
+ 1 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 1 0 0 1 1 0 1 1 0 0 1 1 1 1 1 0 1 1 1 1 1
+ 1 1 1 0 1 1 1 0 1 0 1 1 1 1 1 0 0 0 1 1 0 1 1 1 1 1 0 0 0 1 1 0 0 1 1 0 1
+ 1 0 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 0 1 1 1 1 0 1 0 1 1 1 0 0 1 1 0 1
+ 1 1 0 0 1 1 1 0 1 0 1 0 1 1 0 1 0 1 0 0 0 1 0 0 0 1 1 1 0 1 1 0 0 0 1 1 1
+ 0 1 0 0 0 1 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 1 0 0 1
+ 0 0 0 0 1 0 0 0 1 1 0 1 1 0 1 1 1 0 0 0 1 1 1 1 0 0 1 1 0 1 1 1 1 0 0 1 1
+ 1 0 1 0 1 1 1 1 1 0 1 1 0 0 1 1 0 1 0 1 0 1 0 0 1 0 0 1 1 1 0 0 0 1 1 1 0
+ 0 1 0 0 0 1 1 1 1 1 1 1 1 1 0 0 1 1 1 0 0 1 1 0 1 0 1 1 1 1 0 1 1 1 1 1 1
+ 0 1 0 1 1 0 1 0 0 1 1 1 0]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[ 0  1  4  5  6  8  9 11 12 13 17 18 21 23 24 27 28]</t>
+          <t>[  0   1   3   5   6   7   8   9  11  12  15  16  18  19  21  23  26  27
+  30  31  32  33  35  36  39  42  43  45  46  47  51  54  55  56  57  58
+  59  60  61  62  63  64  65  67  69  70  71  72  76  81  82  84  85  86
+  87  88  90  91  92  93  94  95  96 100 101 102 103 104 105 109 110 112
+ 113 114 115 116 117 119 122 123 125 127 129 131 132 133 134 135 136 142
+ 143 146 148 150 151 152 155 156 159 162 164 165 168 169 170 171 172 173
+ 174 175 177 179 184 185 186 187 188 189 190 192 193 195 196 200 201 203
+ 205 209 211 212 213 215 216 219 221 224 225 226 227 228 229 230 232 233
+ 234 237 240 243 244 245 246 250 252 254 255 256 258 260 261 262 263 264
+ 268 269 272 273 275 276 279 280 283 284 285 289 291 292 293 294 296 297
+ 299 300 301 302 304 305 306 307 308 311 312 313 314 316 321 323 324 326
+ 327 329 330 336 337 339 341 343 344 345 346 348 349 350 351 352 353 354
+ 355 356 358 359 360 361 364 366 367 369 371 372 373 374 375 376 378 379
+ 380 381 382 384 386 387 389 390 391 393 394 395 396 397 398 400 402 403
+ 406 410 411 413 414 418 419 423 424 426 427 432 434 435 436 437 438 440
+ 442 443 444 446 447 448 449 451 452 454 455 456 457 460 463 464 466 467
+ 470 471 472 473 474 476 477 478 479 480 481 482 483 485 486 487 489 491
+ 492 493 494 495 499 500 502 503 504 505 506 510 511 514 515 517 518 521
+ 522 523 525 526 527 528 529 530 531 532 535 537 539 540 541 542 544 546
+ 547 548 551 552 554 555 556 559 560 561 563 565 567 568 570 572 576 580
+ 581 582 584 585 589 590 591 593 597 599 601 605 607 617 619 621 622 625
+ 628 633 637 638 640 641 643 644 645 649 650 651 652 655 656 658 659 660
+ 661 664 665 666 668 670 671 672 673 674 676 677 680 681 683 685 687 690
+ 693 694 695 699 700 701 704 708 709 710 711 712 713 714 715 716 719 720
+ 721 724 725 727 729 730 731 732 734 735 736 737 738 739 741 743 744 746
+ 749 750 751]</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E20" t="n">
-        <v>3.993324279785156</v>
+        <v>45.24225234985352</v>
       </c>
     </row>
     <row r="21">
@@ -865,19 +1731,64 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[1 0 1 0 1 1 0 1 1 0 0 0 0 1 0 0 0 1 1 1 1 0 1 0 0 0 0 0 0 1]</t>
+          <t>[0 1 1 0 1 1 0 1 0 0 0 0 1 0 1 1 0 0 1 1 1 0 1 0 1 1 1 0 1 0 0 1 0 0 1 1 1
+ 1 1 0 1 1 1 0 1 0 1 1 0 1 1 0 1 0 1 1 0 1 0 0 1 0 0 0 1 0 1 1 1 1 1 1 1 1
+ 0 1 1 1 0 1 1 0 0 0 1 0 1 1 1 1 1 1 0 1 0 1 1 1 1 1 0 0 1 1 1 0 0 1 1 1 0
+ 0 1 1 0 1 0 1 0 1 0 0 1 1 1 0 1 1 1 1 1 1 0 1 0 0 0 1 1 1 1 0 1 1 0 0 1 1
+ 1 1 1 1 1 0 0 1 0 1 0 0 1 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 1 0 1 1 0 0 1 0 1
+ 1 1 0 0 1 0 0 0 1 1 1 0 1 1 0 0 1 0 1 0 0 0 1 1 0 1 0 0 1 1 1 0 1 1 0 0 1
+ 1 1 1 1 1 1 1 0 0 1 0 1 1 0 1 1 0 1 0 1 1 1 0 1 1 1 0 0 0 1 0 1 1 0 1 1 1
+ 0 0 1 1 0 1 1 0 1 0 0 1 0 1 1 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 0 1 0 1 1 1 0
+ 0 1 1 1 0 0 0 0 1 0 1 1 1 1 1 0 1 1 1 0 0 1 1 1 0 1 0 0 0 1 1 1 0 1 1 1 1
+ 1 1 1 0 1 1 1 0 0 0 1 0 0 1 1 1 1 0 1 1 1 1 1 0 1 1 1 0 1 0 1 1 0 0 1 1 0
+ 1 1 1 1 1 1 0 1 0 1 0 1 1 1 1 1 0 0 0 0 0 1 1 0 0 1 1 1 1 1 0 1 0 0 1 0 0
+ 0 1 1 1 0 0 1 1 1 0 1 0 1 0 1 1 1 1 1 1 1 1 1 1 0 0 1 1 1 1 1 1 1 1 1 1 1
+ 0 0 1 1 1 1 0 0 0 1 1 0 1 0 1 1 0 1 0 0 1 0 1 1 0 0 1 0 0 1 0 0 1 1 1 1 0
+ 1 1 1 0 0 1 1 0 0 0 0 1 1 1 1 1 0 0 1 0 1 1 0 1 1 0 0 1 0 0 0 0 0 1 1 1 0
+ 1 1 1 1 0 1 0 1 1 1 1 1 0 1 0 1 0 0 1 0 1 0 0 1 1 0 0 1 1 0 0 1 1 1 0 0 1
+ 0 0 1 1 1 0 1 1 1 1 0 0 0 1 0 0 0 1 1 0 0 0 1 0 1 1 0 0 1 1 0 0 0 1 1 1 1
+ 1 1 1 1 1 1 0 0 0 0 1 0 0 0 1 1 1 1 0 0 1 1 0 0 0 1 0 0 0 1 0 0 1 1 1 1 1
+ 1 0 0 1 0 1 1 1 1 0 0 0 1 0 1 0 0 1 1 0 0 1 1 0 0 0 1 0 1 1 1 1 1 1 1 1 0
+ 1 1 0 1 0 1 0 0 1 1 1 0 0 0 1 0 1 0 1 0 0 1 1 1 1 0 0 0 1 1 1 1 1 1 1 1 0
+ 1 1 0 1 0 1 0 1 1 1 1 1 0 1 0 0 1 1 1 0 1 1 1 1 1 1 1 0 0 1 1 0 0 1 0 1 1
+ 1 0 0 1 0 1 1 1 0 1 1 1 1]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[ 0  2  4  5  7  8 13 17 18 19 20 22 29]</t>
+          <t>[  1   2   4   5   7  12  14  15  18  19  20  22  24  25  26  28  31  34
+  35  36  37  38  40  41  42  44  46  47  49  50  52  54  55  57  60  64
+  66  67  68  69  70  71  72  73  75  76  77  79  80  84  86  87  88  89
+  90  91  93  95  96  97  98  99 102 103 104 107 108 109 112 113 115 117
+ 119 122 123 124 126 127 128 129 130 131 133 137 138 139 140 142 143 146
+ 147 148 149 150 151 152 155 157 160 161 163 164 165 167 168 169 170 171
+ 172 173 174 176 178 179 182 184 185 186 189 193 194 195 197 198 201 203
+ 207 208 210 213 214 215 217 218 221 222 223 224 225 226 227 228 231 233
+ 234 236 237 239 241 242 243 245 246 247 251 253 254 256 257 258 261 262
+ 264 265 267 270 272 273 274 275 276 277 278 279 280 282 283 284 285 286
+ 287 288 290 292 293 294 297 298 299 304 306 307 308 309 310 312 313 314
+ 317 318 319 321 325 326 327 329 330 331 332 333 334 335 337 338 339 343
+ 346 347 348 349 351 352 353 354 355 357 358 359 361 363 364 367 368 370
+ 371 372 373 374 375 377 379 381 382 383 384 385 391 392 395 396 397 398
+ 399 401 404 408 409 410 413 414 415 417 419 421 422 423 424 425 426 427
+ 428 429 430 433 434 435 436 437 438 439 440 441 442 443 446 447 448 449
+ 453 454 456 458 459 461 464 466 467 470 473 476 477 478 479 481 482 483
+ 486 487 492 493 494 495 496 499 501 502 504 505 508 514 515 516 518 519
+ 520 521 523 525 526 527 528 529 531 533 536 538 541 542 545 546 549 550
+ 551 554 557 558 559 561 562 563 564 568 572 573 577 579 580 583 584 588
+ 589 590 591 592 593 594 595 596 597 602 606 607 608 609 612 613 617 621
+ 624 625 626 627 628 629 632 634 635 636 637 641 643 646 647 650 651 655
+ 657 658 659 660 661 662 663 664 666 667 669 671 674 675 676 680 682 684
+ 687 688 689 690 694 695 696 697 698 699 700 701 703 704 706 708 710 711
+ 712 713 714 716 719 720 721 723 724 725 726 727 728 729 732 733 736 738
+ 739 740 743 745 746 747 749 750 751 752]</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E21" t="n">
-        <v>4.603810787200928</v>
+        <v>53.28820466995239</v>
       </c>
     </row>
   </sheetData>
